--- a/PECI Scenarios.xlsx
+++ b/PECI Scenarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zoeba\Documents\Github_AMS\PECI-Survial-Kit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{271616E0-4E04-4E51-AB9D-55CD0E8FBA3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD88EF5-B145-4BCA-A68C-4A936C9D3787}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{D7E23470-C107-7A4A-A7A7-876076D8D3A2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D7E23470-C107-7A4A-A7A7-876076D8D3A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Personal Data" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2171" uniqueCount="676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2188" uniqueCount="688">
   <si>
     <t>Scenario ID</t>
   </si>
@@ -2065,6 +2065,42 @@
   </si>
   <si>
     <t>peci:Payment_Election@peci:isDeleted or @peci:isAdded or @peci:isUpdated]/peci:Branch_ID</t>
+  </si>
+  <si>
+    <t>peci:Personal/peci:Date_of_Birth[@peci:priorValue or @peci:isDeleted or @peci:isAdded]</t>
+  </si>
+  <si>
+    <t>peci:Personal/peci:Gender[@peci:sDeleted or @peci:isAdded]</t>
+  </si>
+  <si>
+    <t>peci:Personal/peci:Marital_Status[@peci:isAdded or @peci:isDeleted]</t>
+  </si>
+  <si>
+    <t>peci:Personal/peci:Ethnicity[@peci:isAdded or @peci:isDeleted]</t>
+  </si>
+  <si>
+    <t>peci:Personal/peci:Nationality[@peci:isAdded or @peci:isDeleted]</t>
+  </si>
+  <si>
+    <t>peci:Personal/peci:Workday_Account[@peci:priorValue]</t>
+  </si>
+  <si>
+    <t>peci:Personal/peci:Marital_Status_Date[@peci:isAdded or @peci:isDeleted]</t>
+  </si>
+  <si>
+    <t>peci:National_Identifier[@peci:sAdded or @peci:isUpdated or @peci:IsDeleted]/peci:National_ID[@peci:priorValue]</t>
+  </si>
+  <si>
+    <t>peci:National_Identifier[@peci:sAdded or @peci:isUpdated or @peci:IsDeleted]/peci:National_ID_Type[@peci:priorValue]</t>
+  </si>
+  <si>
+    <t>peci:Person_Identification[@peci:isAdded or @peci:isUpdated or @peci:isDeleted]/peci:National_Identifier[@peci:isAdded or @peci:isUpdated or @peci:IsDeleted]</t>
+  </si>
+  <si>
+    <t>peci:Person_Identification[@peci:isAdded or @peci:isUpdated or @peci:isDeleted]/peci:Other_Identifier[@peci:isAdded or @peci:isUpdated or @peci:IsDeleted]/peci:Custom_ID[@peci:isAdded or @peci:isUpdated or @peci:IsDeleted]</t>
+  </si>
+  <si>
+    <t>peci:Person_Identification[@peci:isAdded or @peci:isUpdated or @peci:isDeleted]/peci:Other_Identifier[@peci:isAdded or @peci:isUpdated or @peci:IsDeleted]/peci:Custom_ID[@peci:isAdded or @peci:isUpdated or @peci:IsDeleted]/peci:Custom_ID_Type[@peci:isAdded or @peci:isUpdated or @peci:IsDeleted]</t>
   </si>
 </sst>
 </file>
@@ -2891,8 +2927,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:H464"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
-      <selection activeCell="G452" sqref="G452"/>
+    <sheetView tabSelected="1" topLeftCell="A302" zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
+      <selection activeCell="F304" sqref="F304"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.5"/>
@@ -3886,7 +3922,7 @@
       <c r="G70" s="3"/>
       <c r="H70" s="3"/>
     </row>
-    <row r="71" spans="1:8">
+    <row r="71" spans="1:8" ht="31">
       <c r="A71" s="8"/>
       <c r="B71" s="3" t="s">
         <v>584</v>
@@ -3898,11 +3934,13 @@
       <c r="E71" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F71" s="3"/>
+      <c r="F71" s="3" t="s">
+        <v>677</v>
+      </c>
       <c r="G71" s="3"/>
       <c r="H71" s="3"/>
     </row>
-    <row r="72" spans="1:8">
+    <row r="72" spans="1:8" ht="31">
       <c r="A72" s="8"/>
       <c r="B72" s="3" t="s">
         <v>585</v>
@@ -3914,7 +3952,9 @@
       <c r="E72" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F72" s="3"/>
+      <c r="F72" s="3" t="s">
+        <v>676</v>
+      </c>
       <c r="G72" s="3"/>
       <c r="H72" s="3"/>
     </row>
@@ -3994,7 +4034,9 @@
       <c r="E77" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F77" s="3"/>
+      <c r="F77" s="3" t="s">
+        <v>678</v>
+      </c>
       <c r="G77" s="3"/>
       <c r="H77" s="3"/>
     </row>
@@ -4010,7 +4052,9 @@
       <c r="E78" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F78" s="3"/>
+      <c r="F78" s="3" t="s">
+        <v>682</v>
+      </c>
       <c r="G78" s="3"/>
       <c r="H78" s="3"/>
     </row>
@@ -4046,7 +4090,7 @@
       <c r="G80" s="3"/>
       <c r="H80" s="3"/>
     </row>
-    <row r="81" spans="1:8">
+    <row r="81" spans="1:8" ht="31">
       <c r="A81" s="8"/>
       <c r="B81" s="3" t="s">
         <v>594</v>
@@ -4058,11 +4102,13 @@
       <c r="E81" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F81" s="3"/>
+      <c r="F81" s="3" t="s">
+        <v>679</v>
+      </c>
       <c r="G81" s="3"/>
       <c r="H81" s="3"/>
     </row>
-    <row r="82" spans="1:8">
+    <row r="82" spans="1:8" ht="31">
       <c r="A82" s="8"/>
       <c r="B82" s="3" t="s">
         <v>595</v>
@@ -4074,7 +4120,9 @@
       <c r="E82" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F82" s="3"/>
+      <c r="F82" s="3" t="s">
+        <v>680</v>
+      </c>
       <c r="G82" s="3"/>
       <c r="H82" s="3"/>
     </row>
@@ -4266,7 +4314,9 @@
       <c r="E94" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F94" s="3"/>
+      <c r="F94" s="3" t="s">
+        <v>681</v>
+      </c>
       <c r="G94" s="3"/>
       <c r="H94" s="3"/>
     </row>
@@ -6414,7 +6464,7 @@
       <c r="G248" s="3"/>
       <c r="H248" s="3"/>
     </row>
-    <row r="249" spans="1:8" ht="16" customHeight="1">
+    <row r="249" spans="1:8" ht="62">
       <c r="A249" s="8"/>
       <c r="B249" s="3"/>
       <c r="C249" s="3" t="s">
@@ -6423,8 +6473,12 @@
       <c r="D249" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="E249" s="3"/>
-      <c r="F249" s="3"/>
+      <c r="E249" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F249" s="3" t="s">
+        <v>685</v>
+      </c>
       <c r="G249" s="3"/>
       <c r="H249" s="3"/>
     </row>
@@ -6498,7 +6552,7 @@
       <c r="G255" s="3"/>
       <c r="H255" s="3"/>
     </row>
-    <row r="256" spans="1:8">
+    <row r="256" spans="1:8" ht="62">
       <c r="A256" s="8"/>
       <c r="B256" s="3"/>
       <c r="C256" s="3" t="s">
@@ -6507,20 +6561,28 @@
       <c r="D256" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="E256" s="3"/>
-      <c r="F256" s="3"/>
+      <c r="E256" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F256" s="3" t="s">
+        <v>683</v>
+      </c>
       <c r="G256" s="3"/>
       <c r="H256" s="3"/>
     </row>
-    <row r="257" spans="1:8" ht="16" customHeight="1">
+    <row r="257" spans="1:8" ht="65" customHeight="1">
       <c r="A257" s="8"/>
       <c r="B257" s="3"/>
       <c r="C257" s="3"/>
       <c r="D257" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="E257" s="3"/>
-      <c r="F257" s="3"/>
+      <c r="E257" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F257" s="3" t="s">
+        <v>684</v>
+      </c>
       <c r="G257" s="3"/>
       <c r="H257" s="3"/>
     </row>
@@ -7038,7 +7100,7 @@
       <c r="G300" s="3"/>
       <c r="H300" s="3"/>
     </row>
-    <row r="301" spans="1:8">
+    <row r="301" spans="1:8" ht="93">
       <c r="A301" s="8"/>
       <c r="B301" s="3"/>
       <c r="C301" s="3" t="s">
@@ -7047,20 +7109,28 @@
       <c r="D301" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="E301" s="3"/>
-      <c r="F301" s="3"/>
+      <c r="E301" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F301" s="3" t="s">
+        <v>686</v>
+      </c>
       <c r="G301" s="3"/>
       <c r="H301" s="3"/>
     </row>
-    <row r="302" spans="1:8">
+    <row r="302" spans="1:8" ht="124">
       <c r="A302" s="8"/>
       <c r="B302" s="3"/>
       <c r="C302" s="3"/>
       <c r="D302" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="E302" s="3"/>
-      <c r="F302" s="3"/>
+      <c r="E302" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F302" s="3" t="s">
+        <v>687</v>
+      </c>
       <c r="G302" s="3"/>
       <c r="H302" s="3"/>
     </row>
@@ -8571,7 +8641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46AECB4A-6C5C-9741-AF02-AFE9E6A7004F}">
   <dimension ref="A1:H352"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="68" workbookViewId="0">
       <selection activeCell="A109" sqref="A109:F432"/>
     </sheetView>
   </sheetViews>
@@ -10549,7 +10619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A105A75E-6EEC-0744-B3A9-B34C57BF149F}">
   <dimension ref="A1:H352"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+    <sheetView topLeftCell="B8" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -15179,8 +15249,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{882A8BED-641E-B343-8390-6672332FF251}">
   <dimension ref="A1:C896"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F698" sqref="F698"/>
+    <sheetView topLeftCell="A11" zoomScale="60" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5"/>
@@ -21370,6 +21440,165 @@
     </row>
   </sheetData>
   <mergeCells count="183">
+    <mergeCell ref="A882:A887"/>
+    <mergeCell ref="C882:C887"/>
+    <mergeCell ref="A888:A889"/>
+    <mergeCell ref="B888:B889"/>
+    <mergeCell ref="C888:C889"/>
+    <mergeCell ref="A890:A896"/>
+    <mergeCell ref="A866:A873"/>
+    <mergeCell ref="C866:C873"/>
+    <mergeCell ref="A874:A877"/>
+    <mergeCell ref="C874:C877"/>
+    <mergeCell ref="A878:A881"/>
+    <mergeCell ref="C878:C881"/>
+    <mergeCell ref="A849:A852"/>
+    <mergeCell ref="C849:C852"/>
+    <mergeCell ref="A853:A861"/>
+    <mergeCell ref="C853:C861"/>
+    <mergeCell ref="A862:A865"/>
+    <mergeCell ref="C862:C865"/>
+    <mergeCell ref="A819:A832"/>
+    <mergeCell ref="C819:C832"/>
+    <mergeCell ref="A833:A836"/>
+    <mergeCell ref="C833:C836"/>
+    <mergeCell ref="A837:A848"/>
+    <mergeCell ref="C837:C848"/>
+    <mergeCell ref="A799:A804"/>
+    <mergeCell ref="A805:A812"/>
+    <mergeCell ref="C805:C812"/>
+    <mergeCell ref="A813:A816"/>
+    <mergeCell ref="C813:C816"/>
+    <mergeCell ref="A817:A818"/>
+    <mergeCell ref="B817:B818"/>
+    <mergeCell ref="C817:C818"/>
+    <mergeCell ref="A784:A787"/>
+    <mergeCell ref="C784:C787"/>
+    <mergeCell ref="A788:A796"/>
+    <mergeCell ref="C788:C796"/>
+    <mergeCell ref="A797:A798"/>
+    <mergeCell ref="B797:B798"/>
+    <mergeCell ref="C797:C798"/>
+    <mergeCell ref="A723:A760"/>
+    <mergeCell ref="C723:C760"/>
+    <mergeCell ref="A761:A772"/>
+    <mergeCell ref="C761:C772"/>
+    <mergeCell ref="A773:A783"/>
+    <mergeCell ref="C773:C783"/>
+    <mergeCell ref="A712:A713"/>
+    <mergeCell ref="B712:B713"/>
+    <mergeCell ref="C712:C713"/>
+    <mergeCell ref="A714:A719"/>
+    <mergeCell ref="C714:C719"/>
+    <mergeCell ref="A720:A722"/>
+    <mergeCell ref="C720:C722"/>
+    <mergeCell ref="A668:A676"/>
+    <mergeCell ref="C668:C676"/>
+    <mergeCell ref="A677:A697"/>
+    <mergeCell ref="C677:C697"/>
+    <mergeCell ref="A698:A711"/>
+    <mergeCell ref="C698:C711"/>
+    <mergeCell ref="A633:A645"/>
+    <mergeCell ref="C633:C645"/>
+    <mergeCell ref="A646:A655"/>
+    <mergeCell ref="C646:C655"/>
+    <mergeCell ref="A656:A667"/>
+    <mergeCell ref="C656:C667"/>
+    <mergeCell ref="A601:A609"/>
+    <mergeCell ref="C601:C609"/>
+    <mergeCell ref="A610:A623"/>
+    <mergeCell ref="C610:C623"/>
+    <mergeCell ref="A624:A632"/>
+    <mergeCell ref="C624:C632"/>
+    <mergeCell ref="A567:A572"/>
+    <mergeCell ref="C567:C572"/>
+    <mergeCell ref="A573:A581"/>
+    <mergeCell ref="C573:C581"/>
+    <mergeCell ref="A582:A585"/>
+    <mergeCell ref="C582:C585"/>
+    <mergeCell ref="A591:A595"/>
+    <mergeCell ref="C591:C595"/>
+    <mergeCell ref="A596:A600"/>
+    <mergeCell ref="C596:C600"/>
+    <mergeCell ref="A586:A590"/>
+    <mergeCell ref="C586:C590"/>
+    <mergeCell ref="A251:A257"/>
+    <mergeCell ref="C251:C257"/>
+    <mergeCell ref="A258:A267"/>
+    <mergeCell ref="C258:C267"/>
+    <mergeCell ref="A268:A275"/>
+    <mergeCell ref="C268:C275"/>
+    <mergeCell ref="A276:A283"/>
+    <mergeCell ref="C276:C283"/>
+    <mergeCell ref="A284:A291"/>
+    <mergeCell ref="C284:C291"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="A198:A201"/>
+    <mergeCell ref="C198:C201"/>
+    <mergeCell ref="A202:A237"/>
+    <mergeCell ref="C202:C237"/>
+    <mergeCell ref="A238:A239"/>
+    <mergeCell ref="B238:B239"/>
+    <mergeCell ref="C238:C239"/>
+    <mergeCell ref="A194:A195"/>
+    <mergeCell ref="B194:B195"/>
+    <mergeCell ref="C194:C195"/>
+    <mergeCell ref="A196:A197"/>
+    <mergeCell ref="B196:B197"/>
+    <mergeCell ref="C196:C197"/>
+    <mergeCell ref="A528:A563"/>
+    <mergeCell ref="C528:C563"/>
+    <mergeCell ref="A564:A566"/>
+    <mergeCell ref="C564:C566"/>
+    <mergeCell ref="A467:A514"/>
+    <mergeCell ref="C467:C514"/>
+    <mergeCell ref="A453:A466"/>
+    <mergeCell ref="C453:C466"/>
+    <mergeCell ref="A420:A422"/>
+    <mergeCell ref="C420:C422"/>
+    <mergeCell ref="A423:A427"/>
+    <mergeCell ref="A515:A519"/>
+    <mergeCell ref="C515:C519"/>
+    <mergeCell ref="A520:A523"/>
+    <mergeCell ref="C520:C523"/>
+    <mergeCell ref="A524:A527"/>
+    <mergeCell ref="C524:C527"/>
+    <mergeCell ref="C423:C427"/>
+    <mergeCell ref="A428:A437"/>
+    <mergeCell ref="C428:C437"/>
+    <mergeCell ref="A438:A445"/>
+    <mergeCell ref="C438:C445"/>
+    <mergeCell ref="A446:A452"/>
+    <mergeCell ref="C446:C452"/>
+    <mergeCell ref="A412:A419"/>
+    <mergeCell ref="C412:C419"/>
+    <mergeCell ref="A342:A363"/>
+    <mergeCell ref="C342:C363"/>
+    <mergeCell ref="A364:A365"/>
+    <mergeCell ref="B364:B365"/>
+    <mergeCell ref="A310:A341"/>
+    <mergeCell ref="C310:C341"/>
+    <mergeCell ref="A292:A302"/>
+    <mergeCell ref="C292:C302"/>
+    <mergeCell ref="A303:A309"/>
+    <mergeCell ref="C303:C309"/>
+    <mergeCell ref="C364:C365"/>
+    <mergeCell ref="A366:A371"/>
+    <mergeCell ref="C366:C371"/>
+    <mergeCell ref="A372:A376"/>
+    <mergeCell ref="C372:C376"/>
+    <mergeCell ref="A377:A411"/>
+    <mergeCell ref="C377:C411"/>
+    <mergeCell ref="A240:A247"/>
+    <mergeCell ref="C240:C247"/>
+    <mergeCell ref="A248:A250"/>
+    <mergeCell ref="C248:C250"/>
+    <mergeCell ref="A164:A184"/>
+    <mergeCell ref="C164:C184"/>
+    <mergeCell ref="A185:A193"/>
+    <mergeCell ref="C185:C193"/>
+    <mergeCell ref="A142:A163"/>
+    <mergeCell ref="C142:C163"/>
     <mergeCell ref="A1:A3"/>
     <mergeCell ref="C1:C3"/>
     <mergeCell ref="A4:A8"/>
@@ -21394,165 +21623,6 @@
     <mergeCell ref="A12:A16"/>
     <mergeCell ref="C12:C16"/>
     <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A240:A247"/>
-    <mergeCell ref="C240:C247"/>
-    <mergeCell ref="A248:A250"/>
-    <mergeCell ref="C248:C250"/>
-    <mergeCell ref="A164:A184"/>
-    <mergeCell ref="C164:C184"/>
-    <mergeCell ref="A185:A193"/>
-    <mergeCell ref="C185:C193"/>
-    <mergeCell ref="A142:A163"/>
-    <mergeCell ref="C142:C163"/>
-    <mergeCell ref="A412:A419"/>
-    <mergeCell ref="C412:C419"/>
-    <mergeCell ref="A342:A363"/>
-    <mergeCell ref="C342:C363"/>
-    <mergeCell ref="A364:A365"/>
-    <mergeCell ref="B364:B365"/>
-    <mergeCell ref="A310:A341"/>
-    <mergeCell ref="C310:C341"/>
-    <mergeCell ref="A292:A302"/>
-    <mergeCell ref="C292:C302"/>
-    <mergeCell ref="A303:A309"/>
-    <mergeCell ref="C303:C309"/>
-    <mergeCell ref="C364:C365"/>
-    <mergeCell ref="A366:A371"/>
-    <mergeCell ref="C366:C371"/>
-    <mergeCell ref="A372:A376"/>
-    <mergeCell ref="C372:C376"/>
-    <mergeCell ref="A377:A411"/>
-    <mergeCell ref="C377:C411"/>
-    <mergeCell ref="A528:A563"/>
-    <mergeCell ref="C528:C563"/>
-    <mergeCell ref="A564:A566"/>
-    <mergeCell ref="C564:C566"/>
-    <mergeCell ref="A467:A514"/>
-    <mergeCell ref="C467:C514"/>
-    <mergeCell ref="A453:A466"/>
-    <mergeCell ref="C453:C466"/>
-    <mergeCell ref="A420:A422"/>
-    <mergeCell ref="C420:C422"/>
-    <mergeCell ref="A423:A427"/>
-    <mergeCell ref="A515:A519"/>
-    <mergeCell ref="C515:C519"/>
-    <mergeCell ref="A520:A523"/>
-    <mergeCell ref="C520:C523"/>
-    <mergeCell ref="A524:A527"/>
-    <mergeCell ref="C524:C527"/>
-    <mergeCell ref="C423:C427"/>
-    <mergeCell ref="A428:A437"/>
-    <mergeCell ref="C428:C437"/>
-    <mergeCell ref="A438:A445"/>
-    <mergeCell ref="C438:C445"/>
-    <mergeCell ref="A446:A452"/>
-    <mergeCell ref="C446:C452"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="A198:A201"/>
-    <mergeCell ref="C198:C201"/>
-    <mergeCell ref="A202:A237"/>
-    <mergeCell ref="C202:C237"/>
-    <mergeCell ref="A238:A239"/>
-    <mergeCell ref="B238:B239"/>
-    <mergeCell ref="C238:C239"/>
-    <mergeCell ref="A194:A195"/>
-    <mergeCell ref="B194:B195"/>
-    <mergeCell ref="C194:C195"/>
-    <mergeCell ref="A196:A197"/>
-    <mergeCell ref="B196:B197"/>
-    <mergeCell ref="C196:C197"/>
-    <mergeCell ref="A251:A257"/>
-    <mergeCell ref="C251:C257"/>
-    <mergeCell ref="A258:A267"/>
-    <mergeCell ref="C258:C267"/>
-    <mergeCell ref="A268:A275"/>
-    <mergeCell ref="C268:C275"/>
-    <mergeCell ref="A276:A283"/>
-    <mergeCell ref="C276:C283"/>
-    <mergeCell ref="A284:A291"/>
-    <mergeCell ref="C284:C291"/>
-    <mergeCell ref="A601:A609"/>
-    <mergeCell ref="C601:C609"/>
-    <mergeCell ref="A610:A623"/>
-    <mergeCell ref="C610:C623"/>
-    <mergeCell ref="A624:A632"/>
-    <mergeCell ref="C624:C632"/>
-    <mergeCell ref="A567:A572"/>
-    <mergeCell ref="C567:C572"/>
-    <mergeCell ref="A573:A581"/>
-    <mergeCell ref="C573:C581"/>
-    <mergeCell ref="A582:A585"/>
-    <mergeCell ref="C582:C585"/>
-    <mergeCell ref="A591:A595"/>
-    <mergeCell ref="C591:C595"/>
-    <mergeCell ref="A596:A600"/>
-    <mergeCell ref="C596:C600"/>
-    <mergeCell ref="A586:A590"/>
-    <mergeCell ref="C586:C590"/>
-    <mergeCell ref="A668:A676"/>
-    <mergeCell ref="C668:C676"/>
-    <mergeCell ref="A677:A697"/>
-    <mergeCell ref="C677:C697"/>
-    <mergeCell ref="A698:A711"/>
-    <mergeCell ref="C698:C711"/>
-    <mergeCell ref="A633:A645"/>
-    <mergeCell ref="C633:C645"/>
-    <mergeCell ref="A646:A655"/>
-    <mergeCell ref="C646:C655"/>
-    <mergeCell ref="A656:A667"/>
-    <mergeCell ref="C656:C667"/>
-    <mergeCell ref="A723:A760"/>
-    <mergeCell ref="C723:C760"/>
-    <mergeCell ref="A761:A772"/>
-    <mergeCell ref="C761:C772"/>
-    <mergeCell ref="A773:A783"/>
-    <mergeCell ref="C773:C783"/>
-    <mergeCell ref="A712:A713"/>
-    <mergeCell ref="B712:B713"/>
-    <mergeCell ref="C712:C713"/>
-    <mergeCell ref="A714:A719"/>
-    <mergeCell ref="C714:C719"/>
-    <mergeCell ref="A720:A722"/>
-    <mergeCell ref="C720:C722"/>
-    <mergeCell ref="A799:A804"/>
-    <mergeCell ref="A805:A812"/>
-    <mergeCell ref="C805:C812"/>
-    <mergeCell ref="A813:A816"/>
-    <mergeCell ref="C813:C816"/>
-    <mergeCell ref="A817:A818"/>
-    <mergeCell ref="B817:B818"/>
-    <mergeCell ref="C817:C818"/>
-    <mergeCell ref="A784:A787"/>
-    <mergeCell ref="C784:C787"/>
-    <mergeCell ref="A788:A796"/>
-    <mergeCell ref="C788:C796"/>
-    <mergeCell ref="A797:A798"/>
-    <mergeCell ref="B797:B798"/>
-    <mergeCell ref="C797:C798"/>
-    <mergeCell ref="A849:A852"/>
-    <mergeCell ref="C849:C852"/>
-    <mergeCell ref="A853:A861"/>
-    <mergeCell ref="C853:C861"/>
-    <mergeCell ref="A862:A865"/>
-    <mergeCell ref="C862:C865"/>
-    <mergeCell ref="A819:A832"/>
-    <mergeCell ref="C819:C832"/>
-    <mergeCell ref="A833:A836"/>
-    <mergeCell ref="C833:C836"/>
-    <mergeCell ref="A837:A848"/>
-    <mergeCell ref="C837:C848"/>
-    <mergeCell ref="A882:A887"/>
-    <mergeCell ref="C882:C887"/>
-    <mergeCell ref="A888:A889"/>
-    <mergeCell ref="B888:B889"/>
-    <mergeCell ref="C888:C889"/>
-    <mergeCell ref="A890:A896"/>
-    <mergeCell ref="A866:A873"/>
-    <mergeCell ref="C866:C873"/>
-    <mergeCell ref="A874:A877"/>
-    <mergeCell ref="C874:C877"/>
-    <mergeCell ref="A878:A881"/>
-    <mergeCell ref="C878:C881"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/PECI Scenarios.xlsx
+++ b/PECI Scenarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarahq/Documents/Workday Projects/OS/PECI-Survial-Kit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A23E32A9-11AF-CB45-9C0B-48C28CCA9A49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AB4E85F-2212-2946-9EF4-A6C700BB3BF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="26720" windowHeight="16580" xr2:uid="{D7E23470-C107-7A4A-A7A7-876076D8D3A2}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{D7E23470-C107-7A4A-A7A7-876076D8D3A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Personal Data" sheetId="4" r:id="rId1"/>
@@ -3794,16 +3794,17 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:H464"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A402" zoomScale="63" zoomScaleNormal="63" workbookViewId="0">
-      <selection activeCell="F479" sqref="F479"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="116" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="32.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="38.1640625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="30" style="1" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30" style="1" customWidth="1"/>
+    <col min="5" max="5" width="30" style="1" hidden="1" customWidth="1"/>
     <col min="6" max="7" width="43.1640625" style="1" customWidth="1"/>
     <col min="8" max="16384" width="11" style="1"/>
   </cols>
@@ -12508,7 +12509,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A105A75E-6EEC-0744-B3A9-B34C57BF149F}">
   <dimension ref="A1:H352"/>
   <sheetViews>
-    <sheetView topLeftCell="B8" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+    <sheetView topLeftCell="A96" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -15652,7 +15653,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3213185-FE5E-B048-8E05-941F395BE506}">
   <dimension ref="A1:H352"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>

--- a/PECI Scenarios.xlsx
+++ b/PECI Scenarios.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarahq/Documents/PECI-Survial-Kit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3928AB3C-25B1-D549-9CC3-2DB4569CAA92}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A55C054D-0D24-C541-8780-F7E8038CF37E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{D7E23470-C107-7A4A-A7A7-876076D8D3A2}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16620" activeTab="4" xr2:uid="{D7E23470-C107-7A4A-A7A7-876076D8D3A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="13" r:id="rId1"/>
-    <sheet name="Personal Data" sheetId="4" r:id="rId2"/>
-    <sheet name="Position" sheetId="10" r:id="rId3"/>
-    <sheet name="Compensation" sheetId="11" r:id="rId4"/>
-    <sheet name="Other" sheetId="12" r:id="rId5"/>
-    <sheet name="PECI Data Sections" sheetId="9" r:id="rId6"/>
+    <sheet name="External Earnings &amp; Deductions" sheetId="14" r:id="rId2"/>
+    <sheet name="Personal Data" sheetId="4" r:id="rId3"/>
+    <sheet name="Position" sheetId="10" r:id="rId4"/>
+    <sheet name="Compensation" sheetId="11" r:id="rId5"/>
+    <sheet name="Other" sheetId="12" r:id="rId6"/>
+    <sheet name="PECI Data Sections" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2793" uniqueCount="1047">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2808" uniqueCount="1062">
   <si>
     <t>Scenario ID</t>
   </si>
@@ -3067,9 +3068,6 @@
     <t xml:space="preserve">Worker moves house </t>
   </si>
   <si>
-    <t xml:space="preserve">Worker gets married </t>
-  </si>
-  <si>
     <t xml:space="preserve">Worker gets divorced </t>
   </si>
   <si>
@@ -3175,10 +3173,58 @@
     <t>What is the data changed?</t>
   </si>
   <si>
-    <t>1,3</t>
-  </si>
-  <si>
     <t xml:space="preserve">Worker moves pay group </t>
+  </si>
+  <si>
+    <t>1, 3</t>
+  </si>
+  <si>
+    <t>Included</t>
+  </si>
+  <si>
+    <t>Assumptions:</t>
+  </si>
+  <si>
+    <t>Questions:</t>
+  </si>
+  <si>
+    <t>Reporting on Corrections on Recinds?</t>
+  </si>
+  <si>
+    <t>If so, how are you reporting them?</t>
+  </si>
+  <si>
+    <t>How is this picked up in the PECI XML</t>
+  </si>
+  <si>
+    <t>Are you including Additional Info - Field Overrides?</t>
+  </si>
+  <si>
+    <t>If so, do you want to detect change on these?</t>
+  </si>
+  <si>
+    <t>What External Earnings &amp; Deductions are you configuring?</t>
+  </si>
+  <si>
+    <t>Standard solution is built for:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">single payroll company </t>
+  </si>
+  <si>
+    <t xml:space="preserve">no additional info </t>
+  </si>
+  <si>
+    <t xml:space="preserve">doesn’t take into account recinds/corrections </t>
+  </si>
+  <si>
+    <t>(comment out non-used sections)</t>
+  </si>
+  <si>
+    <t>CANNOT report contingent workers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worker gets married  </t>
   </si>
 </sst>
 </file>
@@ -3322,7 +3368,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3365,6 +3411,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3378,7 +3425,26 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="38">
+  <dxfs count="39">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -3735,73 +3801,74 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{AEEACAD6-FC5E-E845-B216-708FE289A8E1}" name="Table246" displayName="Table246" ref="A1:C12" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{AEEACAD6-FC5E-E845-B216-708FE289A8E1}" name="Table246" displayName="Table246" ref="A1:C12" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
   <autoFilter ref="A1:C12" xr:uid="{C62B11F2-30AD-4F44-8B37-439AB39242FE}"/>
   <tableColumns count="3">
-    <tableColumn id="2" xr3:uid="{B8035267-A5C9-D846-8C70-68981CF127CD}" name="Scenario ID" dataDxfId="2"/>
-    <tableColumn id="1" xr3:uid="{02AA58C1-9D51-D743-9698-7EA1D385745A}" name="Scenario in Workday" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{C97150C8-B639-FD42-A835-99E77A1B7728}" name="Comments" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{B8035267-A5C9-D846-8C70-68981CF127CD}" name="Scenario ID" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{02AA58C1-9D51-D743-9698-7EA1D385745A}" name="Scenario in Workday" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{C97150C8-B639-FD42-A835-99E77A1B7728}" name="Comments" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EB11BE35-6068-A841-ADBA-9CCFC5D21966}" name="Table1" displayName="Table1" ref="A2:G464" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="A2:G464" xr:uid="{95F4FD0C-BCC8-014C-AF5E-F001095E21E9}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{7B221E4A-9150-CD41-B4A4-48C24D603A26}" name="Data Section Field Change ID" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{EA95C00D-30E7-4B49-806C-306A315344EF}" name="What is the data changed?" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{F8E5B717-5CF4-B645-B9F9-65434CF9BCCA}" name="Data Section" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{23560262-A437-8F49-BBE0-E8D5BA6982D1}" name="Field " dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{34A2F442-4F23-574B-9416-08C3C92AF14B}" name="Event Code" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{52D2A5E5-68DE-EF45-8514-1F4F121884CE}" name="Template" dataDxfId="1"/>
-    <tableColumn id="7" xr3:uid="{24190E7C-D625-C049-BA77-6448CD7FA1A1}" name="Affected by Scenario(s)" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EB11BE35-6068-A841-ADBA-9CCFC5D21966}" name="Table1" displayName="Table1" ref="A2:H464" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="A2:H464" xr:uid="{95F4FD0C-BCC8-014C-AF5E-F001095E21E9}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{7B221E4A-9150-CD41-B4A4-48C24D603A26}" name="Data Section Field Change ID" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{EA95C00D-30E7-4B49-806C-306A315344EF}" name="What is the data changed?" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{F8E5B717-5CF4-B645-B9F9-65434CF9BCCA}" name="Data Section" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{23560262-A437-8F49-BBE0-E8D5BA6982D1}" name="Field " dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{34A2F442-4F23-574B-9416-08C3C92AF14B}" name="Event Code" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{52D2A5E5-68DE-EF45-8514-1F4F121884CE}" name="Template" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{24190E7C-D625-C049-BA77-6448CD7FA1A1}" name="Affected by Scenario(s)" dataDxfId="1"/>
+    <tableColumn id="8" xr3:uid="{9AE620B8-EA90-474C-BD92-63AA010C2925}" name="Included" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{5EE56AD9-3F3F-E947-9FDA-421D84678841}" name="Table15" displayName="Table15" ref="A2:F108" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{5EE56AD9-3F3F-E947-9FDA-421D84678841}" name="Table15" displayName="Table15" ref="A2:F108" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
   <autoFilter ref="A2:F108" xr:uid="{95F4FD0C-BCC8-014C-AF5E-F001095E21E9}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{FB92B86E-4884-1045-AB40-F5EC842E195D}" name="Scenario ID" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{457D106B-94C0-A148-84C9-C555FC20E517}" name="Scenario" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{C058C0CF-5D40-3B48-85DF-EA0ACDF0C8AF}" name="Data Section" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{8701CB69-4873-2A45-AE92-BAC503BA9DFE}" name="Field " dataDxfId="32"/>
-    <tableColumn id="6" xr3:uid="{7238F5BF-2C98-5648-89A0-CC788E2A37CA}" name="Event Code" dataDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{02D3BD36-9CF0-9C4D-A915-A14CB7484343}" name="Template" dataDxfId="30"/>
+    <tableColumn id="1" xr3:uid="{FB92B86E-4884-1045-AB40-F5EC842E195D}" name="Scenario ID" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{457D106B-94C0-A148-84C9-C555FC20E517}" name="Scenario" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{C058C0CF-5D40-3B48-85DF-EA0ACDF0C8AF}" name="Data Section" dataDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{8701CB69-4873-2A45-AE92-BAC503BA9DFE}" name="Field " dataDxfId="33"/>
+    <tableColumn id="6" xr3:uid="{7238F5BF-2C98-5648-89A0-CC788E2A37CA}" name="Event Code" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{02D3BD36-9CF0-9C4D-A915-A14CB7484343}" name="Template" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{C0150F8D-1CE4-EB4F-9486-4AE42300F6D7}" name="Table158" displayName="Table158" ref="A2:F295" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{C0150F8D-1CE4-EB4F-9486-4AE42300F6D7}" name="Table158" displayName="Table158" ref="A2:F295" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
   <autoFilter ref="A2:F295" xr:uid="{95F4FD0C-BCC8-014C-AF5E-F001095E21E9}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{93C1305C-7D17-DA41-B4A8-DAAB9381BB43}" name="Scenario ID" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{2ABDCCB2-B42A-424F-83F4-23A482377C05}" name="Scenario" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{A4C38FF4-DD53-224E-ABD5-6CD346FD4977}" name="Data Section" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{345D1ABF-0A24-E248-AAA6-C11D05B2DE84}" name="Field " dataDxfId="24"/>
-    <tableColumn id="6" xr3:uid="{206E03C7-B68A-6840-A335-6274BDE23A1D}" name="Event Code" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{5EB6FD02-3FB2-6F4E-BA9C-8220BA2C7D05}" name="Template" dataDxfId="22"/>
+    <tableColumn id="1" xr3:uid="{93C1305C-7D17-DA41-B4A8-DAAB9381BB43}" name="Scenario ID" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{2ABDCCB2-B42A-424F-83F4-23A482377C05}" name="Scenario" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{A4C38FF4-DD53-224E-ABD5-6CD346FD4977}" name="Data Section" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{345D1ABF-0A24-E248-AAA6-C11D05B2DE84}" name="Field " dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{206E03C7-B68A-6840-A335-6274BDE23A1D}" name="Event Code" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{5EB6FD02-3FB2-6F4E-BA9C-8220BA2C7D05}" name="Template" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B51EB98C-D68C-B740-8B7F-AFDD71932D69}" name="Table1589" displayName="Table1589" ref="A2:F33" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B51EB98C-D68C-B740-8B7F-AFDD71932D69}" name="Table1589" displayName="Table1589" ref="A2:F33" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
   <autoFilter ref="A2:F33" xr:uid="{95F4FD0C-BCC8-014C-AF5E-F001095E21E9}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{3E5F4910-41FA-8945-BF29-2A1FBD6FA702}" name="Scenario ID" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{124DF489-7890-BC40-A208-CDE4564C09DF}" name="Scenario" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{9D422243-5ABC-D349-A5C7-67D9C99F187D}" name="Data Section" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{74E338FF-666A-CF4A-B1F9-CE036D0EC057}" name="Field " dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{A9B0CC55-FD45-E54D-BB89-3D986AF6B89C}" name="Event Code" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{0D651197-1278-C844-9503-100F8D3E8406}" name="Template" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{3E5F4910-41FA-8945-BF29-2A1FBD6FA702}" name="Scenario ID" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{124DF489-7890-BC40-A208-CDE4564C09DF}" name="Scenario" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{9D422243-5ABC-D349-A5C7-67D9C99F187D}" name="Data Section" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{74E338FF-666A-CF4A-B1F9-CE036D0EC057}" name="Field " dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{A9B0CC55-FD45-E54D-BB89-3D986AF6B89C}" name="Event Code" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{0D651197-1278-C844-9503-100F8D3E8406}" name="Template" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4104,10 +4171,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96A042D9-0436-4E4C-99BF-43F403CEF649}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4116,10 +4183,11 @@
     <col min="2" max="2" width="53.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="39.5" customWidth="1"/>
     <col min="4" max="4" width="29" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="26.33203125" style="16" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4127,10 +4195,13 @@
         <v>1002</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+        <v>1013</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -4138,8 +4209,14 @@
         <v>1005</v>
       </c>
       <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="E2" s="16" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -4147,8 +4224,11 @@
         <v>1006</v>
       </c>
       <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="E3" s="16" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -4156,8 +4236,11 @@
         <v>1007</v>
       </c>
       <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="E4" s="16" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -4165,63 +4248,102 @@
         <v>1008</v>
       </c>
       <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="E5" s="16" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1009</v>
+        <v>1061</v>
       </c>
       <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="E6" s="16" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="C11" s="1"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E13" s="16" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E14" s="16" t="s">
+        <v>1049</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E15" s="16" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E16" s="16" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E17" s="16" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E18" s="16" t="s">
+        <v>1054</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4232,12 +4354,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6186F875-6270-D84E-AB96-78CAE31982AB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41C87FB1-CCE8-B444-B8E3-0F0035FB87E4}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:H464"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="116" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F73" sqref="F73"/>
+    <sheetView zoomScale="75" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4248,11 +4382,11 @@
     <col min="4" max="4" width="30" style="1" customWidth="1"/>
     <col min="5" max="5" width="30" style="1" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="43.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.83203125" style="17" customWidth="1"/>
+    <col min="7" max="7" width="23.83203125" style="18" customWidth="1"/>
     <col min="8" max="16384" width="11" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="102" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="102" x14ac:dyDescent="0.3">
       <c r="A1" s="5"/>
       <c r="B1" s="8" t="s">
         <v>534</v>
@@ -4261,12 +4395,12 @@
         <v>550</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1003</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
@@ -4280,11 +4414,14 @@
       <c r="F2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="17" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G2" s="18" t="s">
+        <v>1014</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4303,11 +4440,12 @@
       <c r="F3" s="1" t="s">
         <v>959</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G3" s="19">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -4320,11 +4458,12 @@
       <c r="F4" s="1" t="s">
         <v>960</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="19">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -4343,11 +4482,12 @@
       <c r="F5" s="1" t="s">
         <v>961</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="19" t="s">
         <v>1045</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -4361,13 +4501,14 @@
         <v>3</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>1026</v>
-      </c>
-      <c r="G6" s="18">
+        <v>1025</v>
+      </c>
+      <c r="G6" s="19">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -4381,13 +4522,14 @@
         <v>3</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>1027</v>
-      </c>
-      <c r="G7" s="18">
+        <v>1026</v>
+      </c>
+      <c r="G7" s="19">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -4401,13 +4543,14 @@
         <v>3</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>1028</v>
-      </c>
-      <c r="G8" s="18">
+        <v>1027</v>
+      </c>
+      <c r="G8" s="19">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -4421,11 +4564,12 @@
         <v>3</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>1029</v>
-      </c>
-      <c r="G9" s="18"/>
-    </row>
-    <row r="10" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>1028</v>
+      </c>
+      <c r="G9" s="19"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -4436,11 +4580,12 @@
         <v>3</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>1030</v>
-      </c>
-      <c r="G10" s="18"/>
-    </row>
-    <row r="11" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>1029</v>
+      </c>
+      <c r="G10" s="19"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -4457,26 +4602,28 @@
         <v>3</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>1031</v>
-      </c>
-      <c r="G11" s="18"/>
-    </row>
-    <row r="12" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+        <v>1030</v>
+      </c>
+      <c r="G11" s="19"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>1032</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>1033</v>
-      </c>
-      <c r="G12" s="18"/>
-    </row>
-    <row r="13" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="G12" s="19"/>
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -4490,11 +4637,12 @@
         <v>3</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>1027</v>
-      </c>
-      <c r="G13" s="18"/>
-    </row>
-    <row r="14" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+        <v>1026</v>
+      </c>
+      <c r="G13" s="19"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -4508,11 +4656,12 @@
         <v>3</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>1034</v>
-      </c>
-      <c r="G14" s="18"/>
-    </row>
-    <row r="15" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+        <v>1033</v>
+      </c>
+      <c r="G14" s="19"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -4528,9 +4677,10 @@
       <c r="E15" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="18"/>
-    </row>
-    <row r="16" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="G15" s="19"/>
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -4543,9 +4693,10 @@
       <c r="E16" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G16" s="18"/>
-    </row>
-    <row r="17" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="G16" s="19"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -4558,9 +4709,10 @@
       <c r="E17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G17" s="18"/>
-    </row>
-    <row r="18" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="G17" s="19"/>
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -4573,9 +4725,10 @@
       <c r="E18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G18" s="18"/>
-    </row>
-    <row r="19" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G18" s="19"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -4594,11 +4747,12 @@
       <c r="F19" s="1" t="s">
         <v>962</v>
       </c>
-      <c r="G19" s="18" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G19" s="19" t="s">
+        <v>1015</v>
+      </c>
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -4615,11 +4769,12 @@
       <c r="F20" s="1" t="s">
         <v>625</v>
       </c>
-      <c r="G20" s="18">
+      <c r="G20" s="19">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -4636,11 +4791,12 @@
       <c r="F21" s="1" t="s">
         <v>963</v>
       </c>
-      <c r="G21" s="18">
+      <c r="G21" s="19">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -4657,11 +4813,12 @@
       <c r="F22" s="1" t="s">
         <v>969</v>
       </c>
-      <c r="G22" s="18">
+      <c r="G22" s="19">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="68" x14ac:dyDescent="0.2">
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -4678,11 +4835,12 @@
       <c r="F23" s="1" t="s">
         <v>972</v>
       </c>
-      <c r="G23" s="18">
+      <c r="G23" s="19">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -4699,9 +4857,10 @@
       <c r="F24" s="1" t="s">
         <v>971</v>
       </c>
-      <c r="G24" s="18"/>
-    </row>
-    <row r="25" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G24" s="19"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
         <v>531</v>
       </c>
@@ -4715,9 +4874,10 @@
       <c r="F25" s="1" t="s">
         <v>970</v>
       </c>
-      <c r="G25" s="18"/>
-    </row>
-    <row r="26" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="G25" s="19"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>533</v>
       </c>
@@ -4731,9 +4891,10 @@
       <c r="F26" s="1" t="s">
         <v>973</v>
       </c>
-      <c r="G26" s="18"/>
-    </row>
-    <row r="27" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="G26" s="19"/>
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>535</v>
       </c>
@@ -4747,9 +4908,10 @@
       <c r="F27" s="1" t="s">
         <v>974</v>
       </c>
-      <c r="G27" s="18"/>
-    </row>
-    <row r="28" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G27" s="19"/>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="s">
         <v>536</v>
       </c>
@@ -4763,11 +4925,12 @@
       <c r="F28" s="1" t="s">
         <v>975</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="19">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>537</v>
       </c>
@@ -4781,9 +4944,10 @@
       <c r="F29" s="1" t="s">
         <v>976</v>
       </c>
-      <c r="G29" s="18"/>
-    </row>
-    <row r="30" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G29" s="19"/>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>538</v>
       </c>
@@ -4797,9 +4961,10 @@
       <c r="F30" s="1" t="s">
         <v>977</v>
       </c>
-      <c r="G30" s="18"/>
-    </row>
-    <row r="31" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G30" s="19"/>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>539</v>
       </c>
@@ -4813,9 +4978,10 @@
       <c r="F31" s="1" t="s">
         <v>978</v>
       </c>
-      <c r="G31" s="18"/>
-    </row>
-    <row r="32" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="G31" s="19"/>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>540</v>
       </c>
@@ -4829,9 +4995,10 @@
       <c r="F32" s="1" t="s">
         <v>979</v>
       </c>
-      <c r="G32" s="18"/>
-    </row>
-    <row r="33" spans="2:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G32" s="19"/>
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
         <v>541</v>
       </c>
@@ -4845,9 +5012,10 @@
       <c r="F33" s="1" t="s">
         <v>980</v>
       </c>
-      <c r="G33" s="18"/>
-    </row>
-    <row r="34" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="G33" s="19"/>
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>542</v>
       </c>
@@ -4861,9 +5029,10 @@
       <c r="F34" s="1" t="s">
         <v>981</v>
       </c>
-      <c r="G34" s="18"/>
-    </row>
-    <row r="35" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="G34" s="19"/>
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
         <v>543</v>
       </c>
@@ -4877,9 +5046,10 @@
       <c r="F35" s="15" t="s">
         <v>982</v>
       </c>
-      <c r="G35" s="18"/>
-    </row>
-    <row r="36" spans="2:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G35" s="19"/>
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
         <v>544</v>
       </c>
@@ -4893,9 +5063,10 @@
       <c r="F36" s="15" t="s">
         <v>983</v>
       </c>
-      <c r="G36" s="18"/>
-    </row>
-    <row r="37" spans="2:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G36" s="19"/>
+      <c r="H36" s="3"/>
+    </row>
+    <row r="37" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>545</v>
       </c>
@@ -4909,9 +5080,10 @@
       <c r="F37" s="15" t="s">
         <v>984</v>
       </c>
-      <c r="G37" s="18"/>
-    </row>
-    <row r="38" spans="2:7" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G37" s="19"/>
+      <c r="H37" s="3"/>
+    </row>
+    <row r="38" spans="2:8" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
         <v>546</v>
       </c>
@@ -4925,9 +5097,10 @@
       <c r="F38" s="15" t="s">
         <v>985</v>
       </c>
-      <c r="G38" s="18"/>
-    </row>
-    <row r="39" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="G38" s="19"/>
+      <c r="H38" s="3"/>
+    </row>
+    <row r="39" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>547</v>
       </c>
@@ -4941,9 +5114,10 @@
       <c r="F39" s="15" t="s">
         <v>986</v>
       </c>
-      <c r="G39" s="18"/>
-    </row>
-    <row r="40" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="G39" s="19"/>
+      <c r="H39" s="3"/>
+    </row>
+    <row r="40" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
         <v>548</v>
       </c>
@@ -4957,11 +5131,12 @@
       <c r="F40" s="15" t="s">
         <v>1004</v>
       </c>
-      <c r="G40" s="18">
+      <c r="G40" s="19">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="2:7" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H40" s="3"/>
+    </row>
+    <row r="41" spans="2:8" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
         <v>549</v>
       </c>
@@ -4973,13 +5148,14 @@
         <v>3</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>1017</v>
-      </c>
-      <c r="G41" s="18">
+        <v>1016</v>
+      </c>
+      <c r="G41" s="19">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="2:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="H41" s="3"/>
+    </row>
+    <row r="42" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
         <v>552</v>
       </c>
@@ -4991,13 +5167,14 @@
         <v>3</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>1018</v>
-      </c>
-      <c r="G42" s="18">
+        <v>1017</v>
+      </c>
+      <c r="G42" s="19">
         <v>2</v>
       </c>
-    </row>
-    <row r="43" spans="2:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="H42" s="3"/>
+    </row>
+    <row r="43" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
         <v>553</v>
       </c>
@@ -5009,13 +5186,14 @@
         <v>3</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>1019</v>
-      </c>
-      <c r="G43" s="18">
+        <v>1018</v>
+      </c>
+      <c r="G43" s="19">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="2:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
         <v>554</v>
       </c>
@@ -5027,13 +5205,14 @@
         <v>3</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>1020</v>
-      </c>
-      <c r="G44" s="18">
+        <v>1019</v>
+      </c>
+      <c r="G44" s="19">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="2:7" ht="50" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H44" s="3"/>
+    </row>
+    <row r="45" spans="2:8" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
         <v>555</v>
       </c>
@@ -5045,13 +5224,14 @@
         <v>3</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>1021</v>
-      </c>
-      <c r="G45" s="18">
+        <v>1020</v>
+      </c>
+      <c r="G45" s="19">
         <v>2</v>
       </c>
-    </row>
-    <row r="46" spans="2:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H45" s="3"/>
+    </row>
+    <row r="46" spans="2:8" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
         <v>556</v>
       </c>
@@ -5062,14 +5242,15 @@
       <c r="E46" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F46" s="16" t="s">
-        <v>1022</v>
-      </c>
-      <c r="G46" s="18">
+      <c r="F46" s="17" t="s">
+        <v>1021</v>
+      </c>
+      <c r="G46" s="19">
         <v>2</v>
       </c>
-    </row>
-    <row r="47" spans="2:7" ht="52" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H46" s="3"/>
+    </row>
+    <row r="47" spans="2:8" ht="52" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
         <v>557</v>
       </c>
@@ -5080,14 +5261,15 @@
       <c r="E47" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F47" s="16" t="s">
-        <v>1023</v>
-      </c>
-      <c r="G47" s="18">
+      <c r="F47" s="17" t="s">
+        <v>1022</v>
+      </c>
+      <c r="G47" s="19">
         <v>2</v>
       </c>
-    </row>
-    <row r="48" spans="2:7" ht="52" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H47" s="3"/>
+    </row>
+    <row r="48" spans="2:8" ht="52" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
         <v>567</v>
       </c>
@@ -5098,10 +5280,11 @@
       <c r="E48" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F48" s="16" t="s">
-        <v>1024</v>
-      </c>
-      <c r="G48" s="18"/>
+      <c r="F48" s="17" t="s">
+        <v>1023</v>
+      </c>
+      <c r="G48" s="19"/>
+      <c r="H48" s="3"/>
     </row>
     <row r="49" spans="1:8" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
@@ -5114,12 +5297,13 @@
       <c r="E49" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F49" s="16" t="s">
-        <v>1025</v>
-      </c>
-      <c r="G49" s="18">
+      <c r="F49" s="17" t="s">
+        <v>1024</v>
+      </c>
+      <c r="G49" s="19">
         <v>2</v>
       </c>
+      <c r="H49" s="3"/>
     </row>
     <row r="50" spans="1:8" ht="52" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
@@ -5132,12 +5316,13 @@
       <c r="E50" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F50" s="16" t="s">
-        <v>1035</v>
-      </c>
-      <c r="G50" s="18">
+      <c r="F50" s="17" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G50" s="19">
         <v>2</v>
       </c>
+      <c r="H50" s="3"/>
     </row>
     <row r="51" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B51" s="6" t="s">
@@ -5150,12 +5335,13 @@
       <c r="E51" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F51" s="16" t="s">
-        <v>1036</v>
-      </c>
-      <c r="G51" s="18">
+      <c r="F51" s="17" t="s">
+        <v>1035</v>
+      </c>
+      <c r="G51" s="19">
         <v>2</v>
       </c>
+      <c r="H51" s="3"/>
     </row>
     <row r="52" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B52" s="6" t="s">
@@ -5168,12 +5354,13 @@
       <c r="E52" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F52" s="16" t="s">
-        <v>1037</v>
-      </c>
-      <c r="G52" s="18">
+      <c r="F52" s="17" t="s">
+        <v>1036</v>
+      </c>
+      <c r="G52" s="19">
         <v>2</v>
       </c>
+      <c r="H52" s="3"/>
     </row>
     <row r="53" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B53" s="6" t="s">
@@ -5186,7 +5373,8 @@
       <c r="E53" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G53" s="18"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="3"/>
     </row>
     <row r="54" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C54" s="3"/>
@@ -5194,7 +5382,8 @@
       <c r="E54" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G54" s="18"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="3"/>
     </row>
     <row r="55" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
@@ -5209,12 +5398,13 @@
       <c r="E55" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F55" s="16" t="s">
-        <v>1038</v>
-      </c>
-      <c r="G55" s="18">
+      <c r="F55" s="17" t="s">
+        <v>1037</v>
+      </c>
+      <c r="G55" s="19">
         <v>2</v>
       </c>
+      <c r="H55" s="3"/>
     </row>
     <row r="56" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
@@ -5227,12 +5417,13 @@
       <c r="E56" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F56" s="16" t="s">
-        <v>1039</v>
-      </c>
-      <c r="G56" s="18">
+      <c r="F56" s="17" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G56" s="19">
         <v>2</v>
       </c>
+      <c r="H56" s="3"/>
     </row>
     <row r="57" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C57" s="3"/>
@@ -5240,7 +5431,8 @@
       <c r="E57" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G57" s="18"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="3"/>
     </row>
     <row r="58" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
@@ -5255,10 +5447,11 @@
       <c r="E58" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F58" s="16" t="s">
-        <v>1040</v>
-      </c>
-      <c r="G58" s="18"/>
+      <c r="F58" s="17" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G58" s="19"/>
+      <c r="H58" s="3"/>
     </row>
     <row r="59" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
@@ -5271,10 +5464,11 @@
       <c r="E59" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F59" s="16" t="s">
-        <v>1041</v>
-      </c>
-      <c r="G59" s="18"/>
+      <c r="F59" s="17" t="s">
+        <v>1040</v>
+      </c>
+      <c r="G59" s="19"/>
+      <c r="H59" s="3"/>
     </row>
     <row r="60" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
@@ -5288,10 +5482,10 @@
       <c r="E60" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F60" s="16" t="s">
-        <v>1042</v>
-      </c>
-      <c r="G60" s="18"/>
+      <c r="F60" s="17" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G60" s="19"/>
       <c r="H60" s="3"/>
     </row>
     <row r="61" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -5303,7 +5497,7 @@
         <v>3</v>
       </c>
       <c r="F61" s="3"/>
-      <c r="G61" s="18"/>
+      <c r="G61" s="19"/>
       <c r="H61" s="3"/>
     </row>
     <row r="62" spans="1:8" ht="52" customHeight="1" x14ac:dyDescent="0.2">
@@ -5320,10 +5514,10 @@
       <c r="E62" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F62" s="16" t="s">
-        <v>1043</v>
-      </c>
-      <c r="G62" s="18"/>
+      <c r="F62" s="17" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G62" s="19"/>
       <c r="H62" s="3"/>
     </row>
     <row r="63" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -5335,7 +5529,7 @@
         <v>3</v>
       </c>
       <c r="F63" s="3"/>
-      <c r="G63" s="18"/>
+      <c r="G63" s="19"/>
       <c r="H63" s="3"/>
     </row>
     <row r="64" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -5349,7 +5543,7 @@
         <v>3</v>
       </c>
       <c r="F64" s="3"/>
-      <c r="G64" s="18"/>
+      <c r="G64" s="19"/>
       <c r="H64" s="3"/>
     </row>
     <row r="65" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -5367,7 +5561,7 @@
       <c r="F65" s="15" t="s">
         <v>990</v>
       </c>
-      <c r="G65" s="18"/>
+      <c r="G65" s="19"/>
       <c r="H65" s="3"/>
     </row>
     <row r="66" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -5385,7 +5579,7 @@
       <c r="F66" s="15" t="s">
         <v>991</v>
       </c>
-      <c r="G66" s="18"/>
+      <c r="G66" s="19"/>
       <c r="H66" s="3"/>
     </row>
     <row r="67" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -5403,7 +5597,7 @@
       <c r="F67" s="15" t="s">
         <v>992</v>
       </c>
-      <c r="G67" s="18"/>
+      <c r="G67" s="19"/>
       <c r="H67" s="3"/>
     </row>
     <row r="68" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -5421,7 +5615,7 @@
       <c r="F68" s="15" t="s">
         <v>993</v>
       </c>
-      <c r="G68" s="18"/>
+      <c r="G68" s="19"/>
       <c r="H68" s="3"/>
     </row>
     <row r="69" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -5439,7 +5633,7 @@
       <c r="F69" s="15" t="s">
         <v>994</v>
       </c>
-      <c r="G69" s="18"/>
+      <c r="G69" s="19"/>
       <c r="H69" s="3"/>
     </row>
     <row r="70" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -5457,7 +5651,7 @@
       <c r="F70" s="15" t="s">
         <v>995</v>
       </c>
-      <c r="G70" s="18"/>
+      <c r="G70" s="19"/>
       <c r="H70" s="3"/>
     </row>
     <row r="71" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -5475,7 +5669,7 @@
       <c r="F71" s="15" t="s">
         <v>996</v>
       </c>
-      <c r="G71" s="18"/>
+      <c r="G71" s="19"/>
       <c r="H71" s="3"/>
     </row>
     <row r="72" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -5493,7 +5687,7 @@
       <c r="F72" s="15" t="s">
         <v>997</v>
       </c>
-      <c r="G72" s="18"/>
+      <c r="G72" s="19"/>
       <c r="H72" s="3"/>
     </row>
     <row r="73" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -5511,7 +5705,7 @@
       <c r="F73" s="15" t="s">
         <v>998</v>
       </c>
-      <c r="G73" s="18"/>
+      <c r="G73" s="19"/>
       <c r="H73" s="3"/>
     </row>
     <row r="74" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -5529,7 +5723,7 @@
       <c r="F74" s="15" t="s">
         <v>999</v>
       </c>
-      <c r="G74" s="18"/>
+      <c r="G74" s="19"/>
       <c r="H74" s="3"/>
     </row>
     <row r="75" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -5547,7 +5741,7 @@
       <c r="F75" s="15" t="s">
         <v>1000</v>
       </c>
-      <c r="G75" s="18"/>
+      <c r="G75" s="19"/>
       <c r="H75" s="3"/>
     </row>
     <row r="76" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -5565,7 +5759,7 @@
       <c r="F76" s="15" t="s">
         <v>1001</v>
       </c>
-      <c r="G76" s="18"/>
+      <c r="G76" s="19"/>
       <c r="H76" s="3"/>
     </row>
     <row r="77" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -5583,7 +5777,7 @@
       <c r="F77" s="15" t="s">
         <v>1001</v>
       </c>
-      <c r="G77" s="18"/>
+      <c r="G77" s="19"/>
       <c r="H77" s="3"/>
     </row>
     <row r="78" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -5599,7 +5793,7 @@
         <v>3</v>
       </c>
       <c r="F78" s="3"/>
-      <c r="G78" s="18"/>
+      <c r="G78" s="19"/>
       <c r="H78" s="3"/>
     </row>
     <row r="79" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -5615,7 +5809,7 @@
         <v>3</v>
       </c>
       <c r="F79" s="3"/>
-      <c r="G79" s="18"/>
+      <c r="G79" s="19"/>
       <c r="H79" s="3"/>
     </row>
     <row r="80" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -5631,7 +5825,7 @@
         <v>3</v>
       </c>
       <c r="F80" s="3"/>
-      <c r="G80" s="18"/>
+      <c r="G80" s="19"/>
       <c r="H80" s="3"/>
     </row>
     <row r="81" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -5647,7 +5841,7 @@
         <v>3</v>
       </c>
       <c r="F81" s="3"/>
-      <c r="G81" s="18"/>
+      <c r="G81" s="19"/>
       <c r="H81" s="3"/>
     </row>
     <row r="82" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -5663,7 +5857,7 @@
         <v>3</v>
       </c>
       <c r="F82" s="3"/>
-      <c r="G82" s="18"/>
+      <c r="G82" s="19"/>
       <c r="H82" s="3"/>
     </row>
     <row r="83" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -5679,7 +5873,7 @@
         <v>3</v>
       </c>
       <c r="F83" s="3"/>
-      <c r="G83" s="18"/>
+      <c r="G83" s="19"/>
       <c r="H83" s="3"/>
     </row>
     <row r="84" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -5695,7 +5889,7 @@
         <v>3</v>
       </c>
       <c r="F84" s="3"/>
-      <c r="G84" s="18"/>
+      <c r="G84" s="19"/>
       <c r="H84" s="3"/>
     </row>
     <row r="85" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -5711,7 +5905,7 @@
         <v>3</v>
       </c>
       <c r="F85" s="3"/>
-      <c r="G85" s="18"/>
+      <c r="G85" s="19"/>
       <c r="H85" s="3"/>
     </row>
     <row r="86" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -5727,7 +5921,7 @@
         <v>3</v>
       </c>
       <c r="F86" s="3"/>
-      <c r="G86" s="18"/>
+      <c r="G86" s="19"/>
       <c r="H86" s="3"/>
     </row>
     <row r="87" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -5743,7 +5937,7 @@
         <v>3</v>
       </c>
       <c r="F87" s="3"/>
-      <c r="G87" s="18"/>
+      <c r="G87" s="19"/>
       <c r="H87" s="3"/>
     </row>
     <row r="88" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -5759,7 +5953,7 @@
         <v>3</v>
       </c>
       <c r="F88" s="3"/>
-      <c r="G88" s="18"/>
+      <c r="G88" s="19"/>
       <c r="H88" s="3"/>
     </row>
     <row r="89" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -5775,7 +5969,7 @@
         <v>3</v>
       </c>
       <c r="F89" s="3"/>
-      <c r="G89" s="18"/>
+      <c r="G89" s="19"/>
       <c r="H89" s="3"/>
     </row>
     <row r="90" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -5791,7 +5985,7 @@
         <v>3</v>
       </c>
       <c r="F90" s="3"/>
-      <c r="G90" s="18"/>
+      <c r="G90" s="19"/>
       <c r="H90" s="3"/>
     </row>
     <row r="91" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -5807,7 +6001,7 @@
         <v>3</v>
       </c>
       <c r="F91" s="3"/>
-      <c r="G91" s="18"/>
+      <c r="G91" s="19"/>
       <c r="H91" s="3"/>
     </row>
     <row r="92" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -5823,7 +6017,7 @@
         <v>3</v>
       </c>
       <c r="F92" s="3"/>
-      <c r="G92" s="18"/>
+      <c r="G92" s="19"/>
       <c r="H92" s="3"/>
     </row>
     <row r="93" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -5839,7 +6033,7 @@
         <v>3</v>
       </c>
       <c r="F93" s="3"/>
-      <c r="G93" s="18"/>
+      <c r="G93" s="19"/>
       <c r="H93" s="3"/>
     </row>
     <row r="94" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -5855,7 +6049,7 @@
         <v>3</v>
       </c>
       <c r="F94" s="3"/>
-      <c r="G94" s="18"/>
+      <c r="G94" s="19"/>
       <c r="H94" s="3"/>
     </row>
     <row r="95" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -5867,7 +6061,7 @@
         <v>3</v>
       </c>
       <c r="F95" s="3"/>
-      <c r="G95" s="18"/>
+      <c r="G95" s="19"/>
       <c r="H95" s="3"/>
     </row>
     <row r="96" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -5885,7 +6079,7 @@
         <v>3</v>
       </c>
       <c r="F96" s="3"/>
-      <c r="G96" s="18"/>
+      <c r="G96" s="19"/>
       <c r="H96" s="3"/>
     </row>
     <row r="97" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -5901,7 +6095,7 @@
         <v>3</v>
       </c>
       <c r="F97" s="3"/>
-      <c r="G97" s="18"/>
+      <c r="G97" s="19"/>
       <c r="H97" s="3"/>
     </row>
     <row r="98" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -5917,7 +6111,7 @@
         <v>3</v>
       </c>
       <c r="F98" s="3"/>
-      <c r="G98" s="18"/>
+      <c r="G98" s="19"/>
       <c r="H98" s="3"/>
     </row>
     <row r="99" spans="1:8" ht="68" x14ac:dyDescent="0.2">
@@ -5935,7 +6129,7 @@
       <c r="F99" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="G99" s="18"/>
+      <c r="G99" s="19"/>
       <c r="H99" s="3"/>
     </row>
     <row r="100" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -5951,7 +6145,7 @@
         <v>3</v>
       </c>
       <c r="F100" s="3"/>
-      <c r="G100" s="18"/>
+      <c r="G100" s="19"/>
       <c r="H100" s="3"/>
     </row>
     <row r="101" spans="1:8" ht="34" customHeight="1" x14ac:dyDescent="0.2">
@@ -5967,7 +6161,7 @@
         <v>3</v>
       </c>
       <c r="F101" s="3"/>
-      <c r="G101" s="18"/>
+      <c r="G101" s="19"/>
       <c r="H101" s="3"/>
     </row>
     <row r="102" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -5983,7 +6177,7 @@
         <v>3</v>
       </c>
       <c r="F102" s="3"/>
-      <c r="G102" s="18"/>
+      <c r="G102" s="19"/>
       <c r="H102" s="3"/>
     </row>
     <row r="103" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -5999,7 +6193,7 @@
         <v>3</v>
       </c>
       <c r="F103" s="3"/>
-      <c r="G103" s="18"/>
+      <c r="G103" s="19"/>
       <c r="H103" s="3"/>
     </row>
     <row r="104" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -6015,7 +6209,7 @@
         <v>3</v>
       </c>
       <c r="F104" s="3"/>
-      <c r="G104" s="18"/>
+      <c r="G104" s="19"/>
       <c r="H104" s="3"/>
     </row>
     <row r="105" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -6031,7 +6225,7 @@
         <v>3</v>
       </c>
       <c r="F105" s="3"/>
-      <c r="G105" s="18"/>
+      <c r="G105" s="19"/>
       <c r="H105" s="3"/>
     </row>
     <row r="106" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -6047,7 +6241,7 @@
         <v>3</v>
       </c>
       <c r="F106" s="3"/>
-      <c r="G106" s="18"/>
+      <c r="G106" s="19"/>
       <c r="H106" s="3"/>
     </row>
     <row r="107" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -6063,7 +6257,7 @@
         <v>3</v>
       </c>
       <c r="F107" s="3"/>
-      <c r="G107" s="18"/>
+      <c r="G107" s="19"/>
       <c r="H107" s="3"/>
     </row>
     <row r="108" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -6079,7 +6273,7 @@
         <v>3</v>
       </c>
       <c r="F108" s="3"/>
-      <c r="G108" s="18"/>
+      <c r="G108" s="19"/>
       <c r="H108" s="3"/>
     </row>
     <row r="109" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -6095,7 +6289,7 @@
         <v>3</v>
       </c>
       <c r="F109" s="3"/>
-      <c r="G109" s="18"/>
+      <c r="G109" s="19"/>
       <c r="H109" s="3"/>
     </row>
     <row r="110" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -6111,7 +6305,7 @@
         <v>3</v>
       </c>
       <c r="F110" s="3"/>
-      <c r="G110" s="18"/>
+      <c r="G110" s="19"/>
       <c r="H110" s="3"/>
     </row>
     <row r="111" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -6127,7 +6321,7 @@
         <v>3</v>
       </c>
       <c r="F111" s="3"/>
-      <c r="G111" s="18"/>
+      <c r="G111" s="19"/>
       <c r="H111" s="3"/>
     </row>
     <row r="112" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -6143,7 +6337,7 @@
         <v>3</v>
       </c>
       <c r="F112" s="3"/>
-      <c r="G112" s="18"/>
+      <c r="G112" s="19"/>
       <c r="H112" s="3"/>
     </row>
     <row r="113" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -6159,7 +6353,7 @@
         <v>3</v>
       </c>
       <c r="F113" s="3"/>
-      <c r="G113" s="18"/>
+      <c r="G113" s="19"/>
       <c r="H113" s="3"/>
     </row>
     <row r="114" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -6175,7 +6369,7 @@
         <v>3</v>
       </c>
       <c r="F114" s="3"/>
-      <c r="G114" s="18"/>
+      <c r="G114" s="19"/>
       <c r="H114" s="3"/>
     </row>
     <row r="115" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -6191,7 +6385,7 @@
         <v>3</v>
       </c>
       <c r="F115" s="3"/>
-      <c r="G115" s="18"/>
+      <c r="G115" s="19"/>
       <c r="H115" s="3"/>
     </row>
     <row r="116" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -6207,7 +6401,7 @@
         <v>3</v>
       </c>
       <c r="F116" s="3"/>
-      <c r="G116" s="18"/>
+      <c r="G116" s="19"/>
       <c r="H116" s="3"/>
     </row>
     <row r="117" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -6219,7 +6413,7 @@
         <v>3</v>
       </c>
       <c r="F117" s="3"/>
-      <c r="G117" s="18"/>
+      <c r="G117" s="19"/>
       <c r="H117" s="3"/>
     </row>
     <row r="118" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -6235,7 +6429,7 @@
         <v>3</v>
       </c>
       <c r="F118" s="3"/>
-      <c r="G118" s="18"/>
+      <c r="G118" s="19"/>
       <c r="H118" s="3"/>
     </row>
     <row r="119" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -6251,7 +6445,7 @@
         <v>3</v>
       </c>
       <c r="F119" s="3"/>
-      <c r="G119" s="18"/>
+      <c r="G119" s="19"/>
       <c r="H119" s="3"/>
     </row>
     <row r="120" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -6267,7 +6461,7 @@
         <v>3</v>
       </c>
       <c r="F120" s="3"/>
-      <c r="G120" s="18"/>
+      <c r="G120" s="19"/>
       <c r="H120" s="3"/>
     </row>
     <row r="121" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -6283,7 +6477,7 @@
         <v>3</v>
       </c>
       <c r="F121" s="3"/>
-      <c r="G121" s="18"/>
+      <c r="G121" s="19"/>
       <c r="H121" s="3"/>
     </row>
     <row r="122" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -6299,7 +6493,7 @@
         <v>3</v>
       </c>
       <c r="F122" s="3"/>
-      <c r="G122" s="18"/>
+      <c r="G122" s="19"/>
       <c r="H122" s="3"/>
     </row>
     <row r="123" spans="1:8" ht="37" customHeight="1" x14ac:dyDescent="0.2">
@@ -6315,7 +6509,7 @@
         <v>3</v>
       </c>
       <c r="F123" s="3"/>
-      <c r="G123" s="18"/>
+      <c r="G123" s="19"/>
       <c r="H123" s="3"/>
     </row>
     <row r="124" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -6331,7 +6525,7 @@
         <v>3</v>
       </c>
       <c r="F124" s="3"/>
-      <c r="G124" s="18"/>
+      <c r="G124" s="19"/>
       <c r="H124" s="3"/>
     </row>
     <row r="125" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -6347,7 +6541,7 @@
         <v>3</v>
       </c>
       <c r="F125" s="3"/>
-      <c r="G125" s="18"/>
+      <c r="G125" s="19"/>
       <c r="H125" s="3"/>
     </row>
     <row r="126" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -6363,7 +6557,7 @@
         <v>3</v>
       </c>
       <c r="F126" s="3"/>
-      <c r="G126" s="18"/>
+      <c r="G126" s="19"/>
       <c r="H126" s="3"/>
     </row>
     <row r="127" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -6379,7 +6573,7 @@
         <v>3</v>
       </c>
       <c r="F127" s="3"/>
-      <c r="G127" s="18"/>
+      <c r="G127" s="19"/>
       <c r="H127" s="3"/>
     </row>
     <row r="128" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -6395,7 +6589,7 @@
         <v>3</v>
       </c>
       <c r="F128" s="3"/>
-      <c r="G128" s="18"/>
+      <c r="G128" s="19"/>
       <c r="H128" s="3"/>
     </row>
     <row r="129" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -6411,7 +6605,7 @@
         <v>3</v>
       </c>
       <c r="F129" s="3"/>
-      <c r="G129" s="18"/>
+      <c r="G129" s="19"/>
       <c r="H129" s="3"/>
     </row>
     <row r="130" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -6427,7 +6621,7 @@
         <v>3</v>
       </c>
       <c r="F130" s="3"/>
-      <c r="G130" s="18"/>
+      <c r="G130" s="19"/>
       <c r="H130" s="3"/>
     </row>
     <row r="131" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -6443,7 +6637,7 @@
         <v>3</v>
       </c>
       <c r="F131" s="3"/>
-      <c r="G131" s="18"/>
+      <c r="G131" s="19"/>
       <c r="H131" s="3"/>
     </row>
     <row r="132" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -6459,7 +6653,7 @@
         <v>3</v>
       </c>
       <c r="F132" s="3"/>
-      <c r="G132" s="18"/>
+      <c r="G132" s="19"/>
       <c r="H132" s="3"/>
     </row>
     <row r="133" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -6475,7 +6669,7 @@
         <v>3</v>
       </c>
       <c r="F133" s="3"/>
-      <c r="G133" s="18"/>
+      <c r="G133" s="19"/>
       <c r="H133" s="3"/>
     </row>
     <row r="134" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -6491,7 +6685,7 @@
         <v>3</v>
       </c>
       <c r="F134" s="3"/>
-      <c r="G134" s="18"/>
+      <c r="G134" s="19"/>
       <c r="H134" s="3"/>
     </row>
     <row r="135" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -6507,7 +6701,7 @@
         <v>3</v>
       </c>
       <c r="F135" s="3"/>
-      <c r="G135" s="18"/>
+      <c r="G135" s="19"/>
       <c r="H135" s="3"/>
     </row>
     <row r="136" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -6523,7 +6717,7 @@
         <v>3</v>
       </c>
       <c r="F136" s="3"/>
-      <c r="G136" s="18"/>
+      <c r="G136" s="19"/>
       <c r="H136" s="3"/>
     </row>
     <row r="137" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -6539,7 +6733,7 @@
         <v>3</v>
       </c>
       <c r="F137" s="3"/>
-      <c r="G137" s="18"/>
+      <c r="G137" s="19"/>
       <c r="H137" s="3"/>
     </row>
     <row r="138" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -6555,7 +6749,7 @@
         <v>3</v>
       </c>
       <c r="F138" s="3"/>
-      <c r="G138" s="18"/>
+      <c r="G138" s="19"/>
       <c r="H138" s="3"/>
     </row>
     <row r="139" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -6567,7 +6761,7 @@
         <v>3</v>
       </c>
       <c r="F139" s="3"/>
-      <c r="G139" s="18"/>
+      <c r="G139" s="19"/>
       <c r="H139" s="3"/>
     </row>
     <row r="140" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -6585,7 +6779,7 @@
         <v>3</v>
       </c>
       <c r="F140" s="3"/>
-      <c r="G140" s="18"/>
+      <c r="G140" s="19"/>
       <c r="H140" s="3"/>
     </row>
     <row r="141" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -6601,7 +6795,7 @@
         <v>3</v>
       </c>
       <c r="F141" s="3"/>
-      <c r="G141" s="18"/>
+      <c r="G141" s="19"/>
       <c r="H141" s="3"/>
     </row>
     <row r="142" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -6617,7 +6811,7 @@
         <v>3</v>
       </c>
       <c r="F142" s="3"/>
-      <c r="G142" s="18"/>
+      <c r="G142" s="19"/>
       <c r="H142" s="3"/>
     </row>
     <row r="143" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -6633,7 +6827,7 @@
         <v>3</v>
       </c>
       <c r="F143" s="3"/>
-      <c r="G143" s="18"/>
+      <c r="G143" s="19"/>
       <c r="H143" s="3"/>
     </row>
     <row r="144" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -6649,7 +6843,7 @@
         <v>3</v>
       </c>
       <c r="F144" s="3"/>
-      <c r="G144" s="18"/>
+      <c r="G144" s="19"/>
       <c r="H144" s="3"/>
     </row>
     <row r="145" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -6665,7 +6859,7 @@
         <v>3</v>
       </c>
       <c r="F145" s="3"/>
-      <c r="G145" s="18"/>
+      <c r="G145" s="19"/>
       <c r="H145" s="3"/>
     </row>
     <row r="146" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -6681,7 +6875,7 @@
         <v>3</v>
       </c>
       <c r="F146" s="3"/>
-      <c r="G146" s="18"/>
+      <c r="G146" s="19"/>
       <c r="H146" s="3"/>
     </row>
     <row r="147" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -6697,7 +6891,7 @@
         <v>3</v>
       </c>
       <c r="F147" s="3"/>
-      <c r="G147" s="18"/>
+      <c r="G147" s="19"/>
       <c r="H147" s="3"/>
     </row>
     <row r="148" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -6713,7 +6907,7 @@
         <v>3</v>
       </c>
       <c r="F148" s="3"/>
-      <c r="G148" s="18"/>
+      <c r="G148" s="19"/>
       <c r="H148" s="3"/>
     </row>
     <row r="149" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -6729,7 +6923,7 @@
         <v>3</v>
       </c>
       <c r="F149" s="3"/>
-      <c r="G149" s="18"/>
+      <c r="G149" s="19"/>
       <c r="H149" s="3"/>
     </row>
     <row r="150" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -6745,7 +6939,7 @@
         <v>3</v>
       </c>
       <c r="F150" s="3"/>
-      <c r="G150" s="18"/>
+      <c r="G150" s="19"/>
       <c r="H150" s="3"/>
     </row>
     <row r="151" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -6761,7 +6955,7 @@
         <v>3</v>
       </c>
       <c r="F151" s="3"/>
-      <c r="G151" s="18"/>
+      <c r="G151" s="19"/>
       <c r="H151" s="3"/>
     </row>
     <row r="152" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -6777,7 +6971,7 @@
         <v>3</v>
       </c>
       <c r="F152" s="3"/>
-      <c r="G152" s="18"/>
+      <c r="G152" s="19"/>
       <c r="H152" s="3"/>
     </row>
     <row r="153" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -6793,7 +6987,7 @@
         <v>3</v>
       </c>
       <c r="F153" s="3"/>
-      <c r="G153" s="18"/>
+      <c r="G153" s="19"/>
       <c r="H153" s="3"/>
     </row>
     <row r="154" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -6809,7 +7003,7 @@
         <v>3</v>
       </c>
       <c r="F154" s="3"/>
-      <c r="G154" s="18"/>
+      <c r="G154" s="19"/>
       <c r="H154" s="3"/>
     </row>
     <row r="155" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -6825,7 +7019,7 @@
         <v>3</v>
       </c>
       <c r="F155" s="3"/>
-      <c r="G155" s="18"/>
+      <c r="G155" s="19"/>
       <c r="H155" s="3"/>
     </row>
     <row r="156" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -6841,7 +7035,7 @@
         <v>3</v>
       </c>
       <c r="F156" s="3"/>
-      <c r="G156" s="18"/>
+      <c r="G156" s="19"/>
       <c r="H156" s="3"/>
     </row>
     <row r="157" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -6857,7 +7051,7 @@
         <v>3</v>
       </c>
       <c r="F157" s="3"/>
-      <c r="G157" s="18"/>
+      <c r="G157" s="19"/>
       <c r="H157" s="3"/>
     </row>
     <row r="158" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -6873,7 +7067,7 @@
         <v>3</v>
       </c>
       <c r="F158" s="3"/>
-      <c r="G158" s="18"/>
+      <c r="G158" s="19"/>
       <c r="H158" s="3"/>
     </row>
     <row r="159" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -6889,7 +7083,7 @@
         <v>3</v>
       </c>
       <c r="F159" s="3"/>
-      <c r="G159" s="18"/>
+      <c r="G159" s="19"/>
       <c r="H159" s="3"/>
     </row>
     <row r="160" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -6905,7 +7099,7 @@
         <v>3</v>
       </c>
       <c r="F160" s="3"/>
-      <c r="G160" s="18"/>
+      <c r="G160" s="19"/>
       <c r="H160" s="3"/>
     </row>
     <row r="161" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -6914,7 +7108,7 @@
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
       <c r="F161" s="3"/>
-      <c r="G161" s="18"/>
+      <c r="G161" s="19"/>
       <c r="H161" s="3"/>
     </row>
     <row r="162" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -6932,7 +7126,7 @@
         <v>3</v>
       </c>
       <c r="F162" s="3"/>
-      <c r="G162" s="18"/>
+      <c r="G162" s="19"/>
       <c r="H162" s="3"/>
     </row>
     <row r="163" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -6948,7 +7142,7 @@
         <v>3</v>
       </c>
       <c r="F163" s="3"/>
-      <c r="G163" s="18"/>
+      <c r="G163" s="19"/>
       <c r="H163" s="3"/>
     </row>
     <row r="164" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -6964,7 +7158,7 @@
         <v>3</v>
       </c>
       <c r="F164" s="3"/>
-      <c r="G164" s="18"/>
+      <c r="G164" s="19"/>
       <c r="H164" s="3"/>
     </row>
     <row r="165" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -6980,7 +7174,7 @@
         <v>3</v>
       </c>
       <c r="F165" s="3"/>
-      <c r="G165" s="18"/>
+      <c r="G165" s="19"/>
       <c r="H165" s="3"/>
     </row>
     <row r="166" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -6996,7 +7190,7 @@
         <v>3</v>
       </c>
       <c r="F166" s="3"/>
-      <c r="G166" s="18"/>
+      <c r="G166" s="19"/>
       <c r="H166" s="3"/>
     </row>
     <row r="167" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -7012,7 +7206,7 @@
         <v>3</v>
       </c>
       <c r="F167" s="3"/>
-      <c r="G167" s="18"/>
+      <c r="G167" s="19"/>
       <c r="H167" s="3"/>
     </row>
     <row r="168" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -7028,7 +7222,7 @@
         <v>3</v>
       </c>
       <c r="F168" s="3"/>
-      <c r="G168" s="18"/>
+      <c r="G168" s="19"/>
       <c r="H168" s="3"/>
     </row>
     <row r="169" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -7044,7 +7238,7 @@
         <v>3</v>
       </c>
       <c r="F169" s="3"/>
-      <c r="G169" s="18"/>
+      <c r="G169" s="19"/>
       <c r="H169" s="3"/>
     </row>
     <row r="170" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -7060,7 +7254,7 @@
         <v>3</v>
       </c>
       <c r="F170" s="3"/>
-      <c r="G170" s="18"/>
+      <c r="G170" s="19"/>
       <c r="H170" s="3"/>
     </row>
     <row r="171" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -7076,7 +7270,7 @@
         <v>3</v>
       </c>
       <c r="F171" s="3"/>
-      <c r="G171" s="18"/>
+      <c r="G171" s="19"/>
       <c r="H171" s="3"/>
     </row>
     <row r="172" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -7092,7 +7286,7 @@
         <v>3</v>
       </c>
       <c r="F172" s="3"/>
-      <c r="G172" s="18"/>
+      <c r="G172" s="19"/>
       <c r="H172" s="3"/>
     </row>
     <row r="173" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -7108,7 +7302,7 @@
         <v>3</v>
       </c>
       <c r="F173" s="3"/>
-      <c r="G173" s="18"/>
+      <c r="G173" s="19"/>
       <c r="H173" s="3"/>
     </row>
     <row r="174" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -7124,7 +7318,7 @@
         <v>3</v>
       </c>
       <c r="F174" s="3"/>
-      <c r="G174" s="18"/>
+      <c r="G174" s="19"/>
       <c r="H174" s="3"/>
     </row>
     <row r="175" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -7140,7 +7334,7 @@
         <v>3</v>
       </c>
       <c r="F175" s="3"/>
-      <c r="G175" s="18"/>
+      <c r="G175" s="19"/>
       <c r="H175" s="3"/>
     </row>
     <row r="176" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -7156,7 +7350,7 @@
         <v>3</v>
       </c>
       <c r="F176" s="3"/>
-      <c r="G176" s="18"/>
+      <c r="G176" s="19"/>
       <c r="H176" s="3"/>
     </row>
     <row r="177" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -7172,7 +7366,7 @@
         <v>3</v>
       </c>
       <c r="F177" s="3"/>
-      <c r="G177" s="18"/>
+      <c r="G177" s="19"/>
       <c r="H177" s="3"/>
     </row>
     <row r="178" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -7188,7 +7382,7 @@
         <v>3</v>
       </c>
       <c r="F178" s="3"/>
-      <c r="G178" s="18"/>
+      <c r="G178" s="19"/>
       <c r="H178" s="3"/>
     </row>
     <row r="179" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -7204,7 +7398,7 @@
         <v>3</v>
       </c>
       <c r="F179" s="3"/>
-      <c r="G179" s="18"/>
+      <c r="G179" s="19"/>
       <c r="H179" s="3"/>
     </row>
     <row r="180" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -7220,7 +7414,7 @@
         <v>3</v>
       </c>
       <c r="F180" s="3"/>
-      <c r="G180" s="18"/>
+      <c r="G180" s="19"/>
       <c r="H180" s="3"/>
     </row>
     <row r="181" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -7236,7 +7430,7 @@
         <v>3</v>
       </c>
       <c r="F181" s="3"/>
-      <c r="G181" s="18"/>
+      <c r="G181" s="19"/>
       <c r="H181" s="3"/>
     </row>
     <row r="182" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -7245,7 +7439,7 @@
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
       <c r="F182" s="3"/>
-      <c r="G182" s="18"/>
+      <c r="G182" s="19"/>
       <c r="H182" s="3"/>
     </row>
     <row r="183" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -7263,7 +7457,7 @@
         <v>3</v>
       </c>
       <c r="F183" s="3"/>
-      <c r="G183" s="18"/>
+      <c r="G183" s="19"/>
       <c r="H183" s="3"/>
     </row>
     <row r="184" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -7279,7 +7473,7 @@
         <v>3</v>
       </c>
       <c r="F184" s="3"/>
-      <c r="G184" s="18"/>
+      <c r="G184" s="19"/>
       <c r="H184" s="3"/>
     </row>
     <row r="185" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -7295,7 +7489,7 @@
         <v>3</v>
       </c>
       <c r="F185" s="3"/>
-      <c r="G185" s="18"/>
+      <c r="G185" s="19"/>
       <c r="H185" s="3"/>
     </row>
     <row r="186" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -7311,7 +7505,7 @@
         <v>3</v>
       </c>
       <c r="F186" s="3"/>
-      <c r="G186" s="18"/>
+      <c r="G186" s="19"/>
       <c r="H186" s="3"/>
     </row>
     <row r="187" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -7327,7 +7521,7 @@
         <v>3</v>
       </c>
       <c r="F187" s="3"/>
-      <c r="G187" s="18"/>
+      <c r="G187" s="19"/>
       <c r="H187" s="3"/>
     </row>
     <row r="188" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -7343,7 +7537,7 @@
         <v>3</v>
       </c>
       <c r="F188" s="3"/>
-      <c r="G188" s="18"/>
+      <c r="G188" s="19"/>
       <c r="H188" s="3"/>
     </row>
     <row r="189" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -7359,7 +7553,7 @@
         <v>3</v>
       </c>
       <c r="F189" s="3"/>
-      <c r="G189" s="18"/>
+      <c r="G189" s="19"/>
       <c r="H189" s="3"/>
     </row>
     <row r="190" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -7375,7 +7569,7 @@
         <v>3</v>
       </c>
       <c r="F190" s="3"/>
-      <c r="G190" s="18"/>
+      <c r="G190" s="19"/>
       <c r="H190" s="3"/>
     </row>
     <row r="191" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -7384,7 +7578,7 @@
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
       <c r="F191" s="3"/>
-      <c r="G191" s="18"/>
+      <c r="G191" s="19"/>
       <c r="H191" s="3"/>
     </row>
     <row r="192" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -7402,7 +7596,7 @@
         <v>3</v>
       </c>
       <c r="F192" s="3"/>
-      <c r="G192" s="18"/>
+      <c r="G192" s="19"/>
       <c r="H192" s="3"/>
     </row>
     <row r="193" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -7411,7 +7605,7 @@
       <c r="C193" s="3"/>
       <c r="D193" s="3"/>
       <c r="F193" s="3"/>
-      <c r="G193" s="18"/>
+      <c r="G193" s="19"/>
       <c r="H193" s="3"/>
     </row>
     <row r="194" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -7429,7 +7623,7 @@
         <v>3</v>
       </c>
       <c r="F194" s="3"/>
-      <c r="G194" s="18"/>
+      <c r="G194" s="19"/>
       <c r="H194" s="3"/>
     </row>
     <row r="195" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -7438,7 +7632,7 @@
       <c r="C195" s="3"/>
       <c r="D195" s="3"/>
       <c r="F195" s="3"/>
-      <c r="G195" s="18"/>
+      <c r="G195" s="19"/>
       <c r="H195" s="3"/>
     </row>
     <row r="196" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -7456,7 +7650,7 @@
         <v>3</v>
       </c>
       <c r="F196" s="3"/>
-      <c r="G196" s="18"/>
+      <c r="G196" s="19"/>
       <c r="H196" s="3"/>
     </row>
     <row r="197" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -7472,7 +7666,7 @@
         <v>3</v>
       </c>
       <c r="F197" s="3"/>
-      <c r="G197" s="18"/>
+      <c r="G197" s="19"/>
       <c r="H197" s="3"/>
     </row>
     <row r="198" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -7488,7 +7682,7 @@
         <v>3</v>
       </c>
       <c r="F198" s="3"/>
-      <c r="G198" s="18"/>
+      <c r="G198" s="19"/>
       <c r="H198" s="3"/>
     </row>
     <row r="199" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -7500,7 +7694,7 @@
         <v>3</v>
       </c>
       <c r="F199" s="3"/>
-      <c r="G199" s="18"/>
+      <c r="G199" s="19"/>
       <c r="H199" s="3"/>
     </row>
     <row r="200" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -7518,7 +7712,7 @@
         <v>3</v>
       </c>
       <c r="F200" s="3"/>
-      <c r="G200" s="18"/>
+      <c r="G200" s="19"/>
       <c r="H200" s="3"/>
     </row>
     <row r="201" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -7534,7 +7728,7 @@
         <v>3</v>
       </c>
       <c r="F201" s="3"/>
-      <c r="G201" s="18"/>
+      <c r="G201" s="19"/>
       <c r="H201" s="3"/>
     </row>
     <row r="202" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -7550,7 +7744,7 @@
         <v>3</v>
       </c>
       <c r="F202" s="3"/>
-      <c r="G202" s="18"/>
+      <c r="G202" s="19"/>
       <c r="H202" s="3"/>
     </row>
     <row r="203" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -7566,7 +7760,7 @@
         <v>3</v>
       </c>
       <c r="F203" s="3"/>
-      <c r="G203" s="18"/>
+      <c r="G203" s="19"/>
       <c r="H203" s="3"/>
     </row>
     <row r="204" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -7582,7 +7776,7 @@
         <v>3</v>
       </c>
       <c r="F204" s="3"/>
-      <c r="G204" s="18"/>
+      <c r="G204" s="19"/>
       <c r="H204" s="3"/>
     </row>
     <row r="205" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -7598,7 +7792,7 @@
         <v>3</v>
       </c>
       <c r="F205" s="3"/>
-      <c r="G205" s="18"/>
+      <c r="G205" s="19"/>
       <c r="H205" s="3"/>
     </row>
     <row r="206" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -7614,7 +7808,7 @@
         <v>3</v>
       </c>
       <c r="F206" s="3"/>
-      <c r="G206" s="18"/>
+      <c r="G206" s="19"/>
       <c r="H206" s="3"/>
     </row>
     <row r="207" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -7630,7 +7824,7 @@
         <v>3</v>
       </c>
       <c r="F207" s="3"/>
-      <c r="G207" s="18"/>
+      <c r="G207" s="19"/>
       <c r="H207" s="3"/>
     </row>
     <row r="208" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -7646,7 +7840,7 @@
         <v>3</v>
       </c>
       <c r="F208" s="3"/>
-      <c r="G208" s="18"/>
+      <c r="G208" s="19"/>
       <c r="H208" s="3"/>
     </row>
     <row r="209" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -7662,7 +7856,7 @@
         <v>3</v>
       </c>
       <c r="F209" s="3"/>
-      <c r="G209" s="18"/>
+      <c r="G209" s="19"/>
       <c r="H209" s="3"/>
     </row>
     <row r="210" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -7678,7 +7872,7 @@
         <v>3</v>
       </c>
       <c r="F210" s="3"/>
-      <c r="G210" s="18"/>
+      <c r="G210" s="19"/>
       <c r="H210" s="3"/>
     </row>
     <row r="211" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -7694,7 +7888,7 @@
         <v>3</v>
       </c>
       <c r="F211" s="3"/>
-      <c r="G211" s="18"/>
+      <c r="G211" s="19"/>
       <c r="H211" s="3"/>
     </row>
     <row r="212" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -7710,7 +7904,7 @@
         <v>3</v>
       </c>
       <c r="F212" s="3"/>
-      <c r="G212" s="18"/>
+      <c r="G212" s="19"/>
       <c r="H212" s="3"/>
     </row>
     <row r="213" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -7726,7 +7920,7 @@
         <v>3</v>
       </c>
       <c r="F213" s="3"/>
-      <c r="G213" s="18"/>
+      <c r="G213" s="19"/>
       <c r="H213" s="3"/>
     </row>
     <row r="214" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -7742,7 +7936,7 @@
         <v>3</v>
       </c>
       <c r="F214" s="3"/>
-      <c r="G214" s="18"/>
+      <c r="G214" s="19"/>
       <c r="H214" s="3"/>
     </row>
     <row r="215" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -7758,7 +7952,7 @@
         <v>3</v>
       </c>
       <c r="F215" s="3"/>
-      <c r="G215" s="18"/>
+      <c r="G215" s="19"/>
       <c r="H215" s="3"/>
     </row>
     <row r="216" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -7774,7 +7968,7 @@
         <v>3</v>
       </c>
       <c r="F216" s="3"/>
-      <c r="G216" s="18"/>
+      <c r="G216" s="19"/>
       <c r="H216" s="3"/>
     </row>
     <row r="217" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -7790,7 +7984,7 @@
         <v>3</v>
       </c>
       <c r="F217" s="3"/>
-      <c r="G217" s="18"/>
+      <c r="G217" s="19"/>
       <c r="H217" s="3"/>
     </row>
     <row r="218" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -7806,7 +8000,7 @@
         <v>3</v>
       </c>
       <c r="F218" s="3"/>
-      <c r="G218" s="18"/>
+      <c r="G218" s="19"/>
       <c r="H218" s="3"/>
     </row>
     <row r="219" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -7822,7 +8016,7 @@
         <v>3</v>
       </c>
       <c r="F219" s="3"/>
-      <c r="G219" s="18"/>
+      <c r="G219" s="19"/>
       <c r="H219" s="3"/>
     </row>
     <row r="220" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -7838,7 +8032,7 @@
         <v>3</v>
       </c>
       <c r="F220" s="3"/>
-      <c r="G220" s="18"/>
+      <c r="G220" s="19"/>
       <c r="H220" s="3"/>
     </row>
     <row r="221" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -7854,7 +8048,7 @@
         <v>3</v>
       </c>
       <c r="F221" s="3"/>
-      <c r="G221" s="18"/>
+      <c r="G221" s="19"/>
       <c r="H221" s="3"/>
     </row>
     <row r="222" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -7870,7 +8064,7 @@
         <v>3</v>
       </c>
       <c r="F222" s="3"/>
-      <c r="G222" s="18"/>
+      <c r="G222" s="19"/>
       <c r="H222" s="3"/>
     </row>
     <row r="223" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -7886,7 +8080,7 @@
         <v>3</v>
       </c>
       <c r="F223" s="3"/>
-      <c r="G223" s="18"/>
+      <c r="G223" s="19"/>
       <c r="H223" s="3"/>
     </row>
     <row r="224" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -7902,7 +8096,7 @@
         <v>3</v>
       </c>
       <c r="F224" s="3"/>
-      <c r="G224" s="18"/>
+      <c r="G224" s="19"/>
       <c r="H224" s="3"/>
     </row>
     <row r="225" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -7918,7 +8112,7 @@
         <v>3</v>
       </c>
       <c r="F225" s="3"/>
-      <c r="G225" s="18"/>
+      <c r="G225" s="19"/>
       <c r="H225" s="3"/>
     </row>
     <row r="226" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -7934,7 +8128,7 @@
         <v>3</v>
       </c>
       <c r="F226" s="3"/>
-      <c r="G226" s="18"/>
+      <c r="G226" s="19"/>
       <c r="H226" s="3"/>
     </row>
     <row r="227" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -7950,7 +8144,7 @@
         <v>3</v>
       </c>
       <c r="F227" s="3"/>
-      <c r="G227" s="18"/>
+      <c r="G227" s="19"/>
       <c r="H227" s="3"/>
     </row>
     <row r="228" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -7966,7 +8160,7 @@
         <v>3</v>
       </c>
       <c r="F228" s="3"/>
-      <c r="G228" s="18"/>
+      <c r="G228" s="19"/>
       <c r="H228" s="3"/>
     </row>
     <row r="229" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -7982,7 +8176,7 @@
         <v>3</v>
       </c>
       <c r="F229" s="3"/>
-      <c r="G229" s="18"/>
+      <c r="G229" s="19"/>
       <c r="H229" s="3"/>
     </row>
     <row r="230" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -7998,7 +8192,7 @@
         <v>3</v>
       </c>
       <c r="F230" s="3"/>
-      <c r="G230" s="18"/>
+      <c r="G230" s="19"/>
       <c r="H230" s="3"/>
     </row>
     <row r="231" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -8014,7 +8208,7 @@
         <v>3</v>
       </c>
       <c r="F231" s="3"/>
-      <c r="G231" s="18"/>
+      <c r="G231" s="19"/>
       <c r="H231" s="3"/>
     </row>
     <row r="232" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -8030,7 +8224,7 @@
         <v>3</v>
       </c>
       <c r="F232" s="3"/>
-      <c r="G232" s="18"/>
+      <c r="G232" s="19"/>
       <c r="H232" s="3"/>
     </row>
     <row r="233" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -8046,7 +8240,7 @@
         <v>3</v>
       </c>
       <c r="F233" s="3"/>
-      <c r="G233" s="18"/>
+      <c r="G233" s="19"/>
       <c r="H233" s="3"/>
     </row>
     <row r="234" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -8062,7 +8256,7 @@
         <v>3</v>
       </c>
       <c r="F234" s="3"/>
-      <c r="G234" s="18"/>
+      <c r="G234" s="19"/>
       <c r="H234" s="3"/>
     </row>
     <row r="235" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -8074,7 +8268,7 @@
         <v>3</v>
       </c>
       <c r="F235" s="3"/>
-      <c r="G235" s="18"/>
+      <c r="G235" s="19"/>
       <c r="H235" s="3"/>
     </row>
     <row r="236" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -8092,7 +8286,7 @@
         <v>3</v>
       </c>
       <c r="F236" s="3"/>
-      <c r="G236" s="18"/>
+      <c r="G236" s="19"/>
       <c r="H236" s="3"/>
     </row>
     <row r="237" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -8104,7 +8298,7 @@
         <v>3</v>
       </c>
       <c r="F237" s="3"/>
-      <c r="G237" s="18"/>
+      <c r="G237" s="19"/>
       <c r="H237" s="3"/>
     </row>
     <row r="238" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -8122,7 +8316,7 @@
         <v>3</v>
       </c>
       <c r="F238" s="3"/>
-      <c r="G238" s="18"/>
+      <c r="G238" s="19"/>
       <c r="H238" s="3"/>
     </row>
     <row r="239" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -8138,7 +8332,7 @@
         <v>3</v>
       </c>
       <c r="F239" s="3"/>
-      <c r="G239" s="18"/>
+      <c r="G239" s="19"/>
       <c r="H239" s="3"/>
     </row>
     <row r="240" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -8154,7 +8348,7 @@
         <v>3</v>
       </c>
       <c r="F240" s="3"/>
-      <c r="G240" s="18"/>
+      <c r="G240" s="19"/>
       <c r="H240" s="3"/>
     </row>
     <row r="241" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -8170,7 +8364,7 @@
         <v>3</v>
       </c>
       <c r="F241" s="3"/>
-      <c r="G241" s="18"/>
+      <c r="G241" s="19"/>
       <c r="H241" s="3"/>
     </row>
     <row r="242" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -8186,7 +8380,7 @@
         <v>3</v>
       </c>
       <c r="F242" s="3"/>
-      <c r="G242" s="18"/>
+      <c r="G242" s="19"/>
       <c r="H242" s="3"/>
     </row>
     <row r="243" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -8202,7 +8396,7 @@
         <v>3</v>
       </c>
       <c r="F243" s="3"/>
-      <c r="G243" s="18"/>
+      <c r="G243" s="19"/>
       <c r="H243" s="3"/>
     </row>
     <row r="244" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -8218,7 +8412,7 @@
         <v>3</v>
       </c>
       <c r="F244" s="3"/>
-      <c r="G244" s="18"/>
+      <c r="G244" s="19"/>
       <c r="H244" s="3"/>
     </row>
     <row r="245" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -8230,7 +8424,7 @@
         <v>3</v>
       </c>
       <c r="F245" s="3"/>
-      <c r="G245" s="18"/>
+      <c r="G245" s="19"/>
       <c r="H245" s="3"/>
     </row>
     <row r="246" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -8248,7 +8442,7 @@
         <v>3</v>
       </c>
       <c r="F246" s="3"/>
-      <c r="G246" s="18"/>
+      <c r="G246" s="19"/>
       <c r="H246" s="3"/>
     </row>
     <row r="247" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -8264,7 +8458,7 @@
         <v>3</v>
       </c>
       <c r="F247" s="3"/>
-      <c r="G247" s="18"/>
+      <c r="G247" s="19"/>
       <c r="H247" s="3"/>
     </row>
     <row r="248" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -8276,7 +8470,7 @@
         <v>3</v>
       </c>
       <c r="F248" s="3"/>
-      <c r="G248" s="18"/>
+      <c r="G248" s="19"/>
       <c r="H248" s="3"/>
     </row>
     <row r="249" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -8294,7 +8488,7 @@
         <v>3</v>
       </c>
       <c r="F249" s="3"/>
-      <c r="G249" s="18"/>
+      <c r="G249" s="19"/>
       <c r="H249" s="3"/>
     </row>
     <row r="250" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -8310,7 +8504,7 @@
         <v>3</v>
       </c>
       <c r="F250" s="3"/>
-      <c r="G250" s="18"/>
+      <c r="G250" s="19"/>
       <c r="H250" s="3"/>
     </row>
     <row r="251" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -8326,7 +8520,7 @@
         <v>3</v>
       </c>
       <c r="F251" s="3"/>
-      <c r="G251" s="18"/>
+      <c r="G251" s="19"/>
       <c r="H251" s="3"/>
     </row>
     <row r="252" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -8342,7 +8536,7 @@
         <v>3</v>
       </c>
       <c r="F252" s="3"/>
-      <c r="G252" s="18"/>
+      <c r="G252" s="19"/>
       <c r="H252" s="3"/>
     </row>
     <row r="253" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -8358,7 +8552,7 @@
         <v>3</v>
       </c>
       <c r="F253" s="3"/>
-      <c r="G253" s="18"/>
+      <c r="G253" s="19"/>
       <c r="H253" s="3"/>
     </row>
     <row r="254" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -8374,7 +8568,7 @@
         <v>3</v>
       </c>
       <c r="F254" s="3"/>
-      <c r="G254" s="18"/>
+      <c r="G254" s="19"/>
       <c r="H254" s="3"/>
     </row>
     <row r="255" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -8386,7 +8580,7 @@
         <v>3</v>
       </c>
       <c r="F255" s="3"/>
-      <c r="G255" s="18"/>
+      <c r="G255" s="19"/>
       <c r="H255" s="3"/>
     </row>
     <row r="256" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -8404,7 +8598,7 @@
         <v>3</v>
       </c>
       <c r="F256" s="3"/>
-      <c r="G256" s="18"/>
+      <c r="G256" s="19"/>
       <c r="H256" s="3"/>
     </row>
     <row r="257" spans="1:8" ht="65" customHeight="1" x14ac:dyDescent="0.2">
@@ -8420,7 +8614,7 @@
         <v>3</v>
       </c>
       <c r="F257" s="3"/>
-      <c r="G257" s="18"/>
+      <c r="G257" s="19"/>
       <c r="H257" s="3"/>
     </row>
     <row r="258" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -8436,7 +8630,7 @@
         <v>3</v>
       </c>
       <c r="F258" s="3"/>
-      <c r="G258" s="18"/>
+      <c r="G258" s="19"/>
       <c r="H258" s="3"/>
     </row>
     <row r="259" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -8452,7 +8646,7 @@
         <v>3</v>
       </c>
       <c r="F259" s="3"/>
-      <c r="G259" s="18"/>
+      <c r="G259" s="19"/>
       <c r="H259" s="3"/>
     </row>
     <row r="260" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -8468,7 +8662,7 @@
         <v>3</v>
       </c>
       <c r="F260" s="3"/>
-      <c r="G260" s="18"/>
+      <c r="G260" s="19"/>
       <c r="H260" s="3"/>
     </row>
     <row r="261" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -8484,7 +8678,7 @@
         <v>3</v>
       </c>
       <c r="F261" s="3"/>
-      <c r="G261" s="18"/>
+      <c r="G261" s="19"/>
       <c r="H261" s="3"/>
     </row>
     <row r="262" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -8500,7 +8694,7 @@
         <v>3</v>
       </c>
       <c r="F262" s="3"/>
-      <c r="G262" s="18"/>
+      <c r="G262" s="19"/>
       <c r="H262" s="3"/>
     </row>
     <row r="263" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -8516,7 +8710,7 @@
         <v>3</v>
       </c>
       <c r="F263" s="3"/>
-      <c r="G263" s="18"/>
+      <c r="G263" s="19"/>
       <c r="H263" s="3"/>
     </row>
     <row r="264" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -8532,7 +8726,7 @@
         <v>3</v>
       </c>
       <c r="F264" s="3"/>
-      <c r="G264" s="18"/>
+      <c r="G264" s="19"/>
       <c r="H264" s="3"/>
     </row>
     <row r="265" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -8544,7 +8738,7 @@
         <v>3</v>
       </c>
       <c r="F265" s="3"/>
-      <c r="G265" s="18"/>
+      <c r="G265" s="19"/>
       <c r="H265" s="3"/>
     </row>
     <row r="266" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -8562,7 +8756,7 @@
         <v>3</v>
       </c>
       <c r="F266" s="3"/>
-      <c r="G266" s="18"/>
+      <c r="G266" s="19"/>
       <c r="H266" s="3"/>
     </row>
     <row r="267" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -8578,7 +8772,7 @@
         <v>3</v>
       </c>
       <c r="F267" s="3"/>
-      <c r="G267" s="18"/>
+      <c r="G267" s="19"/>
       <c r="H267" s="3"/>
     </row>
     <row r="268" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -8594,7 +8788,7 @@
         <v>3</v>
       </c>
       <c r="F268" s="3"/>
-      <c r="G268" s="18"/>
+      <c r="G268" s="19"/>
       <c r="H268" s="3"/>
     </row>
     <row r="269" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -8610,7 +8804,7 @@
         <v>3</v>
       </c>
       <c r="F269" s="3"/>
-      <c r="G269" s="18"/>
+      <c r="G269" s="19"/>
       <c r="H269" s="3"/>
     </row>
     <row r="270" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -8626,7 +8820,7 @@
         <v>3</v>
       </c>
       <c r="F270" s="3"/>
-      <c r="G270" s="18"/>
+      <c r="G270" s="19"/>
       <c r="H270" s="3"/>
     </row>
     <row r="271" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -8642,7 +8836,7 @@
         <v>3</v>
       </c>
       <c r="F271" s="3"/>
-      <c r="G271" s="18"/>
+      <c r="G271" s="19"/>
       <c r="H271" s="3"/>
     </row>
     <row r="272" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -8658,7 +8852,7 @@
         <v>3</v>
       </c>
       <c r="F272" s="3"/>
-      <c r="G272" s="18"/>
+      <c r="G272" s="19"/>
       <c r="H272" s="3"/>
     </row>
     <row r="273" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -8670,7 +8864,7 @@
         <v>3</v>
       </c>
       <c r="F273" s="3"/>
-      <c r="G273" s="18"/>
+      <c r="G273" s="19"/>
       <c r="H273" s="3"/>
     </row>
     <row r="274" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -8688,7 +8882,7 @@
         <v>3</v>
       </c>
       <c r="F274" s="3"/>
-      <c r="G274" s="18"/>
+      <c r="G274" s="19"/>
       <c r="H274" s="3"/>
     </row>
     <row r="275" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -8704,7 +8898,7 @@
         <v>3</v>
       </c>
       <c r="F275" s="3"/>
-      <c r="G275" s="18"/>
+      <c r="G275" s="19"/>
       <c r="H275" s="3"/>
     </row>
     <row r="276" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -8720,7 +8914,7 @@
         <v>3</v>
       </c>
       <c r="F276" s="3"/>
-      <c r="G276" s="18"/>
+      <c r="G276" s="19"/>
       <c r="H276" s="3"/>
     </row>
     <row r="277" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -8736,7 +8930,7 @@
         <v>3</v>
       </c>
       <c r="F277" s="3"/>
-      <c r="G277" s="18"/>
+      <c r="G277" s="19"/>
       <c r="H277" s="3"/>
     </row>
     <row r="278" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -8752,7 +8946,7 @@
         <v>3</v>
       </c>
       <c r="F278" s="3"/>
-      <c r="G278" s="18"/>
+      <c r="G278" s="19"/>
       <c r="H278" s="3"/>
     </row>
     <row r="279" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -8768,7 +8962,7 @@
         <v>3</v>
       </c>
       <c r="F279" s="3"/>
-      <c r="G279" s="18"/>
+      <c r="G279" s="19"/>
       <c r="H279" s="3"/>
     </row>
     <row r="280" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -8784,7 +8978,7 @@
         <v>3</v>
       </c>
       <c r="F280" s="3"/>
-      <c r="G280" s="18"/>
+      <c r="G280" s="19"/>
       <c r="H280" s="3"/>
     </row>
     <row r="281" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -8796,7 +8990,7 @@
         <v>3</v>
       </c>
       <c r="F281" s="3"/>
-      <c r="G281" s="18"/>
+      <c r="G281" s="19"/>
       <c r="H281" s="3"/>
     </row>
     <row r="282" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -8814,7 +9008,7 @@
         <v>3</v>
       </c>
       <c r="F282" s="3"/>
-      <c r="G282" s="18"/>
+      <c r="G282" s="19"/>
       <c r="H282" s="3"/>
     </row>
     <row r="283" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -8830,7 +9024,7 @@
         <v>3</v>
       </c>
       <c r="F283" s="3"/>
-      <c r="G283" s="18"/>
+      <c r="G283" s="19"/>
       <c r="H283" s="3"/>
     </row>
     <row r="284" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -8846,7 +9040,7 @@
         <v>3</v>
       </c>
       <c r="F284" s="3"/>
-      <c r="G284" s="18"/>
+      <c r="G284" s="19"/>
       <c r="H284" s="3"/>
     </row>
     <row r="285" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -8862,7 +9056,7 @@
         <v>3</v>
       </c>
       <c r="F285" s="3"/>
-      <c r="G285" s="18"/>
+      <c r="G285" s="19"/>
       <c r="H285" s="3"/>
     </row>
     <row r="286" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -8878,7 +9072,7 @@
         <v>3</v>
       </c>
       <c r="F286" s="3"/>
-      <c r="G286" s="18"/>
+      <c r="G286" s="19"/>
       <c r="H286" s="3"/>
     </row>
     <row r="287" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -8894,7 +9088,7 @@
         <v>3</v>
       </c>
       <c r="F287" s="3"/>
-      <c r="G287" s="18"/>
+      <c r="G287" s="19"/>
       <c r="H287" s="3"/>
     </row>
     <row r="288" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -8910,7 +9104,7 @@
         <v>3</v>
       </c>
       <c r="F288" s="3"/>
-      <c r="G288" s="18"/>
+      <c r="G288" s="19"/>
       <c r="H288" s="3"/>
     </row>
     <row r="289" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -8922,7 +9116,7 @@
         <v>3</v>
       </c>
       <c r="F289" s="3"/>
-      <c r="G289" s="18"/>
+      <c r="G289" s="19"/>
       <c r="H289" s="3"/>
     </row>
     <row r="290" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -8940,7 +9134,7 @@
         <v>3</v>
       </c>
       <c r="F290" s="3"/>
-      <c r="G290" s="18"/>
+      <c r="G290" s="19"/>
       <c r="H290" s="3"/>
     </row>
     <row r="291" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -8956,7 +9150,7 @@
         <v>3</v>
       </c>
       <c r="F291" s="3"/>
-      <c r="G291" s="18"/>
+      <c r="G291" s="19"/>
       <c r="H291" s="3"/>
     </row>
     <row r="292" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -8972,7 +9166,7 @@
         <v>3</v>
       </c>
       <c r="F292" s="3"/>
-      <c r="G292" s="18"/>
+      <c r="G292" s="19"/>
       <c r="H292" s="3"/>
     </row>
     <row r="293" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -8988,7 +9182,7 @@
         <v>3</v>
       </c>
       <c r="F293" s="3"/>
-      <c r="G293" s="18"/>
+      <c r="G293" s="19"/>
       <c r="H293" s="3"/>
     </row>
     <row r="294" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -9004,7 +9198,7 @@
         <v>3</v>
       </c>
       <c r="F294" s="3"/>
-      <c r="G294" s="18"/>
+      <c r="G294" s="19"/>
       <c r="H294" s="3"/>
     </row>
     <row r="295" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -9020,7 +9214,7 @@
         <v>3</v>
       </c>
       <c r="F295" s="3"/>
-      <c r="G295" s="18"/>
+      <c r="G295" s="19"/>
       <c r="H295" s="3"/>
     </row>
     <row r="296" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -9036,7 +9230,7 @@
         <v>3</v>
       </c>
       <c r="F296" s="3"/>
-      <c r="G296" s="18"/>
+      <c r="G296" s="19"/>
       <c r="H296" s="3"/>
     </row>
     <row r="297" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -9052,7 +9246,7 @@
         <v>3</v>
       </c>
       <c r="F297" s="3"/>
-      <c r="G297" s="18"/>
+      <c r="G297" s="19"/>
       <c r="H297" s="3"/>
     </row>
     <row r="298" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -9068,7 +9262,7 @@
         <v>3</v>
       </c>
       <c r="F298" s="3"/>
-      <c r="G298" s="18"/>
+      <c r="G298" s="19"/>
       <c r="H298" s="3"/>
     </row>
     <row r="299" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -9084,7 +9278,7 @@
         <v>3</v>
       </c>
       <c r="F299" s="3"/>
-      <c r="G299" s="18"/>
+      <c r="G299" s="19"/>
       <c r="H299" s="3"/>
     </row>
     <row r="300" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -9096,7 +9290,7 @@
         <v>3</v>
       </c>
       <c r="F300" s="3"/>
-      <c r="G300" s="18"/>
+      <c r="G300" s="19"/>
       <c r="H300" s="3"/>
     </row>
     <row r="301" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -9114,7 +9308,7 @@
         <v>3</v>
       </c>
       <c r="F301" s="3"/>
-      <c r="G301" s="18"/>
+      <c r="G301" s="19"/>
       <c r="H301" s="3"/>
     </row>
     <row r="302" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -9130,7 +9324,7 @@
         <v>3</v>
       </c>
       <c r="F302" s="3"/>
-      <c r="G302" s="18"/>
+      <c r="G302" s="19"/>
       <c r="H302" s="3"/>
     </row>
     <row r="303" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -9146,7 +9340,7 @@
         <v>3</v>
       </c>
       <c r="F303" s="3"/>
-      <c r="G303" s="18"/>
+      <c r="G303" s="19"/>
       <c r="H303" s="3"/>
     </row>
     <row r="304" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -9162,7 +9356,7 @@
         <v>3</v>
       </c>
       <c r="F304" s="3"/>
-      <c r="G304" s="18"/>
+      <c r="G304" s="19"/>
       <c r="H304" s="3"/>
     </row>
     <row r="305" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -9178,7 +9372,7 @@
         <v>3</v>
       </c>
       <c r="F305" s="3"/>
-      <c r="G305" s="18"/>
+      <c r="G305" s="19"/>
       <c r="H305" s="3"/>
     </row>
     <row r="306" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -9194,7 +9388,7 @@
         <v>3</v>
       </c>
       <c r="F306" s="3"/>
-      <c r="G306" s="18"/>
+      <c r="G306" s="19"/>
       <c r="H306" s="3"/>
     </row>
     <row r="307" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -9206,7 +9400,7 @@
         <v>3</v>
       </c>
       <c r="F307" s="3"/>
-      <c r="G307" s="18"/>
+      <c r="G307" s="19"/>
       <c r="H307" s="3"/>
     </row>
     <row r="308" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -9224,7 +9418,7 @@
         <v>3</v>
       </c>
       <c r="F308" s="3"/>
-      <c r="G308" s="18"/>
+      <c r="G308" s="19"/>
       <c r="H308" s="3"/>
     </row>
     <row r="309" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -9240,7 +9434,7 @@
         <v>3</v>
       </c>
       <c r="F309" s="3"/>
-      <c r="G309" s="18"/>
+      <c r="G309" s="19"/>
       <c r="H309" s="3"/>
     </row>
     <row r="310" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -9256,7 +9450,7 @@
         <v>3</v>
       </c>
       <c r="F310" s="3"/>
-      <c r="G310" s="18"/>
+      <c r="G310" s="19"/>
       <c r="H310" s="3"/>
     </row>
     <row r="311" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -9272,7 +9466,7 @@
         <v>3</v>
       </c>
       <c r="F311" s="3"/>
-      <c r="G311" s="18"/>
+      <c r="G311" s="19"/>
       <c r="H311" s="3"/>
     </row>
     <row r="312" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -9288,7 +9482,7 @@
         <v>3</v>
       </c>
       <c r="F312" s="3"/>
-      <c r="G312" s="18"/>
+      <c r="G312" s="19"/>
       <c r="H312" s="3"/>
     </row>
     <row r="313" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -9304,7 +9498,7 @@
         <v>3</v>
       </c>
       <c r="F313" s="3"/>
-      <c r="G313" s="18"/>
+      <c r="G313" s="19"/>
       <c r="H313" s="3"/>
     </row>
     <row r="314" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -9320,7 +9514,7 @@
         <v>3</v>
       </c>
       <c r="F314" s="3"/>
-      <c r="G314" s="18"/>
+      <c r="G314" s="19"/>
       <c r="H314" s="3"/>
     </row>
     <row r="315" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -9336,7 +9530,7 @@
         <v>3</v>
       </c>
       <c r="F315" s="3"/>
-      <c r="G315" s="18"/>
+      <c r="G315" s="19"/>
       <c r="H315" s="3"/>
     </row>
     <row r="316" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -9352,7 +9546,7 @@
         <v>3</v>
       </c>
       <c r="F316" s="3"/>
-      <c r="G316" s="18"/>
+      <c r="G316" s="19"/>
       <c r="H316" s="3"/>
     </row>
     <row r="317" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -9368,7 +9562,7 @@
         <v>3</v>
       </c>
       <c r="F317" s="3"/>
-      <c r="G317" s="18"/>
+      <c r="G317" s="19"/>
       <c r="H317" s="3"/>
     </row>
     <row r="318" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -9384,7 +9578,7 @@
         <v>3</v>
       </c>
       <c r="F318" s="3"/>
-      <c r="G318" s="18"/>
+      <c r="G318" s="19"/>
       <c r="H318" s="3"/>
     </row>
     <row r="319" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -9400,7 +9594,7 @@
         <v>3</v>
       </c>
       <c r="F319" s="3"/>
-      <c r="G319" s="18"/>
+      <c r="G319" s="19"/>
       <c r="H319" s="3"/>
     </row>
     <row r="320" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -9416,7 +9610,7 @@
         <v>3</v>
       </c>
       <c r="F320" s="3"/>
-      <c r="G320" s="18"/>
+      <c r="G320" s="19"/>
       <c r="H320" s="3"/>
     </row>
     <row r="321" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -9432,7 +9626,7 @@
         <v>3</v>
       </c>
       <c r="F321" s="3"/>
-      <c r="G321" s="18"/>
+      <c r="G321" s="19"/>
       <c r="H321" s="3"/>
     </row>
     <row r="322" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -9448,7 +9642,7 @@
         <v>3</v>
       </c>
       <c r="F322" s="3"/>
-      <c r="G322" s="18"/>
+      <c r="G322" s="19"/>
       <c r="H322" s="3"/>
     </row>
     <row r="323" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -9464,7 +9658,7 @@
         <v>3</v>
       </c>
       <c r="F323" s="3"/>
-      <c r="G323" s="18"/>
+      <c r="G323" s="19"/>
       <c r="H323" s="3"/>
     </row>
     <row r="324" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -9480,7 +9674,7 @@
         <v>3</v>
       </c>
       <c r="F324" s="3"/>
-      <c r="G324" s="18"/>
+      <c r="G324" s="19"/>
       <c r="H324" s="3"/>
     </row>
     <row r="325" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -9496,7 +9690,7 @@
         <v>3</v>
       </c>
       <c r="F325" s="3"/>
-      <c r="G325" s="18"/>
+      <c r="G325" s="19"/>
       <c r="H325" s="3"/>
     </row>
     <row r="326" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -9512,7 +9706,7 @@
         <v>3</v>
       </c>
       <c r="F326" s="3"/>
-      <c r="G326" s="18"/>
+      <c r="G326" s="19"/>
       <c r="H326" s="3"/>
     </row>
     <row r="327" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -9528,7 +9722,7 @@
         <v>3</v>
       </c>
       <c r="F327" s="3"/>
-      <c r="G327" s="18"/>
+      <c r="G327" s="19"/>
       <c r="H327" s="3"/>
     </row>
     <row r="328" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -9544,7 +9738,7 @@
         <v>3</v>
       </c>
       <c r="F328" s="3"/>
-      <c r="G328" s="18"/>
+      <c r="G328" s="19"/>
       <c r="H328" s="3"/>
     </row>
     <row r="329" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -9560,7 +9754,7 @@
         <v>3</v>
       </c>
       <c r="F329" s="3"/>
-      <c r="G329" s="18"/>
+      <c r="G329" s="19"/>
       <c r="H329" s="3"/>
     </row>
     <row r="330" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -9576,7 +9770,7 @@
         <v>3</v>
       </c>
       <c r="F330" s="3"/>
-      <c r="G330" s="18"/>
+      <c r="G330" s="19"/>
       <c r="H330" s="3"/>
     </row>
     <row r="331" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -9592,7 +9786,7 @@
         <v>3</v>
       </c>
       <c r="F331" s="3"/>
-      <c r="G331" s="18"/>
+      <c r="G331" s="19"/>
       <c r="H331" s="3"/>
     </row>
     <row r="332" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -9608,7 +9802,7 @@
         <v>3</v>
       </c>
       <c r="F332" s="3"/>
-      <c r="G332" s="18"/>
+      <c r="G332" s="19"/>
       <c r="H332" s="3"/>
     </row>
     <row r="333" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -9624,7 +9818,7 @@
         <v>3</v>
       </c>
       <c r="F333" s="3"/>
-      <c r="G333" s="18"/>
+      <c r="G333" s="19"/>
       <c r="H333" s="3"/>
     </row>
     <row r="334" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -9640,7 +9834,7 @@
         <v>3</v>
       </c>
       <c r="F334" s="3"/>
-      <c r="G334" s="18"/>
+      <c r="G334" s="19"/>
       <c r="H334" s="3"/>
     </row>
     <row r="335" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -9656,7 +9850,7 @@
         <v>3</v>
       </c>
       <c r="F335" s="3"/>
-      <c r="G335" s="18"/>
+      <c r="G335" s="19"/>
       <c r="H335" s="3"/>
     </row>
     <row r="336" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -9672,7 +9866,7 @@
         <v>3</v>
       </c>
       <c r="F336" s="3"/>
-      <c r="G336" s="18"/>
+      <c r="G336" s="19"/>
       <c r="H336" s="3"/>
     </row>
     <row r="337" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -9688,7 +9882,7 @@
         <v>3</v>
       </c>
       <c r="F337" s="3"/>
-      <c r="G337" s="18"/>
+      <c r="G337" s="19"/>
       <c r="H337" s="3"/>
     </row>
     <row r="338" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -9704,7 +9898,7 @@
         <v>3</v>
       </c>
       <c r="F338" s="3"/>
-      <c r="G338" s="18"/>
+      <c r="G338" s="19"/>
       <c r="H338" s="3"/>
     </row>
     <row r="339" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -9716,7 +9910,7 @@
         <v>3</v>
       </c>
       <c r="F339" s="3"/>
-      <c r="G339" s="18"/>
+      <c r="G339" s="19"/>
       <c r="H339" s="3"/>
     </row>
     <row r="340" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -9734,7 +9928,7 @@
         <v>3</v>
       </c>
       <c r="F340" s="3"/>
-      <c r="G340" s="18"/>
+      <c r="G340" s="19"/>
       <c r="H340" s="3"/>
     </row>
     <row r="341" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -9750,7 +9944,7 @@
         <v>3</v>
       </c>
       <c r="F341" s="3"/>
-      <c r="G341" s="18"/>
+      <c r="G341" s="19"/>
       <c r="H341" s="3"/>
     </row>
     <row r="342" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -9766,7 +9960,7 @@
         <v>3</v>
       </c>
       <c r="F342" s="3"/>
-      <c r="G342" s="18"/>
+      <c r="G342" s="19"/>
       <c r="H342" s="3"/>
     </row>
     <row r="343" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -9782,7 +9976,7 @@
         <v>3</v>
       </c>
       <c r="F343" s="3"/>
-      <c r="G343" s="18"/>
+      <c r="G343" s="19"/>
       <c r="H343" s="3"/>
     </row>
     <row r="344" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -9798,7 +9992,7 @@
         <v>3</v>
       </c>
       <c r="F344" s="3"/>
-      <c r="G344" s="18"/>
+      <c r="G344" s="19"/>
       <c r="H344" s="3"/>
     </row>
     <row r="345" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -9814,7 +10008,7 @@
         <v>3</v>
       </c>
       <c r="F345" s="3"/>
-      <c r="G345" s="18"/>
+      <c r="G345" s="19"/>
       <c r="H345" s="3"/>
     </row>
     <row r="346" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -9830,7 +10024,7 @@
         <v>3</v>
       </c>
       <c r="F346" s="3"/>
-      <c r="G346" s="18"/>
+      <c r="G346" s="19"/>
       <c r="H346" s="3"/>
     </row>
     <row r="347" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -9846,7 +10040,7 @@
         <v>3</v>
       </c>
       <c r="F347" s="3"/>
-      <c r="G347" s="18"/>
+      <c r="G347" s="19"/>
       <c r="H347" s="3"/>
     </row>
     <row r="348" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -9862,7 +10056,7 @@
         <v>3</v>
       </c>
       <c r="F348" s="3"/>
-      <c r="G348" s="18"/>
+      <c r="G348" s="19"/>
       <c r="H348" s="3"/>
     </row>
     <row r="349" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -9878,7 +10072,7 @@
         <v>3</v>
       </c>
       <c r="F349" s="3"/>
-      <c r="G349" s="18"/>
+      <c r="G349" s="19"/>
       <c r="H349" s="3"/>
     </row>
     <row r="350" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -9894,7 +10088,7 @@
         <v>3</v>
       </c>
       <c r="F350" s="3"/>
-      <c r="G350" s="18"/>
+      <c r="G350" s="19"/>
       <c r="H350" s="3"/>
     </row>
     <row r="351" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -9910,7 +10104,7 @@
         <v>3</v>
       </c>
       <c r="F351" s="3"/>
-      <c r="G351" s="18"/>
+      <c r="G351" s="19"/>
       <c r="H351" s="3"/>
     </row>
     <row r="352" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -9926,10 +10120,10 @@
         <v>3</v>
       </c>
       <c r="F352" s="3"/>
-      <c r="G352" s="18"/>
+      <c r="G352" s="19"/>
       <c r="H352" s="3"/>
     </row>
-    <row r="353" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+    <row r="353" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B353" s="10" t="s">
         <v>859</v>
       </c>
@@ -9940,9 +10134,10 @@
       <c r="E353" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G353" s="18"/>
-    </row>
-    <row r="354" spans="2:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G353" s="19"/>
+      <c r="H353" s="3"/>
+    </row>
+    <row r="354" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B354" s="10" t="s">
         <v>860</v>
       </c>
@@ -9953,9 +10148,10 @@
       <c r="E354" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G354" s="18"/>
-    </row>
-    <row r="355" spans="2:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G354" s="19"/>
+      <c r="H354" s="3"/>
+    </row>
+    <row r="355" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B355" s="10" t="s">
         <v>861</v>
       </c>
@@ -9966,9 +10162,10 @@
       <c r="E355" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G355" s="18"/>
-    </row>
-    <row r="356" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="G355" s="19"/>
+      <c r="H355" s="3"/>
+    </row>
+    <row r="356" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B356" s="10" t="s">
         <v>862</v>
       </c>
@@ -9979,9 +10176,10 @@
       <c r="E356" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G356" s="18"/>
-    </row>
-    <row r="357" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="G356" s="19"/>
+      <c r="H356" s="3"/>
+    </row>
+    <row r="357" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B357" s="10" t="s">
         <v>863</v>
       </c>
@@ -9992,9 +10190,10 @@
       <c r="E357" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G357" s="18"/>
-    </row>
-    <row r="358" spans="2:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G357" s="19"/>
+      <c r="H357" s="3"/>
+    </row>
+    <row r="358" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B358" s="10" t="s">
         <v>864</v>
       </c>
@@ -10005,9 +10204,10 @@
       <c r="E358" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G358" s="18"/>
-    </row>
-    <row r="359" spans="2:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G358" s="19"/>
+      <c r="H358" s="3"/>
+    </row>
+    <row r="359" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B359" s="10" t="s">
         <v>865</v>
       </c>
@@ -10018,9 +10218,10 @@
       <c r="E359" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G359" s="18"/>
-    </row>
-    <row r="360" spans="2:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G359" s="19"/>
+      <c r="H359" s="3"/>
+    </row>
+    <row r="360" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B360" s="10" t="s">
         <v>866</v>
       </c>
@@ -10031,18 +10232,20 @@
       <c r="E360" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G360" s="18"/>
-    </row>
-    <row r="361" spans="2:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="G360" s="19"/>
+      <c r="H360" s="3"/>
+    </row>
+    <row r="361" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B361" s="3"/>
       <c r="C361" s="3"/>
       <c r="D361" s="3"/>
       <c r="E361" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G361" s="18"/>
-    </row>
-    <row r="362" spans="2:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G361" s="19"/>
+      <c r="H361" s="3"/>
+    </row>
+    <row r="362" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B362" s="3" t="s">
         <v>867</v>
       </c>
@@ -10055,18 +10258,20 @@
       <c r="E362" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G362" s="18"/>
-    </row>
-    <row r="363" spans="2:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="G362" s="19"/>
+      <c r="H362" s="3"/>
+    </row>
+    <row r="363" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B363" s="3"/>
       <c r="C363" s="3"/>
       <c r="D363" s="3"/>
       <c r="E363" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G363" s="18"/>
-    </row>
-    <row r="364" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="G363" s="19"/>
+      <c r="H363" s="3"/>
+    </row>
+    <row r="364" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B364" s="3" t="s">
         <v>868</v>
       </c>
@@ -10079,9 +10284,10 @@
       <c r="E364" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G364" s="18"/>
-    </row>
-    <row r="365" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="G364" s="19"/>
+      <c r="H364" s="3"/>
+    </row>
+    <row r="365" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B365" s="3" t="s">
         <v>869</v>
       </c>
@@ -10092,9 +10298,10 @@
       <c r="E365" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G365" s="18"/>
-    </row>
-    <row r="366" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="G365" s="19"/>
+      <c r="H365" s="3"/>
+    </row>
+    <row r="366" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B366" s="3" t="s">
         <v>870</v>
       </c>
@@ -10105,9 +10312,10 @@
       <c r="E366" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G366" s="18"/>
-    </row>
-    <row r="367" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="G366" s="19"/>
+      <c r="H366" s="3"/>
+    </row>
+    <row r="367" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B367" s="3" t="s">
         <v>871</v>
       </c>
@@ -10118,9 +10326,10 @@
       <c r="E367" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G367" s="18"/>
-    </row>
-    <row r="368" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="G367" s="19"/>
+      <c r="H367" s="3"/>
+    </row>
+    <row r="368" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B368" s="3" t="s">
         <v>872</v>
       </c>
@@ -10131,18 +10340,20 @@
       <c r="E368" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G368" s="18"/>
-    </row>
-    <row r="369" spans="2:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="G368" s="19"/>
+      <c r="H368" s="3"/>
+    </row>
+    <row r="369" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B369" s="3"/>
       <c r="C369" s="3"/>
       <c r="D369" s="3"/>
       <c r="E369" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G369" s="18"/>
-    </row>
-    <row r="370" spans="2:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G369" s="19"/>
+      <c r="H369" s="3"/>
+    </row>
+    <row r="370" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B370" s="12" t="s">
         <v>873</v>
       </c>
@@ -10155,9 +10366,10 @@
       <c r="E370" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G370" s="18"/>
-    </row>
-    <row r="371" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="G370" s="19"/>
+      <c r="H370" s="3"/>
+    </row>
+    <row r="371" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B371" s="12" t="s">
         <v>874</v>
       </c>
@@ -10168,9 +10380,10 @@
       <c r="E371" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G371" s="18"/>
-    </row>
-    <row r="372" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="G371" s="19"/>
+      <c r="H371" s="3"/>
+    </row>
+    <row r="372" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B372" s="13" t="s">
         <v>875</v>
       </c>
@@ -10181,9 +10394,10 @@
       <c r="E372" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G372" s="18"/>
-    </row>
-    <row r="373" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="G372" s="19"/>
+      <c r="H372" s="3"/>
+    </row>
+    <row r="373" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B373" s="11" t="s">
         <v>876</v>
       </c>
@@ -10194,18 +10408,20 @@
       <c r="E373" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G373" s="18"/>
-    </row>
-    <row r="374" spans="2:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="G373" s="19"/>
+      <c r="H373" s="3"/>
+    </row>
+    <row r="374" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B374" s="13"/>
       <c r="C374" s="3"/>
       <c r="D374" s="3"/>
       <c r="E374" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G374" s="18"/>
-    </row>
-    <row r="375" spans="2:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G374" s="19"/>
+      <c r="H374" s="3"/>
+    </row>
+    <row r="375" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B375" s="12" t="s">
         <v>877</v>
       </c>
@@ -10218,9 +10434,10 @@
       <c r="E375" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G375" s="18"/>
-    </row>
-    <row r="376" spans="2:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G375" s="19"/>
+      <c r="H375" s="3"/>
+    </row>
+    <row r="376" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B376" s="11" t="s">
         <v>878</v>
       </c>
@@ -10231,9 +10448,10 @@
       <c r="E376" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G376" s="18"/>
-    </row>
-    <row r="377" spans="2:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G376" s="19"/>
+      <c r="H376" s="3"/>
+    </row>
+    <row r="377" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B377" s="12" t="s">
         <v>879</v>
       </c>
@@ -10244,9 +10462,10 @@
       <c r="E377" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G377" s="18"/>
-    </row>
-    <row r="378" spans="2:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G377" s="19"/>
+      <c r="H377" s="3"/>
+    </row>
+    <row r="378" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B378" s="13" t="s">
         <v>880</v>
       </c>
@@ -10257,9 +10476,10 @@
       <c r="E378" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G378" s="18"/>
-    </row>
-    <row r="379" spans="2:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G378" s="19"/>
+      <c r="H378" s="3"/>
+    </row>
+    <row r="379" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B379" s="12" t="s">
         <v>881</v>
       </c>
@@ -10270,9 +10490,10 @@
       <c r="E379" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G379" s="18"/>
-    </row>
-    <row r="380" spans="2:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G379" s="19"/>
+      <c r="H379" s="3"/>
+    </row>
+    <row r="380" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B380" s="11" t="s">
         <v>882</v>
       </c>
@@ -10283,9 +10504,10 @@
       <c r="E380" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G380" s="18"/>
-    </row>
-    <row r="381" spans="2:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G380" s="19"/>
+      <c r="H380" s="3"/>
+    </row>
+    <row r="381" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B381" s="11" t="s">
         <v>883</v>
       </c>
@@ -10296,9 +10518,10 @@
       <c r="E381" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G381" s="18"/>
-    </row>
-    <row r="382" spans="2:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G381" s="19"/>
+      <c r="H381" s="3"/>
+    </row>
+    <row r="382" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B382" s="11" t="s">
         <v>884</v>
       </c>
@@ -10309,9 +10532,10 @@
       <c r="E382" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G382" s="18"/>
-    </row>
-    <row r="383" spans="2:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G382" s="19"/>
+      <c r="H382" s="3"/>
+    </row>
+    <row r="383" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B383" s="12" t="s">
         <v>885</v>
       </c>
@@ -10322,9 +10546,10 @@
       <c r="E383" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G383" s="18"/>
-    </row>
-    <row r="384" spans="2:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G383" s="19"/>
+      <c r="H383" s="3"/>
+    </row>
+    <row r="384" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B384" s="13" t="s">
         <v>886</v>
       </c>
@@ -10335,9 +10560,10 @@
       <c r="E384" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G384" s="18"/>
-    </row>
-    <row r="385" spans="2:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G384" s="19"/>
+      <c r="H384" s="3"/>
+    </row>
+    <row r="385" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B385" s="12" t="s">
         <v>887</v>
       </c>
@@ -10348,9 +10574,10 @@
       <c r="E385" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G385" s="18"/>
-    </row>
-    <row r="386" spans="2:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G385" s="19"/>
+      <c r="H385" s="3"/>
+    </row>
+    <row r="386" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B386" s="13" t="s">
         <v>888</v>
       </c>
@@ -10361,9 +10588,10 @@
       <c r="E386" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G386" s="18"/>
-    </row>
-    <row r="387" spans="2:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G386" s="19"/>
+      <c r="H386" s="3"/>
+    </row>
+    <row r="387" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B387" s="12" t="s">
         <v>889</v>
       </c>
@@ -10374,9 +10602,10 @@
       <c r="E387" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G387" s="18"/>
-    </row>
-    <row r="388" spans="2:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G387" s="19"/>
+      <c r="H387" s="3"/>
+    </row>
+    <row r="388" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B388" s="13" t="s">
         <v>890</v>
       </c>
@@ -10387,9 +10616,10 @@
       <c r="E388" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G388" s="18"/>
-    </row>
-    <row r="389" spans="2:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G388" s="19"/>
+      <c r="H388" s="3"/>
+    </row>
+    <row r="389" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B389" s="12" t="s">
         <v>891</v>
       </c>
@@ -10400,9 +10630,10 @@
       <c r="E389" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G389" s="18"/>
-    </row>
-    <row r="390" spans="2:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G389" s="19"/>
+      <c r="H389" s="3"/>
+    </row>
+    <row r="390" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B390" s="13" t="s">
         <v>892</v>
       </c>
@@ -10413,9 +10644,10 @@
       <c r="E390" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G390" s="18"/>
-    </row>
-    <row r="391" spans="2:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G390" s="19"/>
+      <c r="H390" s="3"/>
+    </row>
+    <row r="391" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B391" s="12" t="s">
         <v>893</v>
       </c>
@@ -10426,9 +10658,10 @@
       <c r="E391" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G391" s="18"/>
-    </row>
-    <row r="392" spans="2:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G391" s="19"/>
+      <c r="H391" s="3"/>
+    </row>
+    <row r="392" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B392" s="11" t="s">
         <v>894</v>
       </c>
@@ -10439,9 +10672,10 @@
       <c r="E392" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G392" s="18"/>
-    </row>
-    <row r="393" spans="2:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G392" s="19"/>
+      <c r="H392" s="3"/>
+    </row>
+    <row r="393" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B393" s="11" t="s">
         <v>895</v>
       </c>
@@ -10452,9 +10686,10 @@
       <c r="E393" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G393" s="18"/>
-    </row>
-    <row r="394" spans="2:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G393" s="19"/>
+      <c r="H393" s="3"/>
+    </row>
+    <row r="394" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B394" s="11" t="s">
         <v>896</v>
       </c>
@@ -10465,9 +10700,10 @@
       <c r="E394" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G394" s="18"/>
-    </row>
-    <row r="395" spans="2:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G394" s="19"/>
+      <c r="H394" s="3"/>
+    </row>
+    <row r="395" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B395" s="12" t="s">
         <v>897</v>
       </c>
@@ -10478,9 +10714,10 @@
       <c r="E395" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G395" s="18"/>
-    </row>
-    <row r="396" spans="2:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G395" s="19"/>
+      <c r="H395" s="3"/>
+    </row>
+    <row r="396" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B396" s="13" t="s">
         <v>898</v>
       </c>
@@ -10491,9 +10728,10 @@
       <c r="E396" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G396" s="18"/>
-    </row>
-    <row r="397" spans="2:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G396" s="19"/>
+      <c r="H396" s="3"/>
+    </row>
+    <row r="397" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B397" s="12" t="s">
         <v>899</v>
       </c>
@@ -10504,9 +10742,10 @@
       <c r="E397" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G397" s="18"/>
-    </row>
-    <row r="398" spans="2:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G397" s="19"/>
+      <c r="H397" s="3"/>
+    </row>
+    <row r="398" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B398" s="13" t="s">
         <v>900</v>
       </c>
@@ -10517,9 +10756,10 @@
       <c r="E398" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G398" s="18"/>
-    </row>
-    <row r="399" spans="2:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G398" s="19"/>
+      <c r="H398" s="3"/>
+    </row>
+    <row r="399" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B399" s="12" t="s">
         <v>901</v>
       </c>
@@ -10530,9 +10770,10 @@
       <c r="E399" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G399" s="18"/>
-    </row>
-    <row r="400" spans="2:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G399" s="19"/>
+      <c r="H399" s="3"/>
+    </row>
+    <row r="400" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B400" s="13" t="s">
         <v>902</v>
       </c>
@@ -10543,9 +10784,10 @@
       <c r="E400" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G400" s="18"/>
-    </row>
-    <row r="401" spans="2:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G400" s="19"/>
+      <c r="H400" s="3"/>
+    </row>
+    <row r="401" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B401" s="12" t="s">
         <v>903</v>
       </c>
@@ -10556,9 +10798,10 @@
       <c r="E401" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G401" s="18"/>
-    </row>
-    <row r="402" spans="2:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G401" s="19"/>
+      <c r="H401" s="3"/>
+    </row>
+    <row r="402" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B402" s="13" t="s">
         <v>904</v>
       </c>
@@ -10569,9 +10812,10 @@
       <c r="E402" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G402" s="18"/>
-    </row>
-    <row r="403" spans="2:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G402" s="19"/>
+      <c r="H402" s="3"/>
+    </row>
+    <row r="403" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B403" s="12" t="s">
         <v>905</v>
       </c>
@@ -10582,9 +10826,10 @@
       <c r="E403" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G403" s="18"/>
-    </row>
-    <row r="404" spans="2:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G403" s="19"/>
+      <c r="H403" s="3"/>
+    </row>
+    <row r="404" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B404" s="13" t="s">
         <v>906</v>
       </c>
@@ -10595,9 +10840,10 @@
       <c r="E404" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G404" s="18"/>
-    </row>
-    <row r="405" spans="2:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G404" s="19"/>
+      <c r="H404" s="3"/>
+    </row>
+    <row r="405" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B405" s="12" t="s">
         <v>907</v>
       </c>
@@ -10608,9 +10854,10 @@
       <c r="E405" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G405" s="18"/>
-    </row>
-    <row r="406" spans="2:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G405" s="19"/>
+      <c r="H405" s="3"/>
+    </row>
+    <row r="406" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B406" s="13" t="s">
         <v>908</v>
       </c>
@@ -10621,9 +10868,10 @@
       <c r="E406" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G406" s="18"/>
-    </row>
-    <row r="407" spans="2:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G406" s="19"/>
+      <c r="H406" s="3"/>
+    </row>
+    <row r="407" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B407" s="12" t="s">
         <v>909</v>
       </c>
@@ -10634,9 +10882,10 @@
       <c r="E407" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G407" s="18"/>
-    </row>
-    <row r="408" spans="2:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G407" s="19"/>
+      <c r="H407" s="3"/>
+    </row>
+    <row r="408" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B408" s="13" t="s">
         <v>910</v>
       </c>
@@ -10647,18 +10896,20 @@
       <c r="E408" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G408" s="18"/>
-    </row>
-    <row r="409" spans="2:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="G408" s="19"/>
+      <c r="H408" s="3"/>
+    </row>
+    <row r="409" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B409" s="12"/>
       <c r="C409" s="3"/>
       <c r="D409" s="3"/>
       <c r="E409" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G409" s="18"/>
-    </row>
-    <row r="410" spans="2:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G409" s="19"/>
+      <c r="H409" s="3"/>
+    </row>
+    <row r="410" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B410" s="12" t="s">
         <v>911</v>
       </c>
@@ -10671,9 +10922,10 @@
       <c r="E410" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G410" s="18"/>
-    </row>
-    <row r="411" spans="2:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G410" s="19"/>
+      <c r="H410" s="3"/>
+    </row>
+    <row r="411" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B411" s="13" t="s">
         <v>912</v>
       </c>
@@ -10684,9 +10936,10 @@
       <c r="E411" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G411" s="18"/>
-    </row>
-    <row r="412" spans="2:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G411" s="19"/>
+      <c r="H411" s="3"/>
+    </row>
+    <row r="412" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B412" s="12" t="s">
         <v>913</v>
       </c>
@@ -10697,9 +10950,10 @@
       <c r="E412" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G412" s="18"/>
-    </row>
-    <row r="413" spans="2:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G412" s="19"/>
+      <c r="H412" s="3"/>
+    </row>
+    <row r="413" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B413" s="13" t="s">
         <v>914</v>
       </c>
@@ -10710,9 +10964,10 @@
       <c r="E413" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G413" s="18"/>
-    </row>
-    <row r="414" spans="2:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G413" s="19"/>
+      <c r="H413" s="3"/>
+    </row>
+    <row r="414" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B414" s="12" t="s">
         <v>915</v>
       </c>
@@ -10723,9 +10978,10 @@
       <c r="E414" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G414" s="18"/>
-    </row>
-    <row r="415" spans="2:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G414" s="19"/>
+      <c r="H414" s="3"/>
+    </row>
+    <row r="415" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B415" s="13" t="s">
         <v>916</v>
       </c>
@@ -10736,9 +10992,10 @@
       <c r="E415" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G415" s="18"/>
-    </row>
-    <row r="416" spans="2:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G415" s="19"/>
+      <c r="H415" s="3"/>
+    </row>
+    <row r="416" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B416" s="12" t="s">
         <v>917</v>
       </c>
@@ -10749,18 +11006,20 @@
       <c r="E416" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G416" s="18"/>
-    </row>
-    <row r="417" spans="2:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="G416" s="19"/>
+      <c r="H416" s="3"/>
+    </row>
+    <row r="417" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B417" s="12"/>
       <c r="C417" s="3"/>
       <c r="D417" s="3"/>
       <c r="E417" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G417" s="18"/>
-    </row>
-    <row r="418" spans="2:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G417" s="19"/>
+      <c r="H417" s="3"/>
+    </row>
+    <row r="418" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B418" s="12" t="s">
         <v>918</v>
       </c>
@@ -10773,9 +11032,10 @@
       <c r="E418" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G418" s="18"/>
-    </row>
-    <row r="419" spans="2:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G418" s="19"/>
+      <c r="H418" s="3"/>
+    </row>
+    <row r="419" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B419" s="13" t="s">
         <v>919</v>
       </c>
@@ -10786,18 +11046,20 @@
       <c r="E419" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G419" s="18"/>
-    </row>
-    <row r="420" spans="2:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="G419" s="19"/>
+      <c r="H419" s="3"/>
+    </row>
+    <row r="420" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B420" s="13"/>
       <c r="C420" s="3"/>
       <c r="D420" s="3"/>
       <c r="E420" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G420" s="18"/>
-    </row>
-    <row r="421" spans="2:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G420" s="19"/>
+      <c r="H420" s="3"/>
+    </row>
+    <row r="421" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B421" s="3" t="s">
         <v>920</v>
       </c>
@@ -10810,9 +11072,10 @@
       <c r="E421" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G421" s="18"/>
-    </row>
-    <row r="422" spans="2:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G421" s="19"/>
+      <c r="H421" s="3"/>
+    </row>
+    <row r="422" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B422" s="3" t="s">
         <v>921</v>
       </c>
@@ -10823,9 +11086,10 @@
       <c r="E422" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G422" s="18"/>
-    </row>
-    <row r="423" spans="2:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G422" s="19"/>
+      <c r="H422" s="3"/>
+    </row>
+    <row r="423" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B423" s="3" t="s">
         <v>922</v>
       </c>
@@ -10836,9 +11100,10 @@
       <c r="E423" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G423" s="18"/>
-    </row>
-    <row r="424" spans="2:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="G423" s="19"/>
+      <c r="H423" s="3"/>
+    </row>
+    <row r="424" spans="2:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B424" s="3" t="s">
         <v>923</v>
       </c>
@@ -10849,17 +11114,19 @@
       <c r="E424" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G424" s="18"/>
-    </row>
-    <row r="425" spans="2:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="G424" s="19"/>
+      <c r="H424" s="3"/>
+    </row>
+    <row r="425" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="C425" s="3"/>
       <c r="D425" s="3"/>
       <c r="E425" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G425" s="18"/>
-    </row>
-    <row r="426" spans="2:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G425" s="19"/>
+      <c r="H425" s="3"/>
+    </row>
+    <row r="426" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B426" s="3" t="s">
         <v>924</v>
       </c>
@@ -10872,9 +11139,10 @@
       <c r="E426" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G426" s="18"/>
-    </row>
-    <row r="427" spans="2:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G426" s="19"/>
+      <c r="H426" s="3"/>
+    </row>
+    <row r="427" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B427" s="3" t="s">
         <v>925</v>
       </c>
@@ -10885,9 +11153,10 @@
       <c r="E427" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G427" s="18"/>
-    </row>
-    <row r="428" spans="2:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G427" s="19"/>
+      <c r="H427" s="3"/>
+    </row>
+    <row r="428" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B428" s="3" t="s">
         <v>926</v>
       </c>
@@ -10898,9 +11167,10 @@
       <c r="E428" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G428" s="18"/>
-    </row>
-    <row r="429" spans="2:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G428" s="19"/>
+      <c r="H428" s="3"/>
+    </row>
+    <row r="429" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B429" s="3" t="s">
         <v>927</v>
       </c>
@@ -10911,9 +11181,10 @@
       <c r="E429" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G429" s="18"/>
-    </row>
-    <row r="430" spans="2:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G429" s="19"/>
+      <c r="H429" s="3"/>
+    </row>
+    <row r="430" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B430" s="3" t="s">
         <v>928</v>
       </c>
@@ -10924,9 +11195,10 @@
       <c r="E430" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G430" s="18"/>
-    </row>
-    <row r="431" spans="2:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G430" s="19"/>
+      <c r="H430" s="3"/>
+    </row>
+    <row r="431" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B431" s="3" t="s">
         <v>929</v>
       </c>
@@ -10937,9 +11209,10 @@
       <c r="E431" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G431" s="18"/>
-    </row>
-    <row r="432" spans="2:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G431" s="19"/>
+      <c r="H431" s="3"/>
+    </row>
+    <row r="432" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B432" s="3" t="s">
         <v>930</v>
       </c>
@@ -10950,9 +11223,10 @@
       <c r="E432" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G432" s="18"/>
-    </row>
-    <row r="433" spans="2:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G432" s="19"/>
+      <c r="H432" s="3"/>
+    </row>
+    <row r="433" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B433" s="3" t="s">
         <v>931</v>
       </c>
@@ -10963,9 +11237,10 @@
       <c r="E433" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G433" s="18"/>
-    </row>
-    <row r="434" spans="2:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G433" s="19"/>
+      <c r="H433" s="3"/>
+    </row>
+    <row r="434" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B434" s="3" t="s">
         <v>932</v>
       </c>
@@ -10976,17 +11251,19 @@
       <c r="E434" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G434" s="18"/>
-    </row>
-    <row r="435" spans="2:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="G434" s="19"/>
+      <c r="H434" s="3"/>
+    </row>
+    <row r="435" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="C435" s="3"/>
       <c r="D435" s="3"/>
       <c r="E435" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G435" s="18"/>
-    </row>
-    <row r="436" spans="2:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G435" s="19"/>
+      <c r="H435" s="3"/>
+    </row>
+    <row r="436" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B436" s="3" t="s">
         <v>933</v>
       </c>
@@ -10999,9 +11276,10 @@
       <c r="E436" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G436" s="18"/>
-    </row>
-    <row r="437" spans="2:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G436" s="19"/>
+      <c r="H436" s="3"/>
+    </row>
+    <row r="437" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B437" s="3" t="s">
         <v>934</v>
       </c>
@@ -11012,9 +11290,10 @@
       <c r="E437" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G437" s="18"/>
-    </row>
-    <row r="438" spans="2:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G437" s="19"/>
+      <c r="H437" s="3"/>
+    </row>
+    <row r="438" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B438" s="3" t="s">
         <v>935</v>
       </c>
@@ -11025,9 +11304,10 @@
       <c r="E438" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G438" s="18"/>
-    </row>
-    <row r="439" spans="2:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G438" s="19"/>
+      <c r="H438" s="3"/>
+    </row>
+    <row r="439" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B439" s="3" t="s">
         <v>936</v>
       </c>
@@ -11038,9 +11318,10 @@
       <c r="E439" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G439" s="18"/>
-    </row>
-    <row r="440" spans="2:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G439" s="19"/>
+      <c r="H439" s="3"/>
+    </row>
+    <row r="440" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B440" s="3" t="s">
         <v>937</v>
       </c>
@@ -11051,9 +11332,10 @@
       <c r="E440" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G440" s="18"/>
-    </row>
-    <row r="441" spans="2:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G440" s="19"/>
+      <c r="H440" s="3"/>
+    </row>
+    <row r="441" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B441" s="3" t="s">
         <v>938</v>
       </c>
@@ -11064,9 +11346,10 @@
       <c r="E441" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G441" s="18"/>
-    </row>
-    <row r="442" spans="2:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G441" s="19"/>
+      <c r="H441" s="3"/>
+    </row>
+    <row r="442" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B442" s="3" t="s">
         <v>939</v>
       </c>
@@ -11077,17 +11360,19 @@
       <c r="E442" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G442" s="18"/>
-    </row>
-    <row r="443" spans="2:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="G442" s="19"/>
+      <c r="H442" s="3"/>
+    </row>
+    <row r="443" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="C443" s="3"/>
       <c r="D443" s="3"/>
       <c r="E443" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G443" s="18"/>
-    </row>
-    <row r="444" spans="2:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G443" s="19"/>
+      <c r="H443" s="3"/>
+    </row>
+    <row r="444" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B444" s="3" t="s">
         <v>940</v>
       </c>
@@ -11100,9 +11385,10 @@
       <c r="E444" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G444" s="18"/>
-    </row>
-    <row r="445" spans="2:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G444" s="19"/>
+      <c r="H444" s="3"/>
+    </row>
+    <row r="445" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B445" s="3" t="s">
         <v>941</v>
       </c>
@@ -11113,9 +11399,10 @@
       <c r="E445" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G445" s="18"/>
-    </row>
-    <row r="446" spans="2:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G445" s="19"/>
+      <c r="H445" s="3"/>
+    </row>
+    <row r="446" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B446" s="3" t="s">
         <v>942</v>
       </c>
@@ -11126,9 +11413,10 @@
       <c r="E446" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G446" s="18"/>
-    </row>
-    <row r="447" spans="2:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G446" s="19"/>
+      <c r="H446" s="3"/>
+    </row>
+    <row r="447" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B447" s="3" t="s">
         <v>943</v>
       </c>
@@ -11139,9 +11427,10 @@
       <c r="E447" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G447" s="18"/>
-    </row>
-    <row r="448" spans="2:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G447" s="19"/>
+      <c r="H447" s="3"/>
+    </row>
+    <row r="448" spans="2:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B448" s="3" t="s">
         <v>944</v>
       </c>
@@ -11152,9 +11441,10 @@
       <c r="E448" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G448" s="18"/>
-    </row>
-    <row r="449" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="G448" s="19"/>
+      <c r="H448" s="3"/>
+    </row>
+    <row r="449" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="B449" s="3" t="s">
         <v>945</v>
       </c>
@@ -11165,17 +11455,19 @@
       <c r="E449" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G449" s="18"/>
-    </row>
-    <row r="450" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="G449" s="19"/>
+      <c r="H449" s="3"/>
+    </row>
+    <row r="450" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="C450" s="3"/>
       <c r="D450" s="3"/>
       <c r="E450" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G450" s="18"/>
-    </row>
-    <row r="451" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="G450" s="19"/>
+      <c r="H450" s="3"/>
+    </row>
+    <row r="451" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B451" s="3" t="s">
         <v>946</v>
       </c>
@@ -11188,9 +11480,10 @@
       <c r="E451" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G451" s="18"/>
-    </row>
-    <row r="452" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="G451" s="19"/>
+      <c r="H451" s="3"/>
+    </row>
+    <row r="452" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B452" s="3" t="s">
         <v>947</v>
       </c>
@@ -11201,9 +11494,10 @@
       <c r="E452" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G452" s="18"/>
-    </row>
-    <row r="453" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="G452" s="19"/>
+      <c r="H452" s="3"/>
+    </row>
+    <row r="453" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B453" s="3" t="s">
         <v>948</v>
       </c>
@@ -11214,9 +11508,10 @@
       <c r="E453" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G453" s="18"/>
-    </row>
-    <row r="454" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="G453" s="19"/>
+      <c r="H453" s="3"/>
+    </row>
+    <row r="454" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B454" s="3" t="s">
         <v>949</v>
       </c>
@@ -11227,9 +11522,10 @@
       <c r="E454" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G454" s="18"/>
-    </row>
-    <row r="455" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="G454" s="19"/>
+      <c r="H454" s="3"/>
+    </row>
+    <row r="455" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B455" s="3" t="s">
         <v>950</v>
       </c>
@@ -11240,9 +11536,10 @@
       <c r="E455" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G455" s="18"/>
-    </row>
-    <row r="456" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="G455" s="19"/>
+      <c r="H455" s="3"/>
+    </row>
+    <row r="456" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B456" s="3" t="s">
         <v>951</v>
       </c>
@@ -11253,9 +11550,10 @@
       <c r="E456" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G456" s="18"/>
-    </row>
-    <row r="457" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="G456" s="19"/>
+      <c r="H456" s="3"/>
+    </row>
+    <row r="457" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B457" s="3" t="s">
         <v>952</v>
       </c>
@@ -11266,9 +11564,10 @@
       <c r="E457" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G457" s="18"/>
-    </row>
-    <row r="458" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="G457" s="19"/>
+      <c r="H457" s="3"/>
+    </row>
+    <row r="458" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B458" s="3" t="s">
         <v>953</v>
       </c>
@@ -11279,9 +11578,10 @@
       <c r="E458" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G458" s="18"/>
-    </row>
-    <row r="459" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="G458" s="19"/>
+      <c r="H458" s="3"/>
+    </row>
+    <row r="459" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B459" s="3" t="s">
         <v>954</v>
       </c>
@@ -11292,9 +11592,10 @@
       <c r="E459" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G459" s="18"/>
-    </row>
-    <row r="460" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="G459" s="19"/>
+      <c r="H459" s="3"/>
+    </row>
+    <row r="460" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B460" s="3" t="s">
         <v>955</v>
       </c>
@@ -11305,9 +11606,10 @@
       <c r="E460" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G460" s="18"/>
-    </row>
-    <row r="461" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="G460" s="19"/>
+      <c r="H460" s="3"/>
+    </row>
+    <row r="461" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B461" s="3" t="s">
         <v>956</v>
       </c>
@@ -11318,9 +11620,10 @@
       <c r="E461" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G461" s="18"/>
-    </row>
-    <row r="462" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="G461" s="19"/>
+      <c r="H461" s="3"/>
+    </row>
+    <row r="462" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B462" s="3" t="s">
         <v>957</v>
       </c>
@@ -11331,9 +11634,10 @@
       <c r="E462" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G462" s="18"/>
-    </row>
-    <row r="463" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="G462" s="19"/>
+      <c r="H462" s="3"/>
+    </row>
+    <row r="463" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="B463" s="3" t="s">
         <v>958</v>
       </c>
@@ -11344,14 +11648,16 @@
       <c r="E463" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G463" s="18"/>
-    </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G463" s="19"/>
+      <c r="H463" s="3"/>
+    </row>
+    <row r="464" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A464" s="7"/>
       <c r="C464" s="3"/>
       <c r="D464" s="3"/>
       <c r="E464" s="3"/>
-      <c r="G464" s="18"/>
+      <c r="G464" s="19"/>
+      <c r="H464" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11362,11 +11668,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46AECB4A-6C5C-9741-AF02-AFE9E6A7004F}">
   <dimension ref="A1:H352"/>
   <sheetViews>
-    <sheetView zoomScale="68" workbookViewId="0">
+    <sheetView topLeftCell="A72" zoomScale="68" workbookViewId="0">
       <selection activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
@@ -13340,12 +13646,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A105A75E-6EEC-0744-B3A9-B34C57BF149F}">
   <dimension ref="A1:H352"/>
   <sheetViews>
-    <sheetView topLeftCell="A118" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
-      <selection activeCell="F118" sqref="F118"/>
+    <sheetView tabSelected="1" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+      <selection activeCell="G64" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -16484,12 +16790,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3213185-FE5E-B048-8E05-941F395BE506}">
   <dimension ref="A1:H352"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -17970,7 +18276,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{882A8BED-641E-B343-8390-6672332FF251}">
   <dimension ref="A1:C896"/>
   <sheetViews>

--- a/PECI Scenarios.xlsx
+++ b/PECI Scenarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sarahq/Documents/PECI-Survial-Kit/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6D48769-1D96-9242-AD70-C7C3B6A32359}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3EE51D-240D-5747-B293-62ADC30207B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{D7E23470-C107-7A4A-A7A7-876076D8D3A2}"/>
   </bookViews>
@@ -3150,21 +3150,12 @@
     <t>If so, how are you reporting them?</t>
   </si>
   <si>
-    <t>How is this picked up in the PECI XML</t>
-  </si>
-  <si>
     <t>Are you including Additional Info - Field Overrides?</t>
   </si>
   <si>
-    <t>If so, do you want to detect change on these?</t>
-  </si>
-  <si>
     <t>What External Earnings &amp; Deductions are you configuring?</t>
   </si>
   <si>
-    <t>Standard solution is built for:</t>
-  </si>
-  <si>
     <t xml:space="preserve">single payroll company </t>
   </si>
   <si>
@@ -3174,9 +3165,6 @@
     <t xml:space="preserve">doesn’t take into account recinds/corrections </t>
   </si>
   <si>
-    <t>(comment out non-used sections)</t>
-  </si>
-  <si>
     <t>CANNOT report contingent workers</t>
   </si>
   <si>
@@ -3460,6 +3448,18 @@
   </si>
   <si>
     <t>2, 25</t>
+  </si>
+  <si>
+    <t>Schedules for pay periods etc?</t>
+  </si>
+  <si>
+    <t>If so, do you want to detect change on these? How is this picked up in the PECI XML</t>
+  </si>
+  <si>
+    <t>Schedule for running int? Need an ad Hoc.</t>
+  </si>
+  <si>
+    <t>Standard solution is built for: (comment out non-used sections)</t>
   </si>
 </sst>
 </file>
@@ -3530,7 +3530,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3565,12 +3565,6 @@
       <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor theme="8"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -3779,15 +3773,60 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="49">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -4166,84 +4205,107 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{AEEACAD6-FC5E-E845-B216-708FE289A8E1}" name="Table246" displayName="Table246" ref="A1:C36" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{AEEACAD6-FC5E-E845-B216-708FE289A8E1}" name="Table246" displayName="Table246" ref="A1:C36" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47">
   <autoFilter ref="A1:C36" xr:uid="{C62B11F2-30AD-4F44-8B37-439AB39242FE}"/>
   <tableColumns count="3">
-    <tableColumn id="2" xr3:uid="{B8035267-A5C9-D846-8C70-68981CF127CD}" name="Scenario ID" dataDxfId="37"/>
-    <tableColumn id="1" xr3:uid="{02AA58C1-9D51-D743-9698-7EA1D385745A}" name="Scenario in Workday" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{C97150C8-B639-FD42-A835-99E77A1B7728}" name="Comments" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{B8035267-A5C9-D846-8C70-68981CF127CD}" name="Scenario ID" dataDxfId="46"/>
+    <tableColumn id="1" xr3:uid="{02AA58C1-9D51-D743-9698-7EA1D385745A}" name="Scenario in Workday" dataDxfId="45"/>
+    <tableColumn id="3" xr3:uid="{C97150C8-B639-FD42-A835-99E77A1B7728}" name="Comments" dataDxfId="44"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EB11BE35-6068-A841-ADBA-9CCFC5D21966}" name="Table1" displayName="Table1" ref="A2:I452" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
-  <autoFilter ref="A2:I452" xr:uid="{95F4FD0C-BCC8-014C-AF5E-F001095E21E9}">
-    <filterColumn colId="6">
-      <customFilters and="1">
-        <customFilter val="*2*"/>
-        <customFilter operator="notEqual" val="*25*"/>
-      </customFilters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{EB11BE35-6068-A841-ADBA-9CCFC5D21966}" name="Table1" displayName="Table1" ref="A2:I452" totalsRowShown="0" headerRowDxfId="43" dataDxfId="42">
+  <autoFilter ref="A2:I452" xr:uid="{95F4FD0C-BCC8-014C-AF5E-F001095E21E9}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{7B221E4A-9150-CD41-B4A4-48C24D603A26}" name="Data Section Field Change ID" dataDxfId="32"/>
-    <tableColumn id="2" xr3:uid="{EA95C00D-30E7-4B49-806C-306A315344EF}" name="What is the data changed?" dataDxfId="31"/>
-    <tableColumn id="3" xr3:uid="{F8E5B717-5CF4-B645-B9F9-65434CF9BCCA}" name="Data Section" dataDxfId="30"/>
-    <tableColumn id="4" xr3:uid="{23560262-A437-8F49-BBE0-E8D5BA6982D1}" name="Field " dataDxfId="29"/>
-    <tableColumn id="6" xr3:uid="{34A2F442-4F23-574B-9416-08C3C92AF14B}" name="Event Code" dataDxfId="28"/>
-    <tableColumn id="5" xr3:uid="{52D2A5E5-68DE-EF45-8514-1F4F121884CE}" name="Template" dataDxfId="27"/>
-    <tableColumn id="7" xr3:uid="{24190E7C-D625-C049-BA77-6448CD7FA1A1}" name="Affected by Scenario(s)" dataDxfId="26"/>
-    <tableColumn id="8" xr3:uid="{9AE620B8-EA90-474C-BD92-63AA010C2925}" name="Included" dataDxfId="25"/>
-    <tableColumn id="9" xr3:uid="{9DE1207A-77F3-5A4E-8E38-9B0C40F81147}" name="Dev Notes" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{7B221E4A-9150-CD41-B4A4-48C24D603A26}" name="Data Section Field Change ID" dataDxfId="41"/>
+    <tableColumn id="2" xr3:uid="{EA95C00D-30E7-4B49-806C-306A315344EF}" name="What is the data changed?" dataDxfId="40"/>
+    <tableColumn id="3" xr3:uid="{F8E5B717-5CF4-B645-B9F9-65434CF9BCCA}" name="Data Section" dataDxfId="39"/>
+    <tableColumn id="4" xr3:uid="{23560262-A437-8F49-BBE0-E8D5BA6982D1}" name="Field " dataDxfId="38"/>
+    <tableColumn id="6" xr3:uid="{34A2F442-4F23-574B-9416-08C3C92AF14B}" name="Event Code" dataDxfId="37"/>
+    <tableColumn id="5" xr3:uid="{52D2A5E5-68DE-EF45-8514-1F4F121884CE}" name="Template" dataDxfId="36"/>
+    <tableColumn id="7" xr3:uid="{24190E7C-D625-C049-BA77-6448CD7FA1A1}" name="Affected by Scenario(s)" dataDxfId="35"/>
+    <tableColumn id="8" xr3:uid="{9AE620B8-EA90-474C-BD92-63AA010C2925}" name="Included" dataDxfId="34"/>
+    <tableColumn id="9" xr3:uid="{9DE1207A-77F3-5A4E-8E38-9B0C40F81147}" name="Dev Notes" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{5EE56AD9-3F3F-E947-9FDA-421D84678841}" name="Table15" displayName="Table15" ref="A2:F108" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{5EE56AD9-3F3F-E947-9FDA-421D84678841}" name="Table15" displayName="Table15" ref="A2:F108" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
   <autoFilter ref="A2:F108" xr:uid="{95F4FD0C-BCC8-014C-AF5E-F001095E21E9}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{FB92B86E-4884-1045-AB40-F5EC842E195D}" name="Data Section Field Change ID" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{457D106B-94C0-A148-84C9-C555FC20E517}" name="What is the data changed?" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{C058C0CF-5D40-3B48-85DF-EA0ACDF0C8AF}" name="Data Section" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{8701CB69-4873-2A45-AE92-BAC503BA9DFE}" name="Field " dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{02D3BD36-9CF0-9C4D-A915-A14CB7484343}" name="Template" dataDxfId="18"/>
-    <tableColumn id="6" xr3:uid="{61A4FC8D-3500-4922-AC17-2C10C03ECB74}" name="Affected by Scenario" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{FB92B86E-4884-1045-AB40-F5EC842E195D}" name="Data Section Field Change ID" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{457D106B-94C0-A148-84C9-C555FC20E517}" name="What is the data changed?" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{C058C0CF-5D40-3B48-85DF-EA0ACDF0C8AF}" name="Data Section" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{8701CB69-4873-2A45-AE92-BAC503BA9DFE}" name="Field " dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{02D3BD36-9CF0-9C4D-A915-A14CB7484343}" name="Template" dataDxfId="27"/>
+    <tableColumn id="6" xr3:uid="{61A4FC8D-3500-4922-AC17-2C10C03ECB74}" name="Affected by Scenario" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{C0150F8D-1CE4-EB4F-9486-4AE42300F6D7}" name="Table158" displayName="Table158" ref="A2:F295" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{C0150F8D-1CE4-EB4F-9486-4AE42300F6D7}" name="Table158" displayName="Table158" ref="A2:F295" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
   <autoFilter ref="A2:F295" xr:uid="{95F4FD0C-BCC8-014C-AF5E-F001095E21E9}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{93C1305C-7D17-DA41-B4A8-DAAB9381BB43}" name="Scenario ID" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{2ABDCCB2-B42A-424F-83F4-23A482377C05}" name="Scenario" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{A4C38FF4-DD53-224E-ABD5-6CD346FD4977}" name="Data Section" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{345D1ABF-0A24-E248-AAA6-C11D05B2DE84}" name="Field " dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{206E03C7-B68A-6840-A335-6274BDE23A1D}" name="Event Code" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{5EB6FD02-3FB2-6F4E-BA9C-8220BA2C7D05}" name="Template" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{93C1305C-7D17-DA41-B4A8-DAAB9381BB43}" name="Scenario ID" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{2ABDCCB2-B42A-424F-83F4-23A482377C05}" name="Scenario" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{A4C38FF4-DD53-224E-ABD5-6CD346FD4977}" name="Data Section" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{345D1ABF-0A24-E248-AAA6-C11D05B2DE84}" name="Field " dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{206E03C7-B68A-6840-A335-6274BDE23A1D}" name="Event Code" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{5EB6FD02-3FB2-6F4E-BA9C-8220BA2C7D05}" name="Template" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B51EB98C-D68C-B740-8B7F-AFDD71932D69}" name="Table1589" displayName="Table1589" ref="A2:F33" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B51EB98C-D68C-B740-8B7F-AFDD71932D69}" name="Table1589" displayName="Table1589" ref="A2:F33" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="A2:F33" xr:uid="{95F4FD0C-BCC8-014C-AF5E-F001095E21E9}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{3E5F4910-41FA-8945-BF29-2A1FBD6FA702}" name="Scenario ID" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{124DF489-7890-BC40-A208-CDE4564C09DF}" name="Scenario" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{9D422243-5ABC-D349-A5C7-67D9C99F187D}" name="Data Section" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{74E338FF-666A-CF4A-B1F9-CE036D0EC057}" name="Field " dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{A9B0CC55-FD45-E54D-BB89-3D986AF6B89C}" name="Event Code" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{0D651197-1278-C844-9503-100F8D3E8406}" name="Template" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{3E5F4910-41FA-8945-BF29-2A1FBD6FA702}" name="Scenario ID" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{124DF489-7890-BC40-A208-CDE4564C09DF}" name="Scenario" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{9D422243-5ABC-D349-A5C7-67D9C99F187D}" name="Data Section" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{74E338FF-666A-CF4A-B1F9-CE036D0EC057}" name="Field " dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{A9B0CC55-FD45-E54D-BB89-3D986AF6B89C}" name="Event Code" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{0D651197-1278-C844-9503-100F8D3E8406}" name="Template" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FFD77A92-1664-C148-99D6-C645B386C30A}" name="Table3" displayName="Table3" ref="B21:B28" totalsRowShown="0" headerRowDxfId="6" dataDxfId="7">
+  <autoFilter ref="B21:B28" xr:uid="{23913264-02B0-1C48-B272-C63DA32456DF}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{3D8AD8F2-3F20-E34E-A556-7CD54ECA66FC}" name="Questions:" dataDxfId="8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{CDC8C40C-7B84-484C-8E6C-7C5DE9134178}" name="Table6" displayName="Table6" ref="B2:B7" totalsRowShown="0" headerRowDxfId="3" dataDxfId="4">
+  <autoFilter ref="B2:B7" xr:uid="{0C555EC8-21CF-BA44-B088-F7F51DF74232}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{5ECFA38C-A7A2-7C4A-B453-A2DE8B3FADD8}" name="Assumptions:" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{C2ADF416-A114-6B41-AF54-2B46C7870A55}" name="Table9" displayName="Table9" ref="G2:G8" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="G2:G8" xr:uid="{929A9F99-36C1-A847-9910-F9F9C8FAD6C8}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{29EDD103-9132-1E40-936B-550024EDBF73}" name="Notes on how effective stacks will cause issues" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -4613,7 +4675,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="C6" s="1"/>
     </row>
@@ -4667,7 +4729,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>1047</v>
+        <v>1043</v>
       </c>
       <c r="C12" s="1"/>
     </row>
@@ -4676,7 +4738,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="C13" s="1"/>
     </row>
@@ -4685,7 +4747,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="C14" s="1"/>
     </row>
@@ -4694,7 +4756,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="C15" s="1"/>
     </row>
@@ -4703,7 +4765,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="C16" s="1"/>
     </row>
@@ -4712,7 +4774,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="C17" s="1"/>
     </row>
@@ -4721,7 +4783,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="C18" s="1"/>
     </row>
@@ -4730,7 +4792,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="C19" s="1"/>
     </row>
@@ -4739,7 +4801,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="C20" s="1"/>
     </row>
@@ -4748,7 +4810,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="C21" s="1"/>
     </row>
@@ -4757,7 +4819,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>1058</v>
+        <v>1054</v>
       </c>
       <c r="C22" s="1"/>
     </row>
@@ -4766,7 +4828,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>1059</v>
+        <v>1055</v>
       </c>
       <c r="C23" s="1"/>
     </row>
@@ -4775,7 +4837,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>1060</v>
+        <v>1056</v>
       </c>
       <c r="C24" s="1"/>
       <c r="G24" s="15"/>
@@ -4785,7 +4847,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>1061</v>
+        <v>1057</v>
       </c>
       <c r="C25" s="1"/>
     </row>
@@ -4794,7 +4856,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>1062</v>
+        <v>1058</v>
       </c>
       <c r="C26" s="1"/>
     </row>
@@ -4803,7 +4865,7 @@
         <v>27</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="C27" s="1"/>
     </row>
@@ -4812,7 +4874,7 @@
         <v>28</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>1064</v>
+        <v>1060</v>
       </c>
       <c r="C28" s="1"/>
     </row>
@@ -4821,7 +4883,7 @@
         <v>29</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>1065</v>
+        <v>1061</v>
       </c>
       <c r="C29" s="1"/>
     </row>
@@ -4830,7 +4892,7 @@
         <v>30</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>1066</v>
+        <v>1062</v>
       </c>
       <c r="C30" s="1"/>
     </row>
@@ -4839,7 +4901,7 @@
         <v>31</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="C31" s="1"/>
     </row>
@@ -4848,7 +4910,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>1074</v>
+        <v>1070</v>
       </c>
       <c r="C32" s="1"/>
       <c r="E32" s="1"/>
@@ -4858,7 +4920,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="C33" s="1"/>
     </row>
@@ -4867,7 +4929,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>1073</v>
+        <v>1069</v>
       </c>
       <c r="C34" s="1"/>
     </row>
@@ -4876,7 +4938,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>1077</v>
+        <v>1073</v>
       </c>
       <c r="C35" s="1"/>
     </row>
@@ -4885,7 +4947,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>1082</v>
+        <v>1078</v>
       </c>
       <c r="C36" s="1"/>
     </row>
@@ -4954,10 +5016,10 @@
         <v>1031</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>1132</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -4982,7 +5044,7 @@
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
-    <row r="4" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -5001,7 +5063,7 @@
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -5026,7 +5088,7 @@
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
-    <row r="6" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -5048,7 +5110,7 @@
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
     </row>
-    <row r="7" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -5069,10 +5131,10 @@
       </c>
       <c r="H7" s="3"/>
       <c r="I7" s="3" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="68" hidden="1" x14ac:dyDescent="0.2">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -5093,10 +5155,10 @@
       </c>
       <c r="H8" s="3"/>
       <c r="I8" s="3" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -5116,7 +5178,7 @@
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
     </row>
-    <row r="10" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -5133,7 +5195,7 @@
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
     </row>
-    <row r="11" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -5156,7 +5218,7 @@
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -5173,7 +5235,7 @@
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
     </row>
-    <row r="13" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -5192,10 +5254,10 @@
       <c r="G13" s="18"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -5215,7 +5277,7 @@
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
     </row>
-    <row r="15" spans="1:9" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -5235,7 +5297,7 @@
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
     </row>
-    <row r="16" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -5252,7 +5314,7 @@
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -5269,7 +5331,7 @@
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
     </row>
-    <row r="18" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -5306,7 +5368,7 @@
         <v>950</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -5329,7 +5391,7 @@
         <v>618</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>1134</v>
+        <v>1130</v>
       </c>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
@@ -5352,7 +5414,7 @@
         <v>951</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>1133</v>
+        <v>1129</v>
       </c>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
@@ -5375,7 +5437,7 @@
         <v>957</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
@@ -5398,7 +5460,7 @@
         <v>960</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>1135</v>
+        <v>1131</v>
       </c>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
@@ -5421,7 +5483,7 @@
         <v>959</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>1136</v>
+        <v>1132</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
@@ -5441,12 +5503,12 @@
         <v>958</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
     </row>
-    <row r="26" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>533</v>
       </c>
@@ -5481,12 +5543,12 @@
         <v>962</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>1137</v>
+        <v>1133</v>
       </c>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
     </row>
-    <row r="28" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="s">
         <v>536</v>
       </c>
@@ -5501,12 +5563,12 @@
         <v>963</v>
       </c>
       <c r="G28" s="18" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
     </row>
-    <row r="29" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>537</v>
       </c>
@@ -5521,7 +5583,7 @@
         <v>964</v>
       </c>
       <c r="G29" s="18" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
@@ -5541,12 +5603,12 @@
         <v>965</v>
       </c>
       <c r="G30" s="18" t="s">
-        <v>1138</v>
+        <v>1134</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
     </row>
-    <row r="31" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>539</v>
       </c>
@@ -5566,7 +5628,7 @@
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
     </row>
-    <row r="32" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>540</v>
       </c>
@@ -5584,7 +5646,7 @@
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
     </row>
-    <row r="33" spans="2:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:9" ht="51" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
         <v>541</v>
       </c>
@@ -5602,7 +5664,7 @@
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
     </row>
-    <row r="34" spans="2:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:9" ht="34" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
         <v>542</v>
       </c>
@@ -5620,7 +5682,7 @@
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
     </row>
-    <row r="35" spans="2:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:9" ht="34" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
         <v>543</v>
       </c>
@@ -5638,7 +5700,7 @@
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
     </row>
-    <row r="36" spans="2:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:9" ht="51" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
         <v>544</v>
       </c>
@@ -5656,7 +5718,7 @@
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
     </row>
-    <row r="37" spans="2:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:9" ht="51" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>545</v>
       </c>
@@ -5674,7 +5736,7 @@
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
     </row>
-    <row r="38" spans="2:9" ht="32" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="1" t="s">
         <v>546</v>
       </c>
@@ -5692,7 +5754,7 @@
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
     </row>
-    <row r="39" spans="2:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:9" ht="34" x14ac:dyDescent="0.2">
       <c r="B39" s="1" t="s">
         <v>547</v>
       </c>
@@ -5710,7 +5772,7 @@
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
     </row>
-    <row r="40" spans="2:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:9" ht="34" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
         <v>548</v>
       </c>
@@ -5725,12 +5787,12 @@
         <v>990</v>
       </c>
       <c r="G40" s="18" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
     </row>
-    <row r="41" spans="2:9" ht="34" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
         <v>549</v>
       </c>
@@ -5745,12 +5807,12 @@
         <v>1001</v>
       </c>
       <c r="G41" s="18" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
     </row>
-    <row r="42" spans="2:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:9" ht="51" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
         <v>552</v>
       </c>
@@ -5765,12 +5827,12 @@
         <v>1002</v>
       </c>
       <c r="G42" s="18" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
     </row>
-    <row r="43" spans="2:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:9" ht="51" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
         <v>553</v>
       </c>
@@ -5785,12 +5847,12 @@
         <v>1003</v>
       </c>
       <c r="G43" s="18" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
     </row>
-    <row r="44" spans="2:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:9" ht="51" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
         <v>554</v>
       </c>
@@ -5805,12 +5867,12 @@
         <v>1004</v>
       </c>
       <c r="G44" s="18" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
     </row>
-    <row r="45" spans="2:9" ht="50" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:9" ht="50" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
         <v>555</v>
       </c>
@@ -5825,12 +5887,12 @@
         <v>1005</v>
       </c>
       <c r="G45" s="18" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
     </row>
-    <row r="46" spans="2:9" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
         <v>556</v>
       </c>
@@ -5845,12 +5907,12 @@
         <v>1006</v>
       </c>
       <c r="G46" s="18" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
     </row>
-    <row r="47" spans="2:9" ht="52" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:9" ht="52" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
         <v>557</v>
       </c>
@@ -5865,12 +5927,12 @@
         <v>1007</v>
       </c>
       <c r="G47" s="18" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
     </row>
-    <row r="48" spans="2:9" ht="52" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:9" ht="52" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="1" t="s">
         <v>567</v>
       </c>
@@ -5885,12 +5947,12 @@
         <v>1008</v>
       </c>
       <c r="G48" s="18" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
     </row>
-    <row r="49" spans="1:9" ht="51" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
         <v>568</v>
       </c>
@@ -5905,12 +5967,12 @@
         <v>1009</v>
       </c>
       <c r="G49" s="18" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
     </row>
-    <row r="50" spans="1:9" ht="52" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" ht="52" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="1" t="s">
         <v>569</v>
       </c>
@@ -5925,12 +5987,12 @@
         <v>1019</v>
       </c>
       <c r="G50" s="18" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
     </row>
-    <row r="51" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="B51" s="6" t="s">
         <v>570</v>
       </c>
@@ -5945,12 +6007,12 @@
         <v>1020</v>
       </c>
       <c r="G51" s="18" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
     </row>
-    <row r="52" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="B52" s="6" t="s">
         <v>571</v>
       </c>
@@ -5965,12 +6027,12 @@
         <v>1021</v>
       </c>
       <c r="G52" s="18" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
     </row>
-    <row r="53" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="B53" s="6" t="s">
         <v>572</v>
       </c>
@@ -5985,7 +6047,7 @@
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
     </row>
-    <row r="54" spans="1:9" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="1" t="s">
@@ -5995,7 +6057,7 @@
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
     </row>
-    <row r="55" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
         <v>554</v>
       </c>
@@ -6012,12 +6074,12 @@
         <v>1022</v>
       </c>
       <c r="G55" s="18" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
     </row>
-    <row r="56" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="B56" s="1" t="s">
         <v>558</v>
       </c>
@@ -6032,12 +6094,12 @@
         <v>1023</v>
       </c>
       <c r="G56" s="18" t="s">
-        <v>1071</v>
+        <v>1067</v>
       </c>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
     </row>
-    <row r="57" spans="1:9" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="1" t="s">
@@ -6047,7 +6109,7 @@
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
     </row>
-    <row r="58" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="B58" s="1" t="s">
         <v>559</v>
       </c>
@@ -6067,7 +6129,7 @@
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
     </row>
-    <row r="59" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="B59" s="1" t="s">
         <v>560</v>
       </c>
@@ -6085,7 +6147,7 @@
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
     </row>
-    <row r="60" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
       <c r="B60" s="3" t="s">
         <v>561</v>
@@ -6104,7 +6166,7 @@
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
     </row>
-    <row r="61" spans="1:9" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -6117,7 +6179,7 @@
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
     </row>
-    <row r="62" spans="1:9" ht="52" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" ht="52" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
       <c r="B62" s="3" t="s">
         <v>562</v>
@@ -6138,7 +6200,7 @@
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
     </row>
-    <row r="63" spans="1:9" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -6151,7 +6213,7 @@
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
     </row>
-    <row r="64" spans="1:9" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
       <c r="B64" s="4"/>
       <c r="C64" s="3" t="s">
@@ -6166,7 +6228,7 @@
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
     </row>
-    <row r="65" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
       <c r="B65" s="3" t="s">
         <v>573</v>
@@ -6182,12 +6244,12 @@
         <v>978</v>
       </c>
       <c r="G65" s="18" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
     </row>
-    <row r="66" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A66" s="3"/>
       <c r="B66" s="3" t="s">
         <v>574</v>
@@ -6203,12 +6265,12 @@
         <v>979</v>
       </c>
       <c r="G66" s="18" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
     </row>
-    <row r="67" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A67" s="3"/>
       <c r="B67" s="3" t="s">
         <v>575</v>
@@ -6224,12 +6286,12 @@
         <v>980</v>
       </c>
       <c r="G67" s="18" t="s">
-        <v>1075</v>
+        <v>1071</v>
       </c>
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
     </row>
-    <row r="68" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A68" s="3"/>
       <c r="B68" s="3" t="s">
         <v>576</v>
@@ -6248,7 +6310,7 @@
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
     </row>
-    <row r="69" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>
       <c r="B69" s="3" t="s">
         <v>577</v>
@@ -6267,7 +6329,7 @@
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
     </row>
-    <row r="70" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A70" s="3"/>
       <c r="B70" s="3" t="s">
         <v>578</v>
@@ -6286,7 +6348,7 @@
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
     </row>
-    <row r="71" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A71" s="3"/>
       <c r="B71" s="3" t="s">
         <v>579</v>
@@ -6307,7 +6369,7 @@
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
     </row>
-    <row r="72" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A72" s="3"/>
       <c r="B72" s="3" t="s">
         <v>580</v>
@@ -6326,7 +6388,7 @@
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
     </row>
-    <row r="73" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A73" s="3"/>
       <c r="B73" s="3" t="s">
         <v>581</v>
@@ -6345,7 +6407,7 @@
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
     </row>
-    <row r="74" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A74" s="3"/>
       <c r="B74" s="3" t="s">
         <v>582</v>
@@ -6364,7 +6426,7 @@
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
     </row>
-    <row r="75" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A75" s="3"/>
       <c r="B75" s="3" t="s">
         <v>583</v>
@@ -6380,12 +6442,12 @@
         <v>987</v>
       </c>
       <c r="G75" s="18" t="s">
-        <v>1076</v>
+        <v>1072</v>
       </c>
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
     </row>
-    <row r="76" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A76" s="3"/>
       <c r="B76" s="3" t="s">
         <v>584</v>
@@ -6402,7 +6464,7 @@
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
     </row>
-    <row r="77" spans="1:9" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3"/>
       <c r="B77" s="3" t="s">
         <v>585</v>
@@ -6419,7 +6481,7 @@
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
     </row>
-    <row r="78" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A78" s="3"/>
       <c r="B78" s="3" t="s">
         <v>586</v>
@@ -6436,7 +6498,7 @@
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
     </row>
-    <row r="79" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A79" s="3"/>
       <c r="B79" s="3" t="s">
         <v>587</v>
@@ -6453,7 +6515,7 @@
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
     </row>
-    <row r="80" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A80" s="3"/>
       <c r="B80" s="3" t="s">
         <v>588</v>
@@ -6470,7 +6532,7 @@
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
     </row>
-    <row r="81" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A81" s="3"/>
       <c r="B81" s="3" t="s">
         <v>591</v>
@@ -6487,7 +6549,7 @@
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
     </row>
-    <row r="82" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="3"/>
       <c r="B82" s="3" t="s">
         <v>592</v>
@@ -6504,7 +6566,7 @@
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
     </row>
-    <row r="83" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A83" s="3"/>
       <c r="B83" s="3" t="s">
         <v>593</v>
@@ -6521,7 +6583,7 @@
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
     </row>
-    <row r="84" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A84" s="3"/>
       <c r="B84" s="3" t="s">
         <v>594</v>
@@ -6538,7 +6600,7 @@
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
     </row>
-    <row r="85" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="3"/>
       <c r="B85" s="3" t="s">
         <v>595</v>
@@ -6555,7 +6617,7 @@
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
     </row>
-    <row r="86" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A86" s="3"/>
       <c r="B86" s="3" t="s">
         <v>596</v>
@@ -6572,7 +6634,7 @@
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
     </row>
-    <row r="87" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="3"/>
       <c r="B87" s="3" t="s">
         <v>597</v>
@@ -6589,7 +6651,7 @@
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
     </row>
-    <row r="88" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A88" s="3"/>
       <c r="B88" s="3" t="s">
         <v>598</v>
@@ -6606,7 +6668,7 @@
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
     </row>
-    <row r="89" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A89" s="3"/>
       <c r="B89" s="3" t="s">
         <v>599</v>
@@ -6623,7 +6685,7 @@
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
     </row>
-    <row r="90" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A90" s="3"/>
       <c r="B90" s="3" t="s">
         <v>600</v>
@@ -6640,7 +6702,7 @@
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
     </row>
-    <row r="91" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A91" s="3"/>
       <c r="B91" s="3" t="s">
         <v>601</v>
@@ -6657,7 +6719,7 @@
       <c r="H91" s="3"/>
       <c r="I91" s="3"/>
     </row>
-    <row r="92" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A92" s="3"/>
       <c r="B92" s="3" t="s">
         <v>602</v>
@@ -6674,7 +6736,7 @@
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
     </row>
-    <row r="93" spans="1:9" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -6687,7 +6749,7 @@
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
     </row>
-    <row r="94" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A94" s="3"/>
       <c r="B94" s="3" t="s">
         <v>620</v>
@@ -6706,7 +6768,7 @@
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
     </row>
-    <row r="95" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A95" s="3"/>
       <c r="B95" s="3" t="s">
         <v>603</v>
@@ -6720,12 +6782,12 @@
       </c>
       <c r="F95" s="3"/>
       <c r="G95" s="18" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
     </row>
-    <row r="96" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A96" s="3"/>
       <c r="B96" s="3" t="s">
         <v>604</v>
@@ -6739,12 +6801,12 @@
       </c>
       <c r="F96" s="3"/>
       <c r="G96" s="18" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
     </row>
-    <row r="97" spans="1:9" ht="68" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" ht="68" x14ac:dyDescent="0.2">
       <c r="A97" s="3"/>
       <c r="B97" s="3" t="s">
         <v>605</v>
@@ -6760,12 +6822,12 @@
         <v>619</v>
       </c>
       <c r="G97" s="18" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="H97" s="3"/>
       <c r="I97" s="3"/>
     </row>
-    <row r="98" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A98" s="3"/>
       <c r="B98" s="3" t="s">
         <v>608</v>
@@ -6779,12 +6841,12 @@
       </c>
       <c r="F98" s="3"/>
       <c r="G98" s="18" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
     </row>
-    <row r="99" spans="1:9" ht="34" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" ht="34" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="3"/>
       <c r="B99" s="3" t="s">
         <v>606</v>
@@ -6798,12 +6860,12 @@
       </c>
       <c r="F99" s="3"/>
       <c r="G99" s="18" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="H99" s="3"/>
       <c r="I99" s="3"/>
     </row>
-    <row r="100" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A100" s="3"/>
       <c r="B100" s="3" t="s">
         <v>607</v>
@@ -6817,12 +6879,12 @@
       </c>
       <c r="F100" s="3"/>
       <c r="G100" s="18" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
     </row>
-    <row r="101" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A101" s="3"/>
       <c r="B101" s="3" t="s">
         <v>609</v>
@@ -6836,12 +6898,12 @@
       </c>
       <c r="F101" s="3"/>
       <c r="G101" s="18" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="H101" s="3"/>
       <c r="I101" s="3"/>
     </row>
-    <row r="102" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A102" s="3"/>
       <c r="B102" s="10" t="s">
         <v>610</v>
@@ -6855,12 +6917,12 @@
       </c>
       <c r="F102" s="3"/>
       <c r="G102" s="18" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="H102" s="3"/>
       <c r="I102" s="3"/>
     </row>
-    <row r="103" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A103" s="3"/>
       <c r="B103" s="10" t="s">
         <v>611</v>
@@ -6874,12 +6936,12 @@
       </c>
       <c r="F103" s="3"/>
       <c r="G103" s="18" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="H103" s="3"/>
       <c r="I103" s="3"/>
     </row>
-    <row r="104" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A104" s="3"/>
       <c r="B104" s="10" t="s">
         <v>612</v>
@@ -6893,12 +6955,12 @@
       </c>
       <c r="F104" s="3"/>
       <c r="G104" s="18" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="H104" s="3"/>
       <c r="I104" s="3"/>
     </row>
-    <row r="105" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A105" s="3"/>
       <c r="B105" s="10" t="s">
         <v>613</v>
@@ -6912,12 +6974,12 @@
       </c>
       <c r="F105" s="3"/>
       <c r="G105" s="18" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="H105" s="3"/>
       <c r="I105" s="3"/>
     </row>
-    <row r="106" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A106" s="3"/>
       <c r="B106" s="10" t="s">
         <v>614</v>
@@ -6931,12 +6993,12 @@
       </c>
       <c r="F106" s="3"/>
       <c r="G106" s="18" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="H106" s="3"/>
       <c r="I106" s="3"/>
     </row>
-    <row r="107" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A107" s="3"/>
       <c r="B107" s="10" t="s">
         <v>615</v>
@@ -6950,12 +7012,12 @@
       </c>
       <c r="F107" s="3"/>
       <c r="G107" s="18" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="H107" s="3"/>
       <c r="I107" s="3"/>
     </row>
-    <row r="108" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
       <c r="B108" s="10" t="s">
         <v>616</v>
@@ -6969,12 +7031,12 @@
       </c>
       <c r="F108" s="3"/>
       <c r="G108" s="18" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="H108" s="3"/>
       <c r="I108" s="3"/>
     </row>
-    <row r="109" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A109" s="3"/>
       <c r="B109" s="10" t="s">
         <v>617</v>
@@ -6988,12 +7050,12 @@
       </c>
       <c r="F109" s="3"/>
       <c r="G109" s="18" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="H109" s="3"/>
       <c r="I109" s="3"/>
     </row>
-    <row r="110" spans="1:9" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -7003,12 +7065,12 @@
       </c>
       <c r="F110" s="3"/>
       <c r="G110" s="18" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="H110" s="3"/>
       <c r="I110" s="3"/>
     </row>
-    <row r="111" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3" t="s">
@@ -7022,12 +7084,12 @@
       </c>
       <c r="F111" s="3"/>
       <c r="G111" s="18" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="H111" s="3"/>
       <c r="I111" s="3"/>
     </row>
-    <row r="112" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A112" s="3"/>
       <c r="B112" s="3" t="s">
         <v>621</v>
@@ -7041,12 +7103,12 @@
       </c>
       <c r="F112" s="3"/>
       <c r="G112" s="18" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="H112" s="3"/>
       <c r="I112" s="3"/>
     </row>
-    <row r="113" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A113" s="3"/>
       <c r="B113" s="3" t="s">
         <v>622</v>
@@ -7060,12 +7122,12 @@
       </c>
       <c r="F113" s="3"/>
       <c r="G113" s="18" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="H113" s="3"/>
       <c r="I113" s="3"/>
     </row>
-    <row r="114" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A114" s="3"/>
       <c r="B114" s="3" t="s">
         <v>623</v>
@@ -7079,12 +7141,12 @@
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="18" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="H114" s="3"/>
       <c r="I114" s="3"/>
     </row>
-    <row r="115" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A115" s="3"/>
       <c r="B115" s="3" t="s">
         <v>624</v>
@@ -7098,12 +7160,12 @@
       </c>
       <c r="F115" s="3"/>
       <c r="G115" s="18" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="H115" s="3"/>
       <c r="I115" s="3"/>
     </row>
-    <row r="116" spans="1:9" ht="37" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" ht="37" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="3"/>
       <c r="B116" s="3" t="s">
         <v>625</v>
@@ -7117,12 +7179,12 @@
       </c>
       <c r="F116" s="3"/>
       <c r="G116" s="18" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="H116" s="3"/>
       <c r="I116" s="3"/>
     </row>
-    <row r="117" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A117" s="3"/>
       <c r="B117" s="3" t="s">
         <v>626</v>
@@ -7136,12 +7198,12 @@
       </c>
       <c r="F117" s="3"/>
       <c r="G117" s="18" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="H117" s="3"/>
       <c r="I117" s="3"/>
     </row>
-    <row r="118" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A118" s="3"/>
       <c r="B118" s="3" t="s">
         <v>627</v>
@@ -7155,12 +7217,12 @@
       </c>
       <c r="F118" s="3"/>
       <c r="G118" s="18" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="H118" s="3"/>
       <c r="I118" s="3"/>
     </row>
-    <row r="119" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A119" s="3"/>
       <c r="B119" s="10" t="s">
         <v>628</v>
@@ -7174,12 +7236,12 @@
       </c>
       <c r="F119" s="3"/>
       <c r="G119" s="18" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="H119" s="3"/>
       <c r="I119" s="3"/>
     </row>
-    <row r="120" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A120" s="3"/>
       <c r="B120" s="10" t="s">
         <v>629</v>
@@ -7193,12 +7255,12 @@
       </c>
       <c r="F120" s="3"/>
       <c r="G120" s="18" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="H120" s="3"/>
       <c r="I120" s="3"/>
     </row>
-    <row r="121" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A121" s="3"/>
       <c r="B121" s="10" t="s">
         <v>630</v>
@@ -7212,12 +7274,12 @@
       </c>
       <c r="F121" s="3"/>
       <c r="G121" s="18" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="H121" s="3"/>
       <c r="I121" s="3"/>
     </row>
-    <row r="122" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A122" s="3"/>
       <c r="B122" s="10" t="s">
         <v>631</v>
@@ -7231,12 +7293,12 @@
       </c>
       <c r="F122" s="3"/>
       <c r="G122" s="18" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="H122" s="3"/>
       <c r="I122" s="3"/>
     </row>
-    <row r="123" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A123" s="3"/>
       <c r="B123" s="10" t="s">
         <v>632</v>
@@ -7250,12 +7312,12 @@
       </c>
       <c r="F123" s="3"/>
       <c r="G123" s="18" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="H123" s="3"/>
       <c r="I123" s="3"/>
     </row>
-    <row r="124" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A124" s="3"/>
       <c r="B124" s="10" t="s">
         <v>633</v>
@@ -7269,12 +7331,12 @@
       </c>
       <c r="F124" s="3"/>
       <c r="G124" s="18" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="H124" s="3"/>
       <c r="I124" s="3"/>
     </row>
-    <row r="125" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A125" s="3"/>
       <c r="B125" s="10" t="s">
         <v>634</v>
@@ -7288,12 +7350,12 @@
       </c>
       <c r="F125" s="3"/>
       <c r="G125" s="18" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="H125" s="3"/>
       <c r="I125" s="3"/>
     </row>
-    <row r="126" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A126" s="3"/>
       <c r="B126" s="10" t="s">
         <v>635</v>
@@ -7307,12 +7369,12 @@
       </c>
       <c r="F126" s="3"/>
       <c r="G126" s="18" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="H126" s="3"/>
       <c r="I126" s="3"/>
     </row>
-    <row r="127" spans="1:9" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -7322,12 +7384,12 @@
       </c>
       <c r="F127" s="3"/>
       <c r="G127" s="18" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="H127" s="3"/>
       <c r="I127" s="3"/>
     </row>
-    <row r="128" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A128" s="3"/>
       <c r="B128" s="3" t="s">
         <v>656</v>
@@ -7343,12 +7405,12 @@
       </c>
       <c r="F128" s="3"/>
       <c r="G128" s="18" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="H128" s="3"/>
       <c r="I128" s="3"/>
     </row>
-    <row r="129" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A129" s="3"/>
       <c r="B129" s="3" t="s">
         <v>657</v>
@@ -7362,12 +7424,12 @@
       </c>
       <c r="F129" s="3"/>
       <c r="G129" s="18" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="H129" s="3"/>
       <c r="I129" s="3"/>
     </row>
-    <row r="130" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A130" s="3"/>
       <c r="B130" s="3" t="s">
         <v>658</v>
@@ -7381,12 +7443,12 @@
       </c>
       <c r="F130" s="3"/>
       <c r="G130" s="18" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="H130" s="3"/>
       <c r="I130" s="3"/>
     </row>
-    <row r="131" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A131" s="3"/>
       <c r="B131" s="3" t="s">
         <v>659</v>
@@ -7400,12 +7462,12 @@
       </c>
       <c r="F131" s="3"/>
       <c r="G131" s="18" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="H131" s="3"/>
       <c r="I131" s="3"/>
     </row>
-    <row r="132" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A132" s="3"/>
       <c r="B132" s="3" t="s">
         <v>660</v>
@@ -7419,12 +7481,12 @@
       </c>
       <c r="F132" s="3"/>
       <c r="G132" s="18" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="H132" s="3"/>
       <c r="I132" s="3"/>
     </row>
-    <row r="133" spans="1:9" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="3"/>
       <c r="B133" s="3" t="s">
         <v>661</v>
@@ -7438,12 +7500,12 @@
       </c>
       <c r="F133" s="3"/>
       <c r="G133" s="18" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="H133" s="3"/>
       <c r="I133" s="3"/>
     </row>
-    <row r="134" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A134" s="3"/>
       <c r="B134" s="3" t="s">
         <v>662</v>
@@ -7457,12 +7519,12 @@
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="18" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="H134" s="3"/>
       <c r="I134" s="3"/>
     </row>
-    <row r="135" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A135" s="3"/>
       <c r="B135" s="3" t="s">
         <v>663</v>
@@ -7476,12 +7538,12 @@
       </c>
       <c r="F135" s="3"/>
       <c r="G135" s="18" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="H135" s="3"/>
       <c r="I135" s="3"/>
     </row>
-    <row r="136" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A136" s="3"/>
       <c r="B136" s="3" t="s">
         <v>664</v>
@@ -7495,12 +7557,12 @@
       </c>
       <c r="F136" s="3"/>
       <c r="G136" s="18" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="H136" s="3"/>
       <c r="I136" s="3"/>
     </row>
-    <row r="137" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A137" s="3"/>
       <c r="B137" s="3" t="s">
         <v>665</v>
@@ -7514,12 +7576,12 @@
       </c>
       <c r="F137" s="3"/>
       <c r="G137" s="18" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="H137" s="3"/>
       <c r="I137" s="3"/>
     </row>
-    <row r="138" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A138" s="3"/>
       <c r="B138" s="3" t="s">
         <v>666</v>
@@ -7533,12 +7595,12 @@
       </c>
       <c r="F138" s="3"/>
       <c r="G138" s="18" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="H138" s="3"/>
       <c r="I138" s="3"/>
     </row>
-    <row r="139" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A139" s="3"/>
       <c r="B139" s="3" t="s">
         <v>667</v>
@@ -7552,12 +7614,12 @@
       </c>
       <c r="F139" s="3"/>
       <c r="G139" s="18" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="H139" s="3"/>
       <c r="I139" s="3"/>
     </row>
-    <row r="140" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A140" s="3"/>
       <c r="B140" s="3" t="s">
         <v>668</v>
@@ -7571,12 +7633,12 @@
       </c>
       <c r="F140" s="3"/>
       <c r="G140" s="18" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="H140" s="3"/>
       <c r="I140" s="3"/>
     </row>
-    <row r="141" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A141" s="3"/>
       <c r="B141" s="3" t="s">
         <v>669</v>
@@ -7590,12 +7652,12 @@
       </c>
       <c r="F141" s="3"/>
       <c r="G141" s="18" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="H141" s="3"/>
       <c r="I141" s="3"/>
     </row>
-    <row r="142" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A142" s="3"/>
       <c r="B142" s="3" t="s">
         <v>670</v>
@@ -7609,12 +7671,12 @@
       </c>
       <c r="F142" s="3"/>
       <c r="G142" s="18" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="H142" s="3"/>
       <c r="I142" s="3"/>
     </row>
-    <row r="143" spans="1:9" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="3"/>
       <c r="B143" s="3" t="s">
         <v>671</v>
@@ -7628,12 +7690,12 @@
       </c>
       <c r="F143" s="3"/>
       <c r="G143" s="18" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="H143" s="3"/>
       <c r="I143" s="3"/>
     </row>
-    <row r="144" spans="1:9" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="3"/>
       <c r="B144" s="3" t="s">
         <v>672</v>
@@ -7647,12 +7709,12 @@
       </c>
       <c r="F144" s="3"/>
       <c r="G144" s="18" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="H144" s="3"/>
       <c r="I144" s="3"/>
     </row>
-    <row r="145" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A145" s="3"/>
       <c r="B145" s="3" t="s">
         <v>656</v>
@@ -7666,12 +7728,12 @@
       </c>
       <c r="F145" s="3"/>
       <c r="G145" s="18" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="H145" s="3"/>
       <c r="I145" s="3"/>
     </row>
-    <row r="146" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A146" s="3"/>
       <c r="B146" s="3" t="s">
         <v>673</v>
@@ -7685,12 +7747,12 @@
       </c>
       <c r="F146" s="3"/>
       <c r="G146" s="18" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="H146" s="3"/>
       <c r="I146" s="3"/>
     </row>
-    <row r="147" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A147" s="3"/>
       <c r="B147" s="3" t="s">
         <v>674</v>
@@ -7704,12 +7766,12 @@
       </c>
       <c r="F147" s="3"/>
       <c r="G147" s="18" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="H147" s="3"/>
       <c r="I147" s="3"/>
     </row>
-    <row r="148" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A148" s="3"/>
       <c r="B148" s="3" t="s">
         <v>675</v>
@@ -7723,24 +7785,24 @@
       </c>
       <c r="F148" s="3"/>
       <c r="G148" s="18" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="H148" s="3"/>
       <c r="I148" s="3"/>
     </row>
-    <row r="149" spans="1:9" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
       <c r="F149" s="3"/>
       <c r="G149" s="18" t="s">
-        <v>1078</v>
+        <v>1074</v>
       </c>
       <c r="H149" s="3"/>
       <c r="I149" s="3"/>
     </row>
-    <row r="150" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A150" s="3"/>
       <c r="B150" s="3" t="s">
         <v>676</v>
@@ -7759,7 +7821,7 @@
       <c r="H150" s="3"/>
       <c r="I150" s="3"/>
     </row>
-    <row r="151" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A151" s="3"/>
       <c r="B151" s="3" t="s">
         <v>677</v>
@@ -7776,7 +7838,7 @@
       <c r="H151" s="3"/>
       <c r="I151" s="3"/>
     </row>
-    <row r="152" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A152" s="3"/>
       <c r="B152" s="3" t="s">
         <v>678</v>
@@ -7793,7 +7855,7 @@
       <c r="H152" s="3"/>
       <c r="I152" s="3"/>
     </row>
-    <row r="153" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A153" s="3"/>
       <c r="B153" s="3" t="s">
         <v>679</v>
@@ -7810,7 +7872,7 @@
       <c r="H153" s="3"/>
       <c r="I153" s="3"/>
     </row>
-    <row r="154" spans="1:9" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="3"/>
       <c r="B154" s="3" t="s">
         <v>680</v>
@@ -7827,7 +7889,7 @@
       <c r="H154" s="3"/>
       <c r="I154" s="3"/>
     </row>
-    <row r="155" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A155" s="3"/>
       <c r="B155" s="3" t="s">
         <v>681</v>
@@ -7844,7 +7906,7 @@
       <c r="H155" s="3"/>
       <c r="I155" s="3"/>
     </row>
-    <row r="156" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A156" s="3"/>
       <c r="B156" s="3" t="s">
         <v>682</v>
@@ -7861,7 +7923,7 @@
       <c r="H156" s="3"/>
       <c r="I156" s="3"/>
     </row>
-    <row r="157" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A157" s="3"/>
       <c r="B157" s="3" t="s">
         <v>683</v>
@@ -7878,7 +7940,7 @@
       <c r="H157" s="3"/>
       <c r="I157" s="3"/>
     </row>
-    <row r="158" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A158" s="3"/>
       <c r="B158" s="3" t="s">
         <v>684</v>
@@ -7895,7 +7957,7 @@
       <c r="H158" s="3"/>
       <c r="I158" s="3"/>
     </row>
-    <row r="159" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A159" s="3"/>
       <c r="B159" s="3" t="s">
         <v>685</v>
@@ -7912,7 +7974,7 @@
       <c r="H159" s="3"/>
       <c r="I159" s="3"/>
     </row>
-    <row r="160" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A160" s="3"/>
       <c r="B160" s="3" t="s">
         <v>686</v>
@@ -7929,7 +7991,7 @@
       <c r="H160" s="3"/>
       <c r="I160" s="3"/>
     </row>
-    <row r="161" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A161" s="3"/>
       <c r="B161" s="3" t="s">
         <v>687</v>
@@ -7946,7 +8008,7 @@
       <c r="H161" s="3"/>
       <c r="I161" s="3"/>
     </row>
-    <row r="162" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A162" s="3"/>
       <c r="B162" s="3" t="s">
         <v>688</v>
@@ -7963,7 +8025,7 @@
       <c r="H162" s="3"/>
       <c r="I162" s="3"/>
     </row>
-    <row r="163" spans="1:9" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="3"/>
       <c r="B163" s="3" t="s">
         <v>689</v>
@@ -7980,7 +8042,7 @@
       <c r="H163" s="3"/>
       <c r="I163" s="3"/>
     </row>
-    <row r="164" spans="1:9" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="3"/>
       <c r="B164" s="3" t="s">
         <v>690</v>
@@ -7997,7 +8059,7 @@
       <c r="H164" s="3"/>
       <c r="I164" s="3"/>
     </row>
-    <row r="165" spans="1:9" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="3"/>
       <c r="B165" s="3" t="s">
         <v>691</v>
@@ -8014,7 +8076,7 @@
       <c r="H165" s="3"/>
       <c r="I165" s="3"/>
     </row>
-    <row r="166" spans="1:9" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="3"/>
       <c r="B166" s="3" t="s">
         <v>692</v>
@@ -8031,7 +8093,7 @@
       <c r="H166" s="3"/>
       <c r="I166" s="3"/>
     </row>
-    <row r="167" spans="1:9" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="3"/>
       <c r="B167" s="3" t="s">
         <v>693</v>
@@ -8048,7 +8110,7 @@
       <c r="H167" s="3"/>
       <c r="I167" s="3"/>
     </row>
-    <row r="168" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A168" s="3"/>
       <c r="B168" s="3" t="s">
         <v>694</v>
@@ -8065,7 +8127,7 @@
       <c r="H168" s="3"/>
       <c r="I168" s="3"/>
     </row>
-    <row r="169" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A169" s="3"/>
       <c r="B169" s="3" t="s">
         <v>695</v>
@@ -8082,7 +8144,7 @@
       <c r="H169" s="3"/>
       <c r="I169" s="3"/>
     </row>
-    <row r="170" spans="1:9" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -8092,7 +8154,7 @@
       <c r="H170" s="3"/>
       <c r="I170" s="3"/>
     </row>
-    <row r="171" spans="1:9" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="3"/>
       <c r="B171" s="3" t="s">
         <v>696</v>
@@ -8111,7 +8173,7 @@
       <c r="H171" s="3"/>
       <c r="I171" s="3"/>
     </row>
-    <row r="172" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A172" s="3"/>
       <c r="B172" s="3" t="s">
         <v>697</v>
@@ -8128,7 +8190,7 @@
       <c r="H172" s="3"/>
       <c r="I172" s="3"/>
     </row>
-    <row r="173" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A173" s="3"/>
       <c r="B173" s="3" t="s">
         <v>698</v>
@@ -8145,7 +8207,7 @@
       <c r="H173" s="3"/>
       <c r="I173" s="3"/>
     </row>
-    <row r="174" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A174" s="3"/>
       <c r="B174" s="3" t="s">
         <v>699</v>
@@ -8162,7 +8224,7 @@
       <c r="H174" s="3"/>
       <c r="I174" s="3"/>
     </row>
-    <row r="175" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A175" s="3"/>
       <c r="B175" s="3" t="s">
         <v>700</v>
@@ -8179,7 +8241,7 @@
       <c r="H175" s="3"/>
       <c r="I175" s="3"/>
     </row>
-    <row r="176" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A176" s="3"/>
       <c r="B176" s="3" t="s">
         <v>701</v>
@@ -8196,7 +8258,7 @@
       <c r="H176" s="3"/>
       <c r="I176" s="3"/>
     </row>
-    <row r="177" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A177" s="3"/>
       <c r="B177" s="3" t="s">
         <v>702</v>
@@ -8213,7 +8275,7 @@
       <c r="H177" s="3"/>
       <c r="I177" s="3"/>
     </row>
-    <row r="178" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A178" s="3"/>
       <c r="B178" s="3" t="s">
         <v>703</v>
@@ -8230,7 +8292,7 @@
       <c r="H178" s="3"/>
       <c r="I178" s="3"/>
     </row>
-    <row r="179" spans="1:9" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
@@ -8240,7 +8302,7 @@
       <c r="H179" s="3"/>
       <c r="I179" s="3"/>
     </row>
-    <row r="180" spans="1:9" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="3"/>
       <c r="B180" s="3" t="s">
         <v>704</v>
@@ -8259,7 +8321,7 @@
       <c r="H180" s="3"/>
       <c r="I180" s="3"/>
     </row>
-    <row r="181" spans="1:9" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
@@ -8269,7 +8331,7 @@
       <c r="H181" s="3"/>
       <c r="I181" s="3"/>
     </row>
-    <row r="182" spans="1:9" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="3"/>
       <c r="B182" s="3" t="s">
         <v>705</v>
@@ -8288,7 +8350,7 @@
       <c r="H182" s="3"/>
       <c r="I182" s="3"/>
     </row>
-    <row r="183" spans="1:9" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
@@ -8298,7 +8360,7 @@
       <c r="H183" s="3"/>
       <c r="I183" s="3"/>
     </row>
-    <row r="184" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A184" s="3"/>
       <c r="B184" s="3" t="s">
         <v>706</v>
@@ -8314,12 +8376,12 @@
       </c>
       <c r="F184" s="3"/>
       <c r="G184" s="18" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="H184" s="3"/>
       <c r="I184" s="3"/>
     </row>
-    <row r="185" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A185" s="3"/>
       <c r="B185" s="3" t="s">
         <v>707</v>
@@ -8333,12 +8395,12 @@
       </c>
       <c r="F185" s="3"/>
       <c r="G185" s="18" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="H185" s="3"/>
       <c r="I185" s="3"/>
     </row>
-    <row r="186" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A186" s="3"/>
       <c r="B186" s="11" t="s">
         <v>708</v>
@@ -8352,12 +8414,12 @@
       </c>
       <c r="F186" s="3"/>
       <c r="G186" s="18" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="H186" s="3"/>
       <c r="I186" s="3"/>
     </row>
-    <row r="187" spans="1:9" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
@@ -8367,12 +8429,12 @@
       </c>
       <c r="F187" s="3"/>
       <c r="G187" s="18" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="H187" s="3"/>
       <c r="I187" s="3"/>
     </row>
-    <row r="188" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A188" s="3"/>
       <c r="B188" s="3" t="s">
         <v>636</v>
@@ -8388,12 +8450,12 @@
       </c>
       <c r="F188" s="3"/>
       <c r="G188" s="18" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="H188" s="3"/>
       <c r="I188" s="3"/>
     </row>
-    <row r="189" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A189" s="3"/>
       <c r="B189" s="11" t="s">
         <v>637</v>
@@ -8407,12 +8469,12 @@
       </c>
       <c r="F189" s="3"/>
       <c r="G189" s="18" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="H189" s="3"/>
       <c r="I189" s="3"/>
     </row>
-    <row r="190" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A190" s="3"/>
       <c r="B190" s="3" t="s">
         <v>638</v>
@@ -8426,12 +8488,12 @@
       </c>
       <c r="F190" s="3"/>
       <c r="G190" s="18" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="H190" s="3"/>
       <c r="I190" s="3"/>
     </row>
-    <row r="191" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A191" s="3"/>
       <c r="B191" s="3" t="s">
         <v>709</v>
@@ -8445,12 +8507,12 @@
       </c>
       <c r="F191" s="3"/>
       <c r="G191" s="18" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="H191" s="3"/>
       <c r="I191" s="3"/>
     </row>
-    <row r="192" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A192" s="3"/>
       <c r="B192" s="3" t="s">
         <v>710</v>
@@ -8464,12 +8526,12 @@
       </c>
       <c r="F192" s="3"/>
       <c r="G192" s="18" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="H192" s="3"/>
       <c r="I192" s="3"/>
     </row>
-    <row r="193" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A193" s="3"/>
       <c r="B193" s="11" t="s">
         <v>711</v>
@@ -8483,12 +8545,12 @@
       </c>
       <c r="F193" s="3"/>
       <c r="G193" s="18" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="H193" s="3"/>
       <c r="I193" s="3"/>
     </row>
-    <row r="194" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A194" s="3"/>
       <c r="B194" s="11" t="s">
         <v>712</v>
@@ -8502,12 +8564,12 @@
       </c>
       <c r="F194" s="3"/>
       <c r="G194" s="18" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="H194" s="3"/>
       <c r="I194" s="3"/>
     </row>
-    <row r="195" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A195" s="3"/>
       <c r="B195" s="11" t="s">
         <v>713</v>
@@ -8521,12 +8583,12 @@
       </c>
       <c r="F195" s="3"/>
       <c r="G195" s="18" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="H195" s="3"/>
       <c r="I195" s="3"/>
     </row>
-    <row r="196" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A196" s="3"/>
       <c r="B196" s="3" t="s">
         <v>714</v>
@@ -8540,12 +8602,12 @@
       </c>
       <c r="F196" s="3"/>
       <c r="G196" s="18" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="H196" s="3"/>
       <c r="I196" s="3"/>
     </row>
-    <row r="197" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A197" s="3"/>
       <c r="B197" s="3" t="s">
         <v>715</v>
@@ -8559,12 +8621,12 @@
       </c>
       <c r="F197" s="3"/>
       <c r="G197" s="18" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="H197" s="3"/>
       <c r="I197" s="3"/>
     </row>
-    <row r="198" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A198" s="3"/>
       <c r="B198" s="3" t="s">
         <v>716</v>
@@ -8578,12 +8640,12 @@
       </c>
       <c r="F198" s="3"/>
       <c r="G198" s="18" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="H198" s="3"/>
       <c r="I198" s="3"/>
     </row>
-    <row r="199" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A199" s="3"/>
       <c r="B199" s="3" t="s">
         <v>717</v>
@@ -8597,12 +8659,12 @@
       </c>
       <c r="F199" s="3"/>
       <c r="G199" s="18" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="H199" s="3"/>
       <c r="I199" s="3"/>
     </row>
-    <row r="200" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A200" s="3"/>
       <c r="B200" s="3" t="s">
         <v>718</v>
@@ -8616,12 +8678,12 @@
       </c>
       <c r="F200" s="3"/>
       <c r="G200" s="18" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="H200" s="3"/>
       <c r="I200" s="3"/>
     </row>
-    <row r="201" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A201" s="3"/>
       <c r="B201" s="3" t="s">
         <v>719</v>
@@ -8635,12 +8697,12 @@
       </c>
       <c r="F201" s="3"/>
       <c r="G201" s="18" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="H201" s="3"/>
       <c r="I201" s="3"/>
     </row>
-    <row r="202" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A202" s="3"/>
       <c r="B202" s="3" t="s">
         <v>720</v>
@@ -8654,12 +8716,12 @@
       </c>
       <c r="F202" s="3"/>
       <c r="G202" s="18" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="H202" s="3"/>
       <c r="I202" s="3"/>
     </row>
-    <row r="203" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A203" s="3"/>
       <c r="B203" s="3" t="s">
         <v>721</v>
@@ -8673,12 +8735,12 @@
       </c>
       <c r="F203" s="3"/>
       <c r="G203" s="18" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="H203" s="3"/>
       <c r="I203" s="3"/>
     </row>
-    <row r="204" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A204" s="3"/>
       <c r="B204" s="3" t="s">
         <v>722</v>
@@ -8692,12 +8754,12 @@
       </c>
       <c r="F204" s="3"/>
       <c r="G204" s="18" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="H204" s="3"/>
       <c r="I204" s="3"/>
     </row>
-    <row r="205" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A205" s="3"/>
       <c r="B205" s="11" t="s">
         <v>723</v>
@@ -8711,12 +8773,12 @@
       </c>
       <c r="F205" s="3"/>
       <c r="G205" s="18" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="H205" s="3"/>
       <c r="I205" s="3"/>
     </row>
-    <row r="206" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A206" s="3"/>
       <c r="B206" s="11" t="s">
         <v>724</v>
@@ -8730,12 +8792,12 @@
       </c>
       <c r="F206" s="3"/>
       <c r="G206" s="18" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="H206" s="3"/>
       <c r="I206" s="3"/>
     </row>
-    <row r="207" spans="1:9" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="3"/>
       <c r="B207" s="11" t="s">
         <v>725</v>
@@ -8749,12 +8811,12 @@
       </c>
       <c r="F207" s="3"/>
       <c r="G207" s="18" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="H207" s="3"/>
       <c r="I207" s="3"/>
     </row>
-    <row r="208" spans="1:9" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="3"/>
       <c r="B208" s="3" t="s">
         <v>726</v>
@@ -8768,12 +8830,12 @@
       </c>
       <c r="F208" s="3"/>
       <c r="G208" s="18" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="H208" s="3"/>
       <c r="I208" s="3"/>
     </row>
-    <row r="209" spans="1:9" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="3"/>
       <c r="B209" s="3" t="s">
         <v>727</v>
@@ -8787,12 +8849,12 @@
       </c>
       <c r="F209" s="3"/>
       <c r="G209" s="18" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="H209" s="3"/>
       <c r="I209" s="3"/>
     </row>
-    <row r="210" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A210" s="3"/>
       <c r="B210" s="3" t="s">
         <v>728</v>
@@ -8806,12 +8868,12 @@
       </c>
       <c r="F210" s="3"/>
       <c r="G210" s="18" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="H210" s="3"/>
       <c r="I210" s="3"/>
     </row>
-    <row r="211" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A211" s="3"/>
       <c r="B211" s="3" t="s">
         <v>729</v>
@@ -8825,12 +8887,12 @@
       </c>
       <c r="F211" s="3"/>
       <c r="G211" s="18" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="H211" s="3"/>
       <c r="I211" s="3"/>
     </row>
-    <row r="212" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A212" s="3"/>
       <c r="B212" s="3" t="s">
         <v>730</v>
@@ -8844,12 +8906,12 @@
       </c>
       <c r="F212" s="3"/>
       <c r="G212" s="18" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="H212" s="3"/>
       <c r="I212" s="3"/>
     </row>
-    <row r="213" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A213" s="3"/>
       <c r="B213" s="3" t="s">
         <v>731</v>
@@ -8863,12 +8925,12 @@
       </c>
       <c r="F213" s="3"/>
       <c r="G213" s="18" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="H213" s="3"/>
       <c r="I213" s="3"/>
     </row>
-    <row r="214" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A214" s="3"/>
       <c r="B214" s="3" t="s">
         <v>732</v>
@@ -8882,12 +8944,12 @@
       </c>
       <c r="F214" s="3"/>
       <c r="G214" s="18" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="H214" s="3"/>
       <c r="I214" s="3"/>
     </row>
-    <row r="215" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A215" s="3"/>
       <c r="B215" s="3" t="s">
         <v>733</v>
@@ -8901,12 +8963,12 @@
       </c>
       <c r="F215" s="3"/>
       <c r="G215" s="18" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="H215" s="3"/>
       <c r="I215" s="3"/>
     </row>
-    <row r="216" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A216" s="3"/>
       <c r="B216" s="3" t="s">
         <v>734</v>
@@ -8920,12 +8982,12 @@
       </c>
       <c r="F216" s="3"/>
       <c r="G216" s="18" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="H216" s="3"/>
       <c r="I216" s="3"/>
     </row>
-    <row r="217" spans="1:9" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="3"/>
       <c r="B217" s="3" t="s">
         <v>735</v>
@@ -8939,12 +9001,12 @@
       </c>
       <c r="F217" s="3"/>
       <c r="G217" s="18" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="H217" s="3"/>
       <c r="I217" s="3"/>
     </row>
-    <row r="218" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A218" s="3"/>
       <c r="B218" s="3" t="s">
         <v>736</v>
@@ -8958,12 +9020,12 @@
       </c>
       <c r="F218" s="3"/>
       <c r="G218" s="18" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="H218" s="3"/>
       <c r="I218" s="3"/>
     </row>
-    <row r="219" spans="1:9" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="3"/>
       <c r="B219" s="3" t="s">
         <v>737</v>
@@ -8977,12 +9039,12 @@
       </c>
       <c r="F219" s="3"/>
       <c r="G219" s="18" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="H219" s="3"/>
       <c r="I219" s="3"/>
     </row>
-    <row r="220" spans="1:9" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="3"/>
       <c r="B220" s="3" t="s">
         <v>738</v>
@@ -8996,12 +9058,12 @@
       </c>
       <c r="F220" s="3"/>
       <c r="G220" s="18" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="H220" s="3"/>
       <c r="I220" s="3"/>
     </row>
-    <row r="221" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A221" s="3"/>
       <c r="B221" s="3" t="s">
         <v>739</v>
@@ -9015,12 +9077,12 @@
       </c>
       <c r="F221" s="3"/>
       <c r="G221" s="18" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="H221" s="3"/>
       <c r="I221" s="3"/>
     </row>
-    <row r="222" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A222" s="3"/>
       <c r="B222" s="3" t="s">
         <v>740</v>
@@ -9034,12 +9096,12 @@
       </c>
       <c r="F222" s="3"/>
       <c r="G222" s="18" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="H222" s="3"/>
       <c r="I222" s="3"/>
     </row>
-    <row r="223" spans="1:9" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="3"/>
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
@@ -9049,12 +9111,12 @@
       </c>
       <c r="F223" s="3"/>
       <c r="G223" s="18" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="H223" s="3"/>
       <c r="I223" s="3"/>
     </row>
-    <row r="224" spans="1:9" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="3"/>
       <c r="B224" s="3" t="s">
         <v>741</v>
@@ -9070,12 +9132,12 @@
       </c>
       <c r="F224" s="3"/>
       <c r="G224" s="18" t="s">
-        <v>1081</v>
+        <v>1077</v>
       </c>
       <c r="H224" s="3"/>
       <c r="I224" s="3"/>
     </row>
-    <row r="225" spans="1:9" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="3"/>
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
@@ -9088,7 +9150,7 @@
       <c r="H225" s="3"/>
       <c r="I225" s="3"/>
     </row>
-    <row r="226" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A226" s="3"/>
       <c r="B226" s="3" t="s">
         <v>742</v>
@@ -9104,12 +9166,12 @@
       </c>
       <c r="F226" s="3"/>
       <c r="G226" s="18" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="H226" s="3"/>
       <c r="I226" s="3"/>
     </row>
-    <row r="227" spans="1:9" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="3"/>
       <c r="B227" s="3" t="s">
         <v>743</v>
@@ -9123,12 +9185,12 @@
       </c>
       <c r="F227" s="3"/>
       <c r="G227" s="18" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="H227" s="3"/>
       <c r="I227" s="3"/>
     </row>
-    <row r="228" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A228" s="3"/>
       <c r="B228" s="3" t="s">
         <v>744</v>
@@ -9142,12 +9204,12 @@
       </c>
       <c r="F228" s="3"/>
       <c r="G228" s="18" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="H228" s="3"/>
       <c r="I228" s="3"/>
     </row>
-    <row r="229" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A229" s="3"/>
       <c r="B229" s="3" t="s">
         <v>745</v>
@@ -9161,12 +9223,12 @@
       </c>
       <c r="F229" s="3"/>
       <c r="G229" s="18" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="H229" s="3"/>
       <c r="I229" s="3"/>
     </row>
-    <row r="230" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A230" s="3"/>
       <c r="B230" s="3" t="s">
         <v>746</v>
@@ -9180,12 +9242,12 @@
       </c>
       <c r="F230" s="3"/>
       <c r="G230" s="18" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="H230" s="3"/>
       <c r="I230" s="3"/>
     </row>
-    <row r="231" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A231" s="3"/>
       <c r="B231" s="3" t="s">
         <v>747</v>
@@ -9199,12 +9261,12 @@
       </c>
       <c r="F231" s="3"/>
       <c r="G231" s="18" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="H231" s="3"/>
       <c r="I231" s="3"/>
     </row>
-    <row r="232" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A232" s="3"/>
       <c r="B232" s="3" t="s">
         <v>748</v>
@@ -9218,12 +9280,12 @@
       </c>
       <c r="F232" s="3"/>
       <c r="G232" s="18" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="H232" s="3"/>
       <c r="I232" s="3"/>
     </row>
-    <row r="233" spans="1:9" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="3"/>
       <c r="B233" s="3"/>
       <c r="C233" s="3"/>
@@ -9233,12 +9295,12 @@
       </c>
       <c r="F233" s="3"/>
       <c r="G233" s="18" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="H233" s="3"/>
       <c r="I233" s="3"/>
     </row>
-    <row r="234" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A234" s="3"/>
       <c r="B234" s="3" t="s">
         <v>749</v>
@@ -9254,12 +9316,12 @@
       </c>
       <c r="F234" s="3"/>
       <c r="G234" s="18" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="H234" s="3"/>
       <c r="I234" s="3"/>
     </row>
-    <row r="235" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A235" s="3"/>
       <c r="B235" s="3" t="s">
         <v>750</v>
@@ -9273,12 +9335,12 @@
       </c>
       <c r="F235" s="3"/>
       <c r="G235" s="18" t="s">
-        <v>1079</v>
+        <v>1075</v>
       </c>
       <c r="H235" s="3"/>
       <c r="I235" s="3"/>
     </row>
-    <row r="236" spans="1:9" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="3"/>
       <c r="B236" s="3"/>
       <c r="C236" s="3"/>
@@ -9291,7 +9353,7 @@
       <c r="H236" s="3"/>
       <c r="I236" s="3"/>
     </row>
-    <row r="237" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A237" s="3"/>
       <c r="B237" s="3" t="s">
         <v>751</v>
@@ -9307,12 +9369,12 @@
       </c>
       <c r="F237" s="3"/>
       <c r="G237" s="18" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="H237" s="3"/>
       <c r="I237" s="3"/>
     </row>
-    <row r="238" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A238" s="3"/>
       <c r="B238" s="3" t="s">
         <v>752</v>
@@ -9326,12 +9388,12 @@
       </c>
       <c r="F238" s="3"/>
       <c r="G238" s="18" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="H238" s="3"/>
       <c r="I238" s="3"/>
     </row>
-    <row r="239" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A239" s="3"/>
       <c r="B239" s="3" t="s">
         <v>753</v>
@@ -9345,12 +9407,12 @@
       </c>
       <c r="F239" s="3"/>
       <c r="G239" s="18" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="H239" s="3"/>
       <c r="I239" s="3"/>
     </row>
-    <row r="240" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A240" s="3"/>
       <c r="B240" s="3" t="s">
         <v>754</v>
@@ -9364,12 +9426,12 @@
       </c>
       <c r="F240" s="3"/>
       <c r="G240" s="18" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="H240" s="3"/>
       <c r="I240" s="3"/>
     </row>
-    <row r="241" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A241" s="3"/>
       <c r="B241" s="3" t="s">
         <v>755</v>
@@ -9383,12 +9445,12 @@
       </c>
       <c r="F241" s="3"/>
       <c r="G241" s="18" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="H241" s="3"/>
       <c r="I241" s="3"/>
     </row>
-    <row r="242" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A242" s="3"/>
       <c r="B242" s="3" t="s">
         <v>756</v>
@@ -9402,12 +9464,12 @@
       </c>
       <c r="F242" s="3"/>
       <c r="G242" s="18" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="H242" s="3"/>
       <c r="I242" s="3"/>
     </row>
-    <row r="243" spans="1:9" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="3"/>
       <c r="B243" s="3"/>
       <c r="C243" s="3"/>
@@ -9417,12 +9479,12 @@
       </c>
       <c r="F243" s="3"/>
       <c r="G243" s="18" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="H243" s="3"/>
       <c r="I243" s="3"/>
     </row>
-    <row r="244" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A244" s="3"/>
       <c r="B244" s="3" t="s">
         <v>757</v>
@@ -9438,12 +9500,12 @@
       </c>
       <c r="F244" s="3"/>
       <c r="G244" s="18" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="H244" s="3"/>
       <c r="I244" s="3"/>
     </row>
-    <row r="245" spans="1:9" ht="65" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:9" ht="65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="3"/>
       <c r="B245" s="3" t="s">
         <v>758</v>
@@ -9457,12 +9519,12 @@
       </c>
       <c r="F245" s="3"/>
       <c r="G245" s="18" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="H245" s="3"/>
       <c r="I245" s="3"/>
     </row>
-    <row r="246" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A246" s="3"/>
       <c r="B246" s="3" t="s">
         <v>759</v>
@@ -9476,12 +9538,12 @@
       </c>
       <c r="F246" s="3"/>
       <c r="G246" s="18" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="H246" s="3"/>
       <c r="I246" s="3"/>
     </row>
-    <row r="247" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A247" s="3"/>
       <c r="B247" s="3" t="s">
         <v>760</v>
@@ -9495,12 +9557,12 @@
       </c>
       <c r="F247" s="3"/>
       <c r="G247" s="18" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="H247" s="3"/>
       <c r="I247" s="3"/>
     </row>
-    <row r="248" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A248" s="3"/>
       <c r="B248" s="3" t="s">
         <v>761</v>
@@ -9514,12 +9576,12 @@
       </c>
       <c r="F248" s="3"/>
       <c r="G248" s="18" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="H248" s="3"/>
       <c r="I248" s="3"/>
     </row>
-    <row r="249" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A249" s="3"/>
       <c r="B249" s="3" t="s">
         <v>762</v>
@@ -9533,12 +9595,12 @@
       </c>
       <c r="F249" s="3"/>
       <c r="G249" s="18" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="H249" s="3"/>
       <c r="I249" s="3"/>
     </row>
-    <row r="250" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A250" s="3"/>
       <c r="B250" s="3" t="s">
         <v>763</v>
@@ -9552,12 +9614,12 @@
       </c>
       <c r="F250" s="3"/>
       <c r="G250" s="18" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="H250" s="3"/>
       <c r="I250" s="3"/>
     </row>
-    <row r="251" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A251" s="3"/>
       <c r="B251" s="3" t="s">
         <v>764</v>
@@ -9571,12 +9633,12 @@
       </c>
       <c r="F251" s="3"/>
       <c r="G251" s="18" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="H251" s="3"/>
       <c r="I251" s="3"/>
     </row>
-    <row r="252" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A252" s="3"/>
       <c r="B252" s="3" t="s">
         <v>765</v>
@@ -9590,12 +9652,12 @@
       </c>
       <c r="F252" s="3"/>
       <c r="G252" s="18" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="H252" s="3"/>
       <c r="I252" s="3"/>
     </row>
-    <row r="253" spans="1:9" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="3"/>
       <c r="B253" s="3"/>
       <c r="C253" s="3"/>
@@ -9605,12 +9667,12 @@
       </c>
       <c r="F253" s="3"/>
       <c r="G253" s="18" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="H253" s="3"/>
       <c r="I253" s="3"/>
     </row>
-    <row r="254" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A254" s="3"/>
       <c r="B254" s="3" t="s">
         <v>766</v>
@@ -9626,12 +9688,12 @@
       </c>
       <c r="F254" s="3"/>
       <c r="G254" s="18" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="H254" s="3"/>
       <c r="I254" s="3"/>
     </row>
-    <row r="255" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A255" s="3"/>
       <c r="B255" s="3" t="s">
         <v>767</v>
@@ -9645,12 +9707,12 @@
       </c>
       <c r="F255" s="3"/>
       <c r="G255" s="18" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="H255" s="3"/>
       <c r="I255" s="3"/>
     </row>
-    <row r="256" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A256" s="3"/>
       <c r="B256" s="3" t="s">
         <v>768</v>
@@ -9664,12 +9726,12 @@
       </c>
       <c r="F256" s="3"/>
       <c r="G256" s="18" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="H256" s="3"/>
       <c r="I256" s="3"/>
     </row>
-    <row r="257" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A257" s="3"/>
       <c r="B257" s="3" t="s">
         <v>769</v>
@@ -9683,12 +9745,12 @@
       </c>
       <c r="F257" s="3"/>
       <c r="G257" s="18" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="H257" s="3"/>
       <c r="I257" s="3"/>
     </row>
-    <row r="258" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A258" s="3"/>
       <c r="B258" s="3" t="s">
         <v>770</v>
@@ -9702,12 +9764,12 @@
       </c>
       <c r="F258" s="3"/>
       <c r="G258" s="18" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="H258" s="3"/>
       <c r="I258" s="3"/>
     </row>
-    <row r="259" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A259" s="3"/>
       <c r="B259" s="3" t="s">
         <v>771</v>
@@ -9721,12 +9783,12 @@
       </c>
       <c r="F259" s="3"/>
       <c r="G259" s="18" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="H259" s="3"/>
       <c r="I259" s="3"/>
     </row>
-    <row r="260" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A260" s="3"/>
       <c r="B260" s="3" t="s">
         <v>772</v>
@@ -9740,12 +9802,12 @@
       </c>
       <c r="F260" s="3"/>
       <c r="G260" s="18" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="H260" s="3"/>
       <c r="I260" s="3"/>
     </row>
-    <row r="261" spans="1:9" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="3"/>
       <c r="B261" s="3"/>
       <c r="C261" s="3"/>
@@ -9755,12 +9817,12 @@
       </c>
       <c r="F261" s="3"/>
       <c r="G261" s="18" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="H261" s="3"/>
       <c r="I261" s="3"/>
     </row>
-    <row r="262" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A262" s="3"/>
       <c r="B262" s="3" t="s">
         <v>773</v>
@@ -9776,12 +9838,12 @@
       </c>
       <c r="F262" s="3"/>
       <c r="G262" s="18" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="H262" s="3"/>
       <c r="I262" s="3"/>
     </row>
-    <row r="263" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A263" s="3"/>
       <c r="B263" s="3" t="s">
         <v>774</v>
@@ -9795,12 +9857,12 @@
       </c>
       <c r="F263" s="3"/>
       <c r="G263" s="18" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="H263" s="3"/>
       <c r="I263" s="3"/>
     </row>
-    <row r="264" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A264" s="3"/>
       <c r="B264" s="3" t="s">
         <v>775</v>
@@ -9814,12 +9876,12 @@
       </c>
       <c r="F264" s="3"/>
       <c r="G264" s="18" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="H264" s="3"/>
       <c r="I264" s="3"/>
     </row>
-    <row r="265" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A265" s="3"/>
       <c r="B265" s="3" t="s">
         <v>776</v>
@@ -9833,12 +9895,12 @@
       </c>
       <c r="F265" s="3"/>
       <c r="G265" s="18" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="H265" s="3"/>
       <c r="I265" s="3"/>
     </row>
-    <row r="266" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A266" s="3"/>
       <c r="B266" s="3" t="s">
         <v>777</v>
@@ -9852,12 +9914,12 @@
       </c>
       <c r="F266" s="3"/>
       <c r="G266" s="18" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="H266" s="3"/>
       <c r="I266" s="3"/>
     </row>
-    <row r="267" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A267" s="3"/>
       <c r="B267" s="3" t="s">
         <v>778</v>
@@ -9871,12 +9933,12 @@
       </c>
       <c r="F267" s="3"/>
       <c r="G267" s="18" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="H267" s="3"/>
       <c r="I267" s="3"/>
     </row>
-    <row r="268" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A268" s="3"/>
       <c r="B268" s="3" t="s">
         <v>779</v>
@@ -9890,12 +9952,12 @@
       </c>
       <c r="F268" s="3"/>
       <c r="G268" s="18" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="H268" s="3"/>
       <c r="I268" s="3"/>
     </row>
-    <row r="269" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A269" s="3"/>
       <c r="B269" s="3"/>
       <c r="C269" s="3"/>
@@ -9905,12 +9967,12 @@
       </c>
       <c r="F269" s="3"/>
       <c r="G269" s="18" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="H269" s="3"/>
       <c r="I269" s="3"/>
     </row>
-    <row r="270" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A270" s="3"/>
       <c r="B270" s="3" t="s">
         <v>780</v>
@@ -9926,12 +9988,12 @@
       </c>
       <c r="F270" s="3"/>
       <c r="G270" s="18" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="H270" s="3"/>
       <c r="I270" s="3"/>
     </row>
-    <row r="271" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A271" s="3"/>
       <c r="B271" s="3" t="s">
         <v>781</v>
@@ -9945,12 +10007,12 @@
       </c>
       <c r="F271" s="3"/>
       <c r="G271" s="18" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="H271" s="3"/>
       <c r="I271" s="3"/>
     </row>
-    <row r="272" spans="1:9" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="3"/>
       <c r="B272" s="3" t="s">
         <v>782</v>
@@ -9964,12 +10026,12 @@
       </c>
       <c r="F272" s="3"/>
       <c r="G272" s="18" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="H272" s="3"/>
       <c r="I272" s="3"/>
     </row>
-    <row r="273" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A273" s="3"/>
       <c r="B273" s="3" t="s">
         <v>783</v>
@@ -9983,12 +10045,12 @@
       </c>
       <c r="F273" s="3"/>
       <c r="G273" s="18" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="H273" s="3"/>
       <c r="I273" s="3"/>
     </row>
-    <row r="274" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A274" s="3"/>
       <c r="B274" s="3" t="s">
         <v>784</v>
@@ -10002,12 +10064,12 @@
       </c>
       <c r="F274" s="3"/>
       <c r="G274" s="18" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="H274" s="3"/>
       <c r="I274" s="3"/>
     </row>
-    <row r="275" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A275" s="3"/>
       <c r="B275" s="3" t="s">
         <v>785</v>
@@ -10021,12 +10083,12 @@
       </c>
       <c r="F275" s="3"/>
       <c r="G275" s="18" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="H275" s="3"/>
       <c r="I275" s="3"/>
     </row>
-    <row r="276" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A276" s="3"/>
       <c r="B276" s="3" t="s">
         <v>786</v>
@@ -10040,12 +10102,12 @@
       </c>
       <c r="F276" s="3"/>
       <c r="G276" s="18" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="H276" s="3"/>
       <c r="I276" s="3"/>
     </row>
-    <row r="277" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A277" s="3"/>
       <c r="B277" s="3"/>
       <c r="C277" s="3"/>
@@ -10055,12 +10117,12 @@
       </c>
       <c r="F277" s="3"/>
       <c r="G277" s="18" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="H277" s="3"/>
       <c r="I277" s="3"/>
     </row>
-    <row r="278" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A278" s="3"/>
       <c r="B278" s="3" t="s">
         <v>787</v>
@@ -10076,12 +10138,12 @@
       </c>
       <c r="F278" s="3"/>
       <c r="G278" s="18" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="H278" s="3"/>
       <c r="I278" s="3"/>
     </row>
-    <row r="279" spans="1:9" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="3"/>
       <c r="B279" s="3" t="s">
         <v>788</v>
@@ -10095,12 +10157,12 @@
       </c>
       <c r="F279" s="3"/>
       <c r="G279" s="18" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="H279" s="3"/>
       <c r="I279" s="3"/>
     </row>
-    <row r="280" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A280" s="3"/>
       <c r="B280" s="3" t="s">
         <v>789</v>
@@ -10114,12 +10176,12 @@
       </c>
       <c r="F280" s="3"/>
       <c r="G280" s="18" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="H280" s="3"/>
       <c r="I280" s="3"/>
     </row>
-    <row r="281" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A281" s="3"/>
       <c r="B281" s="3" t="s">
         <v>790</v>
@@ -10133,12 +10195,12 @@
       </c>
       <c r="F281" s="3"/>
       <c r="G281" s="18" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="H281" s="3"/>
       <c r="I281" s="3"/>
     </row>
-    <row r="282" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A282" s="3"/>
       <c r="B282" s="3" t="s">
         <v>791</v>
@@ -10152,12 +10214,12 @@
       </c>
       <c r="F282" s="3"/>
       <c r="G282" s="18" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="H282" s="3"/>
       <c r="I282" s="3"/>
     </row>
-    <row r="283" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A283" s="3"/>
       <c r="B283" s="3" t="s">
         <v>792</v>
@@ -10171,12 +10233,12 @@
       </c>
       <c r="F283" s="3"/>
       <c r="G283" s="18" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="H283" s="3"/>
       <c r="I283" s="3"/>
     </row>
-    <row r="284" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A284" s="3"/>
       <c r="B284" s="3" t="s">
         <v>793</v>
@@ -10190,12 +10252,12 @@
       </c>
       <c r="F284" s="3"/>
       <c r="G284" s="18" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="H284" s="3"/>
       <c r="I284" s="3"/>
     </row>
-    <row r="285" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A285" s="3"/>
       <c r="B285" s="3" t="s">
         <v>794</v>
@@ -10209,12 +10271,12 @@
       </c>
       <c r="F285" s="3"/>
       <c r="G285" s="18" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="H285" s="3"/>
       <c r="I285" s="3"/>
     </row>
-    <row r="286" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A286" s="3"/>
       <c r="B286" s="3" t="s">
         <v>795</v>
@@ -10228,12 +10290,12 @@
       </c>
       <c r="F286" s="3"/>
       <c r="G286" s="18" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="H286" s="3"/>
       <c r="I286" s="3"/>
     </row>
-    <row r="287" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A287" s="3"/>
       <c r="B287" s="3" t="s">
         <v>796</v>
@@ -10247,12 +10309,12 @@
       </c>
       <c r="F287" s="3"/>
       <c r="G287" s="18" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="H287" s="3"/>
       <c r="I287" s="3"/>
     </row>
-    <row r="288" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A288" s="3"/>
       <c r="B288" s="3"/>
       <c r="C288" s="3"/>
@@ -10262,12 +10324,12 @@
       </c>
       <c r="F288" s="3"/>
       <c r="G288" s="18" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="H288" s="3"/>
       <c r="I288" s="3"/>
     </row>
-    <row r="289" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A289" s="3"/>
       <c r="B289" s="3" t="s">
         <v>797</v>
@@ -10283,12 +10345,12 @@
       </c>
       <c r="F289" s="3"/>
       <c r="G289" s="18" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="H289" s="3"/>
       <c r="I289" s="3"/>
     </row>
-    <row r="290" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A290" s="3"/>
       <c r="B290" s="3" t="s">
         <v>798</v>
@@ -10302,12 +10364,12 @@
       </c>
       <c r="F290" s="3"/>
       <c r="G290" s="18" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="H290" s="3"/>
       <c r="I290" s="3"/>
     </row>
-    <row r="291" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A291" s="3"/>
       <c r="B291" s="3" t="s">
         <v>799</v>
@@ -10321,12 +10383,12 @@
       </c>
       <c r="F291" s="3"/>
       <c r="G291" s="18" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="H291" s="3"/>
       <c r="I291" s="3"/>
     </row>
-    <row r="292" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A292" s="3"/>
       <c r="B292" s="3" t="s">
         <v>800</v>
@@ -10340,12 +10402,12 @@
       </c>
       <c r="F292" s="3"/>
       <c r="G292" s="18" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="H292" s="3"/>
       <c r="I292" s="3"/>
     </row>
-    <row r="293" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A293" s="3"/>
       <c r="B293" s="3" t="s">
         <v>801</v>
@@ -10359,12 +10421,12 @@
       </c>
       <c r="F293" s="3"/>
       <c r="G293" s="18" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="H293" s="3"/>
       <c r="I293" s="3"/>
     </row>
-    <row r="294" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A294" s="3"/>
       <c r="B294" s="3" t="s">
         <v>802</v>
@@ -10378,12 +10440,12 @@
       </c>
       <c r="F294" s="3"/>
       <c r="G294" s="18" t="s">
-        <v>1080</v>
+        <v>1076</v>
       </c>
       <c r="H294" s="3"/>
       <c r="I294" s="3"/>
     </row>
-    <row r="295" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A295" s="3"/>
       <c r="B295" s="3"/>
       <c r="C295" s="3"/>
@@ -10396,7 +10458,7 @@
       <c r="H295" s="3"/>
       <c r="I295" s="3"/>
     </row>
-    <row r="296" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A296" s="3"/>
       <c r="B296" s="3" t="s">
         <v>803</v>
@@ -10415,7 +10477,7 @@
       <c r="H296" s="3"/>
       <c r="I296" s="3"/>
     </row>
-    <row r="297" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A297" s="3"/>
       <c r="B297" s="3" t="s">
         <v>804</v>
@@ -10432,7 +10494,7 @@
       <c r="H297" s="3"/>
       <c r="I297" s="3"/>
     </row>
-    <row r="298" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A298" s="3"/>
       <c r="B298" s="3" t="s">
         <v>805</v>
@@ -10449,7 +10511,7 @@
       <c r="H298" s="3"/>
       <c r="I298" s="3"/>
     </row>
-    <row r="299" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A299" s="3"/>
       <c r="B299" s="3" t="s">
         <v>806</v>
@@ -10466,7 +10528,7 @@
       <c r="H299" s="3"/>
       <c r="I299" s="3"/>
     </row>
-    <row r="300" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A300" s="3"/>
       <c r="B300" s="3" t="s">
         <v>807</v>
@@ -10483,7 +10545,7 @@
       <c r="H300" s="3"/>
       <c r="I300" s="3"/>
     </row>
-    <row r="301" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A301" s="3"/>
       <c r="B301" s="3" t="s">
         <v>808</v>
@@ -10500,7 +10562,7 @@
       <c r="H301" s="3"/>
       <c r="I301" s="3"/>
     </row>
-    <row r="302" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A302" s="3"/>
       <c r="B302" s="3" t="s">
         <v>809</v>
@@ -10517,7 +10579,7 @@
       <c r="H302" s="3"/>
       <c r="I302" s="3"/>
     </row>
-    <row r="303" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A303" s="3"/>
       <c r="B303" s="3" t="s">
         <v>810</v>
@@ -10534,7 +10596,7 @@
       <c r="H303" s="3"/>
       <c r="I303" s="3"/>
     </row>
-    <row r="304" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A304" s="3"/>
       <c r="B304" s="3" t="s">
         <v>811</v>
@@ -10551,7 +10613,7 @@
       <c r="H304" s="3"/>
       <c r="I304" s="3"/>
     </row>
-    <row r="305" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A305" s="3"/>
       <c r="B305" s="3" t="s">
         <v>812</v>
@@ -10568,7 +10630,7 @@
       <c r="H305" s="3"/>
       <c r="I305" s="3"/>
     </row>
-    <row r="306" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A306" s="3"/>
       <c r="B306" s="3" t="s">
         <v>813</v>
@@ -10585,7 +10647,7 @@
       <c r="H306" s="3"/>
       <c r="I306" s="3"/>
     </row>
-    <row r="307" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A307" s="3"/>
       <c r="B307" s="3" t="s">
         <v>814</v>
@@ -10602,7 +10664,7 @@
       <c r="H307" s="3"/>
       <c r="I307" s="3"/>
     </row>
-    <row r="308" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A308" s="3"/>
       <c r="B308" s="3" t="s">
         <v>815</v>
@@ -10619,7 +10681,7 @@
       <c r="H308" s="3"/>
       <c r="I308" s="3"/>
     </row>
-    <row r="309" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A309" s="3"/>
       <c r="B309" s="3" t="s">
         <v>816</v>
@@ -10636,7 +10698,7 @@
       <c r="H309" s="3"/>
       <c r="I309" s="3"/>
     </row>
-    <row r="310" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A310" s="3"/>
       <c r="B310" s="3" t="s">
         <v>817</v>
@@ -10653,7 +10715,7 @@
       <c r="H310" s="3"/>
       <c r="I310" s="3"/>
     </row>
-    <row r="311" spans="1:9" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="3"/>
       <c r="B311" s="3" t="s">
         <v>818</v>
@@ -10670,7 +10732,7 @@
       <c r="H311" s="3"/>
       <c r="I311" s="3"/>
     </row>
-    <row r="312" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A312" s="3"/>
       <c r="B312" s="3" t="s">
         <v>819</v>
@@ -10687,7 +10749,7 @@
       <c r="H312" s="3"/>
       <c r="I312" s="3"/>
     </row>
-    <row r="313" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A313" s="3"/>
       <c r="B313" s="3" t="s">
         <v>820</v>
@@ -10704,7 +10766,7 @@
       <c r="H313" s="3"/>
       <c r="I313" s="3"/>
     </row>
-    <row r="314" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A314" s="3"/>
       <c r="B314" s="3" t="s">
         <v>821</v>
@@ -10721,7 +10783,7 @@
       <c r="H314" s="3"/>
       <c r="I314" s="3"/>
     </row>
-    <row r="315" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A315" s="3"/>
       <c r="B315" s="3" t="s">
         <v>822</v>
@@ -10738,7 +10800,7 @@
       <c r="H315" s="3"/>
       <c r="I315" s="3"/>
     </row>
-    <row r="316" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A316" s="3"/>
       <c r="B316" s="3" t="s">
         <v>823</v>
@@ -10755,7 +10817,7 @@
       <c r="H316" s="3"/>
       <c r="I316" s="3"/>
     </row>
-    <row r="317" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A317" s="3"/>
       <c r="B317" s="3" t="s">
         <v>824</v>
@@ -10772,7 +10834,7 @@
       <c r="H317" s="3"/>
       <c r="I317" s="3"/>
     </row>
-    <row r="318" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A318" s="3"/>
       <c r="B318" s="3" t="s">
         <v>825</v>
@@ -10789,7 +10851,7 @@
       <c r="H318" s="3"/>
       <c r="I318" s="3"/>
     </row>
-    <row r="319" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A319" s="3"/>
       <c r="B319" s="3" t="s">
         <v>826</v>
@@ -10806,7 +10868,7 @@
       <c r="H319" s="3"/>
       <c r="I319" s="3"/>
     </row>
-    <row r="320" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A320" s="3"/>
       <c r="B320" s="3" t="s">
         <v>827</v>
@@ -10823,7 +10885,7 @@
       <c r="H320" s="3"/>
       <c r="I320" s="3"/>
     </row>
-    <row r="321" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A321" s="3"/>
       <c r="B321" s="3" t="s">
         <v>828</v>
@@ -10840,7 +10902,7 @@
       <c r="H321" s="3"/>
       <c r="I321" s="3"/>
     </row>
-    <row r="322" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A322" s="3"/>
       <c r="B322" s="3" t="s">
         <v>829</v>
@@ -10857,7 +10919,7 @@
       <c r="H322" s="3"/>
       <c r="I322" s="3"/>
     </row>
-    <row r="323" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A323" s="3"/>
       <c r="B323" s="3" t="s">
         <v>830</v>
@@ -10874,7 +10936,7 @@
       <c r="H323" s="3"/>
       <c r="I323" s="3"/>
     </row>
-    <row r="324" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A324" s="3"/>
       <c r="B324" s="3" t="s">
         <v>831</v>
@@ -10891,7 +10953,7 @@
       <c r="H324" s="3"/>
       <c r="I324" s="3"/>
     </row>
-    <row r="325" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A325" s="3"/>
       <c r="B325" s="3" t="s">
         <v>832</v>
@@ -10908,7 +10970,7 @@
       <c r="H325" s="3"/>
       <c r="I325" s="3"/>
     </row>
-    <row r="326" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A326" s="3"/>
       <c r="B326" s="3" t="s">
         <v>833</v>
@@ -10925,7 +10987,7 @@
       <c r="H326" s="3"/>
       <c r="I326" s="3"/>
     </row>
-    <row r="327" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A327" s="3"/>
       <c r="B327" s="3"/>
       <c r="C327" s="3"/>
@@ -10938,7 +11000,7 @@
       <c r="H327" s="3"/>
       <c r="I327" s="3"/>
     </row>
-    <row r="328" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A328" s="3"/>
       <c r="B328" s="12" t="s">
         <v>834</v>
@@ -10957,7 +11019,7 @@
       <c r="H328" s="3"/>
       <c r="I328" s="3"/>
     </row>
-    <row r="329" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A329" s="3"/>
       <c r="B329" s="13" t="s">
         <v>835</v>
@@ -10974,7 +11036,7 @@
       <c r="H329" s="3"/>
       <c r="I329" s="3"/>
     </row>
-    <row r="330" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A330" s="3"/>
       <c r="B330" s="12" t="s">
         <v>836</v>
@@ -10991,7 +11053,7 @@
       <c r="H330" s="3"/>
       <c r="I330" s="3"/>
     </row>
-    <row r="331" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A331" s="3"/>
       <c r="B331" s="13" t="s">
         <v>837</v>
@@ -11008,7 +11070,7 @@
       <c r="H331" s="3"/>
       <c r="I331" s="3"/>
     </row>
-    <row r="332" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A332" s="3"/>
       <c r="B332" s="12" t="s">
         <v>838</v>
@@ -11025,7 +11087,7 @@
       <c r="H332" s="3"/>
       <c r="I332" s="3"/>
     </row>
-    <row r="333" spans="1:9" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="3"/>
       <c r="B333" s="13" t="s">
         <v>839</v>
@@ -11042,7 +11104,7 @@
       <c r="H333" s="3"/>
       <c r="I333" s="3"/>
     </row>
-    <row r="334" spans="1:9" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="3"/>
       <c r="B334" s="12" t="s">
         <v>840</v>
@@ -11059,7 +11121,7 @@
       <c r="H334" s="3"/>
       <c r="I334" s="3"/>
     </row>
-    <row r="335" spans="1:9" ht="16" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="3"/>
       <c r="B335" s="13" t="s">
         <v>841</v>
@@ -11076,7 +11138,7 @@
       <c r="H335" s="3"/>
       <c r="I335" s="3"/>
     </row>
-    <row r="336" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A336" s="3"/>
       <c r="B336" s="10" t="s">
         <v>842</v>
@@ -11093,7 +11155,7 @@
       <c r="H336" s="3"/>
       <c r="I336" s="3"/>
     </row>
-    <row r="337" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A337" s="3"/>
       <c r="B337" s="10" t="s">
         <v>843</v>
@@ -11110,7 +11172,7 @@
       <c r="H337" s="3"/>
       <c r="I337" s="3"/>
     </row>
-    <row r="338" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A338" s="3"/>
       <c r="B338" s="10" t="s">
         <v>844</v>
@@ -11127,7 +11189,7 @@
       <c r="H338" s="3"/>
       <c r="I338" s="3"/>
     </row>
-    <row r="339" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A339" s="3"/>
       <c r="B339" s="10" t="s">
         <v>845</v>
@@ -11144,7 +11206,7 @@
       <c r="H339" s="3"/>
       <c r="I339" s="3"/>
     </row>
-    <row r="340" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A340" s="3"/>
       <c r="B340" s="10" t="s">
         <v>846</v>
@@ -11161,7 +11223,7 @@
       <c r="H340" s="3"/>
       <c r="I340" s="3"/>
     </row>
-    <row r="341" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="B341" s="10" t="s">
         <v>847</v>
       </c>
@@ -11176,7 +11238,7 @@
       <c r="H341" s="3"/>
       <c r="I341" s="3"/>
     </row>
-    <row r="342" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="B342" s="10" t="s">
         <v>848</v>
       </c>
@@ -11191,7 +11253,7 @@
       <c r="H342" s="3"/>
       <c r="I342" s="3"/>
     </row>
-    <row r="343" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="B343" s="10" t="s">
         <v>849</v>
       </c>
@@ -11206,7 +11268,7 @@
       <c r="H343" s="3"/>
       <c r="I343" s="3"/>
     </row>
-    <row r="344" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="B344" s="10" t="s">
         <v>850</v>
       </c>
@@ -11221,7 +11283,7 @@
       <c r="H344" s="3"/>
       <c r="I344" s="3"/>
     </row>
-    <row r="345" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="B345" s="10" t="s">
         <v>851</v>
       </c>
@@ -11236,7 +11298,7 @@
       <c r="H345" s="3"/>
       <c r="I345" s="3"/>
     </row>
-    <row r="346" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="B346" s="10" t="s">
         <v>852</v>
       </c>
@@ -11251,7 +11313,7 @@
       <c r="H346" s="3"/>
       <c r="I346" s="3"/>
     </row>
-    <row r="347" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="B347" s="10" t="s">
         <v>853</v>
       </c>
@@ -11266,7 +11328,7 @@
       <c r="H347" s="3"/>
       <c r="I347" s="3"/>
     </row>
-    <row r="348" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="B348" s="10" t="s">
         <v>854</v>
       </c>
@@ -11281,7 +11343,7 @@
       <c r="H348" s="3"/>
       <c r="I348" s="3"/>
     </row>
-    <row r="349" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B349" s="3"/>
       <c r="C349" s="3"/>
       <c r="D349" s="3"/>
@@ -11292,7 +11354,7 @@
       <c r="H349" s="3"/>
       <c r="I349" s="3"/>
     </row>
-    <row r="350" spans="1:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="B350" s="3" t="s">
         <v>855</v>
       </c>
@@ -11309,7 +11371,7 @@
       <c r="H350" s="3"/>
       <c r="I350" s="3"/>
     </row>
-    <row r="351" spans="1:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B351" s="3"/>
       <c r="C351" s="3"/>
       <c r="D351" s="3"/>
@@ -11320,7 +11382,7 @@
       <c r="H351" s="3"/>
       <c r="I351" s="3"/>
     </row>
-    <row r="352" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="B352" s="3" t="s">
         <v>856</v>
       </c>
@@ -11337,7 +11399,7 @@
       <c r="H352" s="3"/>
       <c r="I352" s="3"/>
     </row>
-    <row r="353" spans="2:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="2:9" ht="34" x14ac:dyDescent="0.2">
       <c r="B353" s="3" t="s">
         <v>857</v>
       </c>
@@ -11352,7 +11414,7 @@
       <c r="H353" s="3"/>
       <c r="I353" s="3"/>
     </row>
-    <row r="354" spans="2:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="2:9" ht="34" x14ac:dyDescent="0.2">
       <c r="B354" s="3" t="s">
         <v>858</v>
       </c>
@@ -11367,7 +11429,7 @@
       <c r="H354" s="3"/>
       <c r="I354" s="3"/>
     </row>
-    <row r="355" spans="2:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="2:9" ht="34" x14ac:dyDescent="0.2">
       <c r="B355" s="3" t="s">
         <v>859</v>
       </c>
@@ -11382,7 +11444,7 @@
       <c r="H355" s="3"/>
       <c r="I355" s="3"/>
     </row>
-    <row r="356" spans="2:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="2:9" ht="34" x14ac:dyDescent="0.2">
       <c r="B356" s="3" t="s">
         <v>860</v>
       </c>
@@ -11397,7 +11459,7 @@
       <c r="H356" s="3"/>
       <c r="I356" s="3"/>
     </row>
-    <row r="357" spans="2:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="2:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B357" s="3"/>
       <c r="C357" s="3"/>
       <c r="D357" s="3"/>
@@ -11408,7 +11470,7 @@
       <c r="H357" s="3"/>
       <c r="I357" s="3"/>
     </row>
-    <row r="358" spans="2:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="2:9" ht="51" x14ac:dyDescent="0.2">
       <c r="B358" s="12" t="s">
         <v>861</v>
       </c>
@@ -11425,7 +11487,7 @@
       <c r="H358" s="3"/>
       <c r="I358" s="3"/>
     </row>
-    <row r="359" spans="2:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="2:9" ht="34" x14ac:dyDescent="0.2">
       <c r="B359" s="12" t="s">
         <v>862</v>
       </c>
@@ -11440,7 +11502,7 @@
       <c r="H359" s="3"/>
       <c r="I359" s="3"/>
     </row>
-    <row r="360" spans="2:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="2:9" ht="34" x14ac:dyDescent="0.2">
       <c r="B360" s="13" t="s">
         <v>863</v>
       </c>
@@ -11455,7 +11517,7 @@
       <c r="H360" s="3"/>
       <c r="I360" s="3"/>
     </row>
-    <row r="361" spans="2:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="2:9" ht="34" x14ac:dyDescent="0.2">
       <c r="B361" s="11" t="s">
         <v>864</v>
       </c>
@@ -11470,7 +11532,7 @@
       <c r="H361" s="3"/>
       <c r="I361" s="3"/>
     </row>
-    <row r="362" spans="2:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="2:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B362" s="13"/>
       <c r="C362" s="3"/>
       <c r="D362" s="3"/>
@@ -11481,7 +11543,7 @@
       <c r="H362" s="3"/>
       <c r="I362" s="3"/>
     </row>
-    <row r="363" spans="2:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="2:9" ht="51" x14ac:dyDescent="0.2">
       <c r="B363" s="12" t="s">
         <v>865</v>
       </c>
@@ -11498,7 +11560,7 @@
       <c r="H363" s="3"/>
       <c r="I363" s="3"/>
     </row>
-    <row r="364" spans="2:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="2:9" ht="51" x14ac:dyDescent="0.2">
       <c r="B364" s="11" t="s">
         <v>866</v>
       </c>
@@ -11513,7 +11575,7 @@
       <c r="H364" s="3"/>
       <c r="I364" s="3"/>
     </row>
-    <row r="365" spans="2:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="2:9" ht="51" x14ac:dyDescent="0.2">
       <c r="B365" s="12" t="s">
         <v>867</v>
       </c>
@@ -11528,7 +11590,7 @@
       <c r="H365" s="3"/>
       <c r="I365" s="3"/>
     </row>
-    <row r="366" spans="2:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="2:9" ht="51" x14ac:dyDescent="0.2">
       <c r="B366" s="13" t="s">
         <v>868</v>
       </c>
@@ -11543,7 +11605,7 @@
       <c r="H366" s="3"/>
       <c r="I366" s="3"/>
     </row>
-    <row r="367" spans="2:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="2:9" ht="51" x14ac:dyDescent="0.2">
       <c r="B367" s="12" t="s">
         <v>869</v>
       </c>
@@ -11558,7 +11620,7 @@
       <c r="H367" s="3"/>
       <c r="I367" s="3"/>
     </row>
-    <row r="368" spans="2:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="2:9" ht="51" x14ac:dyDescent="0.2">
       <c r="B368" s="11" t="s">
         <v>870</v>
       </c>
@@ -11573,7 +11635,7 @@
       <c r="H368" s="3"/>
       <c r="I368" s="3"/>
     </row>
-    <row r="369" spans="2:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="2:9" ht="51" x14ac:dyDescent="0.2">
       <c r="B369" s="11" t="s">
         <v>871</v>
       </c>
@@ -11588,7 +11650,7 @@
       <c r="H369" s="3"/>
       <c r="I369" s="3"/>
     </row>
-    <row r="370" spans="2:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="2:9" ht="51" x14ac:dyDescent="0.2">
       <c r="B370" s="11" t="s">
         <v>872</v>
       </c>
@@ -11603,7 +11665,7 @@
       <c r="H370" s="3"/>
       <c r="I370" s="3"/>
     </row>
-    <row r="371" spans="2:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="2:9" ht="51" x14ac:dyDescent="0.2">
       <c r="B371" s="12" t="s">
         <v>873</v>
       </c>
@@ -11618,7 +11680,7 @@
       <c r="H371" s="3"/>
       <c r="I371" s="3"/>
     </row>
-    <row r="372" spans="2:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="2:9" ht="51" x14ac:dyDescent="0.2">
       <c r="B372" s="13" t="s">
         <v>874</v>
       </c>
@@ -11633,7 +11695,7 @@
       <c r="H372" s="3"/>
       <c r="I372" s="3"/>
     </row>
-    <row r="373" spans="2:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="2:9" ht="51" x14ac:dyDescent="0.2">
       <c r="B373" s="12" t="s">
         <v>875</v>
       </c>
@@ -11648,7 +11710,7 @@
       <c r="H373" s="3"/>
       <c r="I373" s="3"/>
     </row>
-    <row r="374" spans="2:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="2:9" ht="51" x14ac:dyDescent="0.2">
       <c r="B374" s="13" t="s">
         <v>876</v>
       </c>
@@ -11663,7 +11725,7 @@
       <c r="H374" s="3"/>
       <c r="I374" s="3"/>
     </row>
-    <row r="375" spans="2:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="2:9" ht="51" x14ac:dyDescent="0.2">
       <c r="B375" s="12" t="s">
         <v>877</v>
       </c>
@@ -11678,7 +11740,7 @@
       <c r="H375" s="3"/>
       <c r="I375" s="3"/>
     </row>
-    <row r="376" spans="2:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="2:9" ht="51" x14ac:dyDescent="0.2">
       <c r="B376" s="13" t="s">
         <v>878</v>
       </c>
@@ -11693,7 +11755,7 @@
       <c r="H376" s="3"/>
       <c r="I376" s="3"/>
     </row>
-    <row r="377" spans="2:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="2:9" ht="51" x14ac:dyDescent="0.2">
       <c r="B377" s="12" t="s">
         <v>879</v>
       </c>
@@ -11708,7 +11770,7 @@
       <c r="H377" s="3"/>
       <c r="I377" s="3"/>
     </row>
-    <row r="378" spans="2:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="2:9" ht="51" x14ac:dyDescent="0.2">
       <c r="B378" s="13" t="s">
         <v>880</v>
       </c>
@@ -11723,7 +11785,7 @@
       <c r="H378" s="3"/>
       <c r="I378" s="3"/>
     </row>
-    <row r="379" spans="2:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="2:9" ht="51" x14ac:dyDescent="0.2">
       <c r="B379" s="12" t="s">
         <v>881</v>
       </c>
@@ -11738,7 +11800,7 @@
       <c r="H379" s="3"/>
       <c r="I379" s="3"/>
     </row>
-    <row r="380" spans="2:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="2:9" ht="51" x14ac:dyDescent="0.2">
       <c r="B380" s="11" t="s">
         <v>882</v>
       </c>
@@ -11753,7 +11815,7 @@
       <c r="H380" s="3"/>
       <c r="I380" s="3"/>
     </row>
-    <row r="381" spans="2:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="2:9" ht="51" x14ac:dyDescent="0.2">
       <c r="B381" s="11" t="s">
         <v>883</v>
       </c>
@@ -11768,7 +11830,7 @@
       <c r="H381" s="3"/>
       <c r="I381" s="3"/>
     </row>
-    <row r="382" spans="2:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="2:9" ht="51" x14ac:dyDescent="0.2">
       <c r="B382" s="11" t="s">
         <v>884</v>
       </c>
@@ -11783,7 +11845,7 @@
       <c r="H382" s="3"/>
       <c r="I382" s="3"/>
     </row>
-    <row r="383" spans="2:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="2:9" ht="51" x14ac:dyDescent="0.2">
       <c r="B383" s="12" t="s">
         <v>885</v>
       </c>
@@ -11798,7 +11860,7 @@
       <c r="H383" s="3"/>
       <c r="I383" s="3"/>
     </row>
-    <row r="384" spans="2:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="2:9" ht="51" x14ac:dyDescent="0.2">
       <c r="B384" s="13" t="s">
         <v>886</v>
       </c>
@@ -11813,7 +11875,7 @@
       <c r="H384" s="3"/>
       <c r="I384" s="3"/>
     </row>
-    <row r="385" spans="2:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="2:9" ht="51" x14ac:dyDescent="0.2">
       <c r="B385" s="12" t="s">
         <v>887</v>
       </c>
@@ -11828,7 +11890,7 @@
       <c r="H385" s="3"/>
       <c r="I385" s="3"/>
     </row>
-    <row r="386" spans="2:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="2:9" ht="51" x14ac:dyDescent="0.2">
       <c r="B386" s="13" t="s">
         <v>888</v>
       </c>
@@ -11843,7 +11905,7 @@
       <c r="H386" s="3"/>
       <c r="I386" s="3"/>
     </row>
-    <row r="387" spans="2:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="2:9" ht="51" x14ac:dyDescent="0.2">
       <c r="B387" s="12" t="s">
         <v>889</v>
       </c>
@@ -11858,7 +11920,7 @@
       <c r="H387" s="3"/>
       <c r="I387" s="3"/>
     </row>
-    <row r="388" spans="2:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="2:9" ht="51" x14ac:dyDescent="0.2">
       <c r="B388" s="13" t="s">
         <v>890</v>
       </c>
@@ -11873,7 +11935,7 @@
       <c r="H388" s="3"/>
       <c r="I388" s="3"/>
     </row>
-    <row r="389" spans="2:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="2:9" ht="51" x14ac:dyDescent="0.2">
       <c r="B389" s="12" t="s">
         <v>891</v>
       </c>
@@ -11888,7 +11950,7 @@
       <c r="H389" s="3"/>
       <c r="I389" s="3"/>
     </row>
-    <row r="390" spans="2:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="2:9" ht="51" x14ac:dyDescent="0.2">
       <c r="B390" s="13" t="s">
         <v>892</v>
       </c>
@@ -11903,7 +11965,7 @@
       <c r="H390" s="3"/>
       <c r="I390" s="3"/>
     </row>
-    <row r="391" spans="2:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="2:9" ht="51" x14ac:dyDescent="0.2">
       <c r="B391" s="12" t="s">
         <v>893</v>
       </c>
@@ -11918,7 +11980,7 @@
       <c r="H391" s="3"/>
       <c r="I391" s="3"/>
     </row>
-    <row r="392" spans="2:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="2:9" ht="51" x14ac:dyDescent="0.2">
       <c r="B392" s="13" t="s">
         <v>894</v>
       </c>
@@ -11933,7 +11995,7 @@
       <c r="H392" s="3"/>
       <c r="I392" s="3"/>
     </row>
-    <row r="393" spans="2:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="2:9" ht="51" x14ac:dyDescent="0.2">
       <c r="B393" s="12" t="s">
         <v>895</v>
       </c>
@@ -11948,7 +12010,7 @@
       <c r="H393" s="3"/>
       <c r="I393" s="3"/>
     </row>
-    <row r="394" spans="2:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="2:9" ht="51" x14ac:dyDescent="0.2">
       <c r="B394" s="13" t="s">
         <v>896</v>
       </c>
@@ -11963,7 +12025,7 @@
       <c r="H394" s="3"/>
       <c r="I394" s="3"/>
     </row>
-    <row r="395" spans="2:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="2:9" ht="51" x14ac:dyDescent="0.2">
       <c r="B395" s="12" t="s">
         <v>897</v>
       </c>
@@ -11978,7 +12040,7 @@
       <c r="H395" s="3"/>
       <c r="I395" s="3"/>
     </row>
-    <row r="396" spans="2:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="2:9" ht="51" x14ac:dyDescent="0.2">
       <c r="B396" s="13" t="s">
         <v>898</v>
       </c>
@@ -11993,7 +12055,7 @@
       <c r="H396" s="3"/>
       <c r="I396" s="3"/>
     </row>
-    <row r="397" spans="2:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="2:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B397" s="12"/>
       <c r="C397" s="3"/>
       <c r="D397" s="3"/>
@@ -12004,7 +12066,7 @@
       <c r="H397" s="3"/>
       <c r="I397" s="3"/>
     </row>
-    <row r="398" spans="2:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="2:9" ht="51" x14ac:dyDescent="0.2">
       <c r="B398" s="12" t="s">
         <v>899</v>
       </c>
@@ -12021,7 +12083,7 @@
       <c r="H398" s="3"/>
       <c r="I398" s="3"/>
     </row>
-    <row r="399" spans="2:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="2:9" ht="51" x14ac:dyDescent="0.2">
       <c r="B399" s="13" t="s">
         <v>900</v>
       </c>
@@ -12036,7 +12098,7 @@
       <c r="H399" s="3"/>
       <c r="I399" s="3"/>
     </row>
-    <row r="400" spans="2:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="2:9" ht="51" x14ac:dyDescent="0.2">
       <c r="B400" s="12" t="s">
         <v>901</v>
       </c>
@@ -12051,7 +12113,7 @@
       <c r="H400" s="3"/>
       <c r="I400" s="3"/>
     </row>
-    <row r="401" spans="2:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="2:9" ht="51" x14ac:dyDescent="0.2">
       <c r="B401" s="13" t="s">
         <v>902</v>
       </c>
@@ -12066,7 +12128,7 @@
       <c r="H401" s="3"/>
       <c r="I401" s="3"/>
     </row>
-    <row r="402" spans="2:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="2:9" ht="51" x14ac:dyDescent="0.2">
       <c r="B402" s="12" t="s">
         <v>903</v>
       </c>
@@ -12081,7 +12143,7 @@
       <c r="H402" s="3"/>
       <c r="I402" s="3"/>
     </row>
-    <row r="403" spans="2:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="2:9" ht="51" x14ac:dyDescent="0.2">
       <c r="B403" s="13" t="s">
         <v>904</v>
       </c>
@@ -12096,7 +12158,7 @@
       <c r="H403" s="3"/>
       <c r="I403" s="3"/>
     </row>
-    <row r="404" spans="2:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="2:9" ht="51" x14ac:dyDescent="0.2">
       <c r="B404" s="12" t="s">
         <v>905</v>
       </c>
@@ -12111,7 +12173,7 @@
       <c r="H404" s="3"/>
       <c r="I404" s="3"/>
     </row>
-    <row r="405" spans="2:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="2:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B405" s="12"/>
       <c r="C405" s="3"/>
       <c r="D405" s="3"/>
@@ -12122,7 +12184,7 @@
       <c r="H405" s="3"/>
       <c r="I405" s="3"/>
     </row>
-    <row r="406" spans="2:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="2:9" ht="51" x14ac:dyDescent="0.2">
       <c r="B406" s="12" t="s">
         <v>906</v>
       </c>
@@ -12139,7 +12201,7 @@
       <c r="H406" s="3"/>
       <c r="I406" s="3"/>
     </row>
-    <row r="407" spans="2:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="2:9" ht="51" x14ac:dyDescent="0.2">
       <c r="B407" s="13" t="s">
         <v>907</v>
       </c>
@@ -12154,7 +12216,7 @@
       <c r="H407" s="3"/>
       <c r="I407" s="3"/>
     </row>
-    <row r="408" spans="2:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="2:9" ht="17" x14ac:dyDescent="0.2">
       <c r="B408" s="13"/>
       <c r="C408" s="3"/>
       <c r="D408" s="3"/>
@@ -12165,7 +12227,7 @@
       <c r="H408" s="3"/>
       <c r="I408" s="3"/>
     </row>
-    <row r="409" spans="2:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="2:9" ht="51" x14ac:dyDescent="0.2">
       <c r="B409" s="3" t="s">
         <v>908</v>
       </c>
@@ -12182,7 +12244,7 @@
       <c r="H409" s="3"/>
       <c r="I409" s="3"/>
     </row>
-    <row r="410" spans="2:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="2:9" ht="51" x14ac:dyDescent="0.2">
       <c r="B410" s="3" t="s">
         <v>909</v>
       </c>
@@ -12197,7 +12259,7 @@
       <c r="H410" s="3"/>
       <c r="I410" s="3"/>
     </row>
-    <row r="411" spans="2:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="2:9" ht="51" x14ac:dyDescent="0.2">
       <c r="B411" s="3" t="s">
         <v>910</v>
       </c>
@@ -12212,7 +12274,7 @@
       <c r="H411" s="3"/>
       <c r="I411" s="3"/>
     </row>
-    <row r="412" spans="2:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="2:9" ht="34" x14ac:dyDescent="0.2">
       <c r="B412" s="3" t="s">
         <v>911</v>
       </c>
@@ -12227,7 +12289,7 @@
       <c r="H412" s="3"/>
       <c r="I412" s="3"/>
     </row>
-    <row r="413" spans="2:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="2:9" ht="17" x14ac:dyDescent="0.2">
       <c r="C413" s="3"/>
       <c r="D413" s="3"/>
       <c r="E413" s="1" t="s">
@@ -12237,7 +12299,7 @@
       <c r="H413" s="3"/>
       <c r="I413" s="3"/>
     </row>
-    <row r="414" spans="2:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="2:9" ht="51" x14ac:dyDescent="0.2">
       <c r="B414" s="3" t="s">
         <v>912</v>
       </c>
@@ -12254,7 +12316,7 @@
       <c r="H414" s="3"/>
       <c r="I414" s="3"/>
     </row>
-    <row r="415" spans="2:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="2:9" ht="51" x14ac:dyDescent="0.2">
       <c r="B415" s="3" t="s">
         <v>913</v>
       </c>
@@ -12269,7 +12331,7 @@
       <c r="H415" s="3"/>
       <c r="I415" s="3"/>
     </row>
-    <row r="416" spans="2:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="2:9" ht="51" x14ac:dyDescent="0.2">
       <c r="B416" s="3" t="s">
         <v>914</v>
       </c>
@@ -12284,7 +12346,7 @@
       <c r="H416" s="3"/>
       <c r="I416" s="3"/>
     </row>
-    <row r="417" spans="2:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="2:9" ht="51" x14ac:dyDescent="0.2">
       <c r="B417" s="3" t="s">
         <v>915</v>
       </c>
@@ -12299,7 +12361,7 @@
       <c r="H417" s="3"/>
       <c r="I417" s="3"/>
     </row>
-    <row r="418" spans="2:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="2:9" ht="51" x14ac:dyDescent="0.2">
       <c r="B418" s="3" t="s">
         <v>916</v>
       </c>
@@ -12314,7 +12376,7 @@
       <c r="H418" s="3"/>
       <c r="I418" s="3"/>
     </row>
-    <row r="419" spans="2:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="2:9" ht="51" x14ac:dyDescent="0.2">
       <c r="B419" s="3" t="s">
         <v>917</v>
       </c>
@@ -12329,7 +12391,7 @@
       <c r="H419" s="3"/>
       <c r="I419" s="3"/>
     </row>
-    <row r="420" spans="2:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="2:9" ht="51" x14ac:dyDescent="0.2">
       <c r="B420" s="3" t="s">
         <v>918</v>
       </c>
@@ -12344,7 +12406,7 @@
       <c r="H420" s="3"/>
       <c r="I420" s="3"/>
     </row>
-    <row r="421" spans="2:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="2:9" ht="51" x14ac:dyDescent="0.2">
       <c r="B421" s="3" t="s">
         <v>919</v>
       </c>
@@ -12359,7 +12421,7 @@
       <c r="H421" s="3"/>
       <c r="I421" s="3"/>
     </row>
-    <row r="422" spans="2:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="2:9" ht="51" x14ac:dyDescent="0.2">
       <c r="B422" s="3" t="s">
         <v>920</v>
       </c>
@@ -12374,7 +12436,7 @@
       <c r="H422" s="3"/>
       <c r="I422" s="3"/>
     </row>
-    <row r="423" spans="2:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="2:9" ht="17" x14ac:dyDescent="0.2">
       <c r="C423" s="3"/>
       <c r="D423" s="3"/>
       <c r="E423" s="1" t="s">
@@ -12384,7 +12446,7 @@
       <c r="H423" s="3"/>
       <c r="I423" s="3"/>
     </row>
-    <row r="424" spans="2:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="2:9" ht="51" x14ac:dyDescent="0.2">
       <c r="B424" s="3" t="s">
         <v>921</v>
       </c>
@@ -12401,7 +12463,7 @@
       <c r="H424" s="3"/>
       <c r="I424" s="3"/>
     </row>
-    <row r="425" spans="2:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="2:9" ht="51" x14ac:dyDescent="0.2">
       <c r="B425" s="3" t="s">
         <v>922</v>
       </c>
@@ -12416,7 +12478,7 @@
       <c r="H425" s="3"/>
       <c r="I425" s="3"/>
     </row>
-    <row r="426" spans="2:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="2:9" ht="51" x14ac:dyDescent="0.2">
       <c r="B426" s="3" t="s">
         <v>923</v>
       </c>
@@ -12431,7 +12493,7 @@
       <c r="H426" s="3"/>
       <c r="I426" s="3"/>
     </row>
-    <row r="427" spans="2:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="2:9" ht="51" x14ac:dyDescent="0.2">
       <c r="B427" s="3" t="s">
         <v>924</v>
       </c>
@@ -12446,7 +12508,7 @@
       <c r="H427" s="3"/>
       <c r="I427" s="3"/>
     </row>
-    <row r="428" spans="2:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="2:9" ht="51" x14ac:dyDescent="0.2">
       <c r="B428" s="3" t="s">
         <v>925</v>
       </c>
@@ -12461,7 +12523,7 @@
       <c r="H428" s="3"/>
       <c r="I428" s="3"/>
     </row>
-    <row r="429" spans="2:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="2:9" ht="51" x14ac:dyDescent="0.2">
       <c r="B429" s="3" t="s">
         <v>926</v>
       </c>
@@ -12476,7 +12538,7 @@
       <c r="H429" s="3"/>
       <c r="I429" s="3"/>
     </row>
-    <row r="430" spans="2:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="2:9" ht="51" x14ac:dyDescent="0.2">
       <c r="B430" s="3" t="s">
         <v>927</v>
       </c>
@@ -12491,7 +12553,7 @@
       <c r="H430" s="3"/>
       <c r="I430" s="3"/>
     </row>
-    <row r="431" spans="2:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="2:9" ht="17" x14ac:dyDescent="0.2">
       <c r="C431" s="3"/>
       <c r="D431" s="3"/>
       <c r="E431" s="1" t="s">
@@ -12501,7 +12563,7 @@
       <c r="H431" s="3"/>
       <c r="I431" s="3"/>
     </row>
-    <row r="432" spans="2:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="2:9" ht="51" x14ac:dyDescent="0.2">
       <c r="B432" s="3" t="s">
         <v>928</v>
       </c>
@@ -12518,7 +12580,7 @@
       <c r="H432" s="3"/>
       <c r="I432" s="3"/>
     </row>
-    <row r="433" spans="2:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="2:9" ht="51" x14ac:dyDescent="0.2">
       <c r="B433" s="3" t="s">
         <v>929</v>
       </c>
@@ -12533,7 +12595,7 @@
       <c r="H433" s="3"/>
       <c r="I433" s="3"/>
     </row>
-    <row r="434" spans="2:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="2:9" ht="51" x14ac:dyDescent="0.2">
       <c r="B434" s="3" t="s">
         <v>930</v>
       </c>
@@ -12548,7 +12610,7 @@
       <c r="H434" s="3"/>
       <c r="I434" s="3"/>
     </row>
-    <row r="435" spans="2:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="2:9" ht="51" x14ac:dyDescent="0.2">
       <c r="B435" s="3" t="s">
         <v>931</v>
       </c>
@@ -12563,7 +12625,7 @@
       <c r="H435" s="3"/>
       <c r="I435" s="3"/>
     </row>
-    <row r="436" spans="2:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="2:9" ht="51" x14ac:dyDescent="0.2">
       <c r="B436" s="3" t="s">
         <v>932</v>
       </c>
@@ -12578,7 +12640,7 @@
       <c r="H436" s="3"/>
       <c r="I436" s="3"/>
     </row>
-    <row r="437" spans="2:9" ht="51" hidden="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="2:9" ht="51" x14ac:dyDescent="0.2">
       <c r="B437" s="3" t="s">
         <v>933</v>
       </c>
@@ -12593,7 +12655,7 @@
       <c r="H437" s="3"/>
       <c r="I437" s="3"/>
     </row>
-    <row r="438" spans="2:9" ht="17" hidden="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="2:9" ht="17" x14ac:dyDescent="0.2">
       <c r="C438" s="3"/>
       <c r="D438" s="3"/>
       <c r="E438" s="1" t="s">
@@ -12603,7 +12665,7 @@
       <c r="H438" s="3"/>
       <c r="I438" s="3"/>
     </row>
-    <row r="439" spans="2:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="2:9" ht="34" x14ac:dyDescent="0.2">
       <c r="B439" s="3" t="s">
         <v>934</v>
       </c>
@@ -12620,7 +12682,7 @@
       <c r="H439" s="3"/>
       <c r="I439" s="3"/>
     </row>
-    <row r="440" spans="2:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="2:9" ht="34" x14ac:dyDescent="0.2">
       <c r="B440" s="3" t="s">
         <v>935</v>
       </c>
@@ -12635,7 +12697,7 @@
       <c r="H440" s="3"/>
       <c r="I440" s="3"/>
     </row>
-    <row r="441" spans="2:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="2:9" ht="34" x14ac:dyDescent="0.2">
       <c r="B441" s="3" t="s">
         <v>936</v>
       </c>
@@ -12650,7 +12712,7 @@
       <c r="H441" s="3"/>
       <c r="I441" s="3"/>
     </row>
-    <row r="442" spans="2:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="2:9" ht="34" x14ac:dyDescent="0.2">
       <c r="B442" s="3" t="s">
         <v>937</v>
       </c>
@@ -12665,7 +12727,7 @@
       <c r="H442" s="3"/>
       <c r="I442" s="3"/>
     </row>
-    <row r="443" spans="2:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="2:9" ht="34" x14ac:dyDescent="0.2">
       <c r="B443" s="3" t="s">
         <v>938</v>
       </c>
@@ -12680,7 +12742,7 @@
       <c r="H443" s="3"/>
       <c r="I443" s="3"/>
     </row>
-    <row r="444" spans="2:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="2:9" ht="34" x14ac:dyDescent="0.2">
       <c r="B444" s="3" t="s">
         <v>939</v>
       </c>
@@ -12695,7 +12757,7 @@
       <c r="H444" s="3"/>
       <c r="I444" s="3"/>
     </row>
-    <row r="445" spans="2:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="2:9" ht="34" x14ac:dyDescent="0.2">
       <c r="B445" s="3" t="s">
         <v>940</v>
       </c>
@@ -12710,7 +12772,7 @@
       <c r="H445" s="3"/>
       <c r="I445" s="3"/>
     </row>
-    <row r="446" spans="2:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="2:9" ht="34" x14ac:dyDescent="0.2">
       <c r="B446" s="3" t="s">
         <v>941</v>
       </c>
@@ -12725,7 +12787,7 @@
       <c r="H446" s="3"/>
       <c r="I446" s="3"/>
     </row>
-    <row r="447" spans="2:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="2:9" ht="34" x14ac:dyDescent="0.2">
       <c r="B447" s="3" t="s">
         <v>942</v>
       </c>
@@ -12740,7 +12802,7 @@
       <c r="H447" s="3"/>
       <c r="I447" s="3"/>
     </row>
-    <row r="448" spans="2:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="2:9" ht="34" x14ac:dyDescent="0.2">
       <c r="B448" s="3" t="s">
         <v>943</v>
       </c>
@@ -12755,7 +12817,7 @@
       <c r="H448" s="3"/>
       <c r="I448" s="3"/>
     </row>
-    <row r="449" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="B449" s="3" t="s">
         <v>944</v>
       </c>
@@ -12770,7 +12832,7 @@
       <c r="H449" s="3"/>
       <c r="I449" s="3"/>
     </row>
-    <row r="450" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="B450" s="3" t="s">
         <v>945</v>
       </c>
@@ -12785,7 +12847,7 @@
       <c r="H450" s="3"/>
       <c r="I450" s="3"/>
     </row>
-    <row r="451" spans="1:9" ht="34" hidden="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="B451" s="3" t="s">
         <v>946</v>
       </c>
@@ -12800,7 +12862,7 @@
       <c r="H451" s="3"/>
       <c r="I451" s="3"/>
     </row>
-    <row r="452" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A452" s="7"/>
       <c r="C452" s="3"/>
       <c r="D452" s="3"/>
@@ -12863,7 +12925,7 @@
         <v>2</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>1083</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="35" thickTop="1" x14ac:dyDescent="0.2">
@@ -12875,10 +12937,10 @@
         <v>290</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -12888,10 +12950,10 @@
         <v>291</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -12901,10 +12963,10 @@
         <v>292</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>1102</v>
+        <v>1098</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -12914,10 +12976,10 @@
         <v>293</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>1103</v>
+        <v>1099</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -12927,10 +12989,10 @@
         <v>294</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>1086</v>
+        <v>1082</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -12940,10 +13002,10 @@
         <v>295</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -12953,10 +13015,10 @@
         <v>296</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>1088</v>
+        <v>1084</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -12966,10 +13028,10 @@
         <v>297</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>1089</v>
+        <v>1085</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -12979,10 +13041,10 @@
         <v>298</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>1090</v>
+        <v>1086</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -12992,10 +13054,10 @@
         <v>299</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>1091</v>
+        <v>1087</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -13005,10 +13067,10 @@
         <v>300</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>1092</v>
+        <v>1088</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -13018,10 +13080,10 @@
         <v>301</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -13031,10 +13093,10 @@
         <v>302</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>1094</v>
+        <v>1090</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -13044,10 +13106,10 @@
         <v>303</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>1095</v>
+        <v>1091</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -13057,10 +13119,10 @@
         <v>304</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -13070,10 +13132,10 @@
         <v>305</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>1097</v>
+        <v>1093</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -13083,10 +13145,10 @@
         <v>306</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>1098</v>
+        <v>1094</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -13096,10 +13158,10 @@
         <v>307</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>1099</v>
+        <v>1095</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -13109,10 +13171,10 @@
         <v>308</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -13122,10 +13184,10 @@
         <v>589</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>1101</v>
+        <v>1097</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -13135,10 +13197,10 @@
         <v>310</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>1104</v>
+        <v>1100</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -13148,10 +13210,10 @@
         <v>311</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>1105</v>
+        <v>1101</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -13161,10 +13223,10 @@
         <v>312</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -13174,10 +13236,10 @@
         <v>313</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -13187,10 +13249,10 @@
         <v>314</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>1108</v>
+        <v>1104</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -13200,10 +13262,10 @@
         <v>315</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -13213,10 +13275,10 @@
         <v>316</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>1109</v>
+        <v>1105</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -13226,10 +13288,10 @@
         <v>317</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -13239,10 +13301,10 @@
         <v>318</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>1110</v>
+        <v>1106</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -13252,10 +13314,10 @@
         <v>319</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>1111</v>
+        <v>1107</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -13265,10 +13327,10 @@
         <v>320</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>1112</v>
+        <v>1108</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -13278,10 +13340,10 @@
         <v>321</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -13291,10 +13353,10 @@
         <v>322</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -13304,10 +13366,10 @@
         <v>323</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>1113</v>
+        <v>1109</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -13317,10 +13379,10 @@
         <v>324</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="32" customHeight="1" x14ac:dyDescent="0.2">
@@ -13330,10 +13392,10 @@
         <v>325</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>1114</v>
+        <v>1110</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -13343,10 +13405,10 @@
         <v>326</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -13356,10 +13418,10 @@
         <v>327</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>1116</v>
+        <v>1112</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -13369,10 +13431,10 @@
         <v>328</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>1117</v>
+        <v>1113</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -13382,10 +13444,10 @@
         <v>329</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>1118</v>
+        <v>1114</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -13395,10 +13457,10 @@
         <v>47</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="34" x14ac:dyDescent="0.2">
@@ -13408,10 +13470,10 @@
         <v>330</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="50" customHeight="1" x14ac:dyDescent="0.2">
@@ -13421,10 +13483,10 @@
         <v>240</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>1121</v>
+        <v>1117</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.2">
@@ -13434,10 +13496,10 @@
         <v>331</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
@@ -13447,10 +13509,10 @@
         <v>332</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="35" customHeight="1" x14ac:dyDescent="0.2">
@@ -13460,7 +13522,7 @@
         <v>333</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -13470,7 +13532,7 @@
         <v>334</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>1125</v>
+        <v>1121</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="40" customHeight="1" x14ac:dyDescent="0.2">
@@ -13937,7 +13999,7 @@
         <v>348</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>1127</v>
+        <v>1123</v>
       </c>
       <c r="G103" s="3"/>
       <c r="H103" s="3"/>
@@ -13949,7 +14011,7 @@
         <v>349</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>1128</v>
+        <v>1124</v>
       </c>
       <c r="G104" s="3"/>
       <c r="H104" s="3"/>
@@ -13961,7 +14023,7 @@
         <v>350</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="G105" s="3"/>
       <c r="H105" s="3"/>
@@ -13973,7 +14035,7 @@
         <v>351</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="G106" s="3"/>
       <c r="H106" s="3"/>
@@ -13985,7 +14047,7 @@
         <v>339</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>1126</v>
+        <v>1122</v>
       </c>
       <c r="G107" s="3"/>
       <c r="H107" s="3"/>
@@ -14987,7 +15049,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A105A75E-6EEC-0744-B3A9-B34C57BF149F}">
   <dimension ref="A1:H352"/>
   <sheetViews>
-    <sheetView zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="72" zoomScaleNormal="72" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -18131,7 +18193,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3213185-FE5E-B048-8E05-941F395BE506}">
   <dimension ref="A1:H352"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -19618,15 +19680,16 @@
   <dimension ref="B2:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="76.5" customWidth="1"/>
+    <col min="7" max="7" width="48" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:8" ht="17" x14ac:dyDescent="0.2">
       <c r="B2" s="32" t="s">
         <v>1032</v>
       </c>
@@ -19634,16 +19697,16 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="G2" s="33" t="s">
+        <v>1052</v>
+      </c>
       <c r="H2" s="1"/>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B3" s="15" t="s">
-        <v>1040</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>1044</v>
-      </c>
+        <v>1139</v>
+      </c>
+      <c r="C3" s="15"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -19652,7 +19715,7 @@
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B4" s="15" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -19663,7 +19726,7 @@
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5" s="15" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -19674,7 +19737,7 @@
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" s="15" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -19685,7 +19748,7 @@
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" s="15" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -19712,10 +19775,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="2:8" ht="34" x14ac:dyDescent="0.2">
-      <c r="B10" s="33" t="s">
-        <v>1056</v>
-      </c>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -19848,7 +19908,7 @@
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B24" s="15" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -19859,12 +19919,10 @@
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B25" s="15" t="s">
-        <v>1038</v>
+        <v>1137</v>
       </c>
       <c r="C25" s="1"/>
-      <c r="D25" s="15" t="s">
-        <v>1036</v>
-      </c>
+      <c r="D25" s="15"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -19872,7 +19930,7 @@
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B26" s="15" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -19882,7 +19940,9 @@
       <c r="H26" s="1"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B27" s="15"/>
+      <c r="B27" s="15" t="s">
+        <v>1136</v>
+      </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -19891,7 +19951,9 @@
       <c r="H27" s="1"/>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B28" s="15"/>
+      <c r="B28" s="15" t="s">
+        <v>1138</v>
+      </c>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
@@ -19954,6 +20016,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="3">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -19961,9 +20028,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6186F875-6270-D84E-AB96-78CAE31982AB}">
   <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
